--- a/data_clean/NEL 16.12.2020.xlsx
+++ b/data_clean/NEL 16.12.2020.xlsx
@@ -1698,7 +1698,7 @@
         <v>1.050340525285974</v>
       </c>
       <c r="K2">
-        <v>49.45649989811941</v>
+        <v>-0.005435001018806201</v>
       </c>
       <c r="L2">
         <v>-0.0002966866388983165</v>
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1769,7 +1769,7 @@
         <v>1.050340525285974</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.01281665359915481</v>
@@ -1799,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1840,7 +1840,7 @@
         <v>0.95</v>
       </c>
       <c r="K4">
-        <v>48.71794871794872</v>
+        <v>-0.01282051282051283</v>
       </c>
       <c r="L4">
         <v>0.004684869785920805</v>
@@ -1870,13 +1870,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9998656455730216</v>
+        <v>-0.0001343544269784003</v>
       </c>
       <c r="V4">
-        <v>0.9998656455730216</v>
+        <v>-0.0001343544269784003</v>
       </c>
       <c r="W4">
-        <v>0.9991941982272361</v>
+        <v>-0.0008058017727639033</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1911,7 +1911,7 @@
         <v>6.213157894736844</v>
       </c>
       <c r="K5">
-        <v>86.13644655235316</v>
+        <v>0.3613644655235316</v>
       </c>
       <c r="L5">
         <v>0.01433343062055498</v>
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000940607363612</v>
+        <v>0.0009406073636117895</v>
       </c>
       <c r="V5">
-        <v>1.000940607363612</v>
+        <v>0.0009406073636117895</v>
       </c>
       <c r="W5">
-        <v>1.004032258064516</v>
+        <v>0.004032258064516014</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1982,7 +1982,7 @@
         <v>1.273679727427572</v>
       </c>
       <c r="K6">
-        <v>56.01843179859839</v>
+        <v>0.06018431798598389</v>
       </c>
       <c r="L6">
         <v>0.01404435481870886</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W6">
-        <v>0.9971887550200803</v>
+        <v>-0.002811244979919691</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -2053,7 +2053,7 @@
         <v>2.349623419707718</v>
       </c>
       <c r="K7">
-        <v>70.14589777118115</v>
+        <v>0.2014589777118115</v>
       </c>
       <c r="L7">
         <v>0.01736570706437927</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000604107933951</v>
+        <v>0.0006041079339507149</v>
       </c>
       <c r="V7">
-        <v>1.000604107933951</v>
+        <v>0.0006041079339507149</v>
       </c>
       <c r="W7">
-        <v>1.003624647603705</v>
+        <v>0.0036246476037054</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2124,7 +2124,7 @@
         <v>2.978830257298388</v>
       </c>
       <c r="K8">
-        <v>74.86698513550068</v>
+        <v>0.2486698513550069</v>
       </c>
       <c r="L8">
         <v>0.02244688212171959</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000718741914153</v>
+        <v>0.0007187419141534424</v>
       </c>
       <c r="V8">
-        <v>1.000718741914153</v>
+        <v>0.0007187419141534424</v>
       </c>
       <c r="W8">
-        <v>1.002006420545746</v>
+        <v>0.002006420545746179</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2195,7 +2195,7 @@
         <v>2.354938339318022</v>
       </c>
       <c r="K9">
-        <v>70.19319287390314</v>
+        <v>0.2019319287390314</v>
       </c>
       <c r="L9">
         <v>0.02588759349507723</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000438117674098</v>
+        <v>0.0004381176740979598</v>
       </c>
       <c r="V9">
-        <v>1.000438117674098</v>
+        <v>0.0004381176740979598</v>
       </c>
       <c r="W9">
-        <v>0.999199038846616</v>
+        <v>-0.0008009611533840166</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2266,7 +2266,7 @@
         <v>0.9259540248232938</v>
       </c>
       <c r="K10">
-        <v>48.07768061380645</v>
+        <v>-0.01922319386193549</v>
       </c>
       <c r="L10">
         <v>0.02356958326234927</v>
@@ -2296,13 +2296,13 @@
         <v>0.00833333333333286</v>
       </c>
       <c r="U10">
-        <v>0.99971522857095</v>
+        <v>-0.0002847714290500347</v>
       </c>
       <c r="V10">
-        <v>0.99971522857095</v>
+        <v>-0.0002847714290500347</v>
       </c>
       <c r="W10">
-        <v>0.9943887775551102</v>
+        <v>-0.005611222444889763</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2337,7 +2337,7 @@
         <v>1.245324173532414</v>
       </c>
       <c r="K11">
-        <v>55.46300120989794</v>
+        <v>0.05463001209897944</v>
       </c>
       <c r="L11">
         <v>0.02120634831443823</v>
@@ -2367,13 +2367,13 @@
         <v>0.01449999999999818</v>
       </c>
       <c r="U11">
-        <v>1.000053619302949</v>
+        <v>5.361930294922601E-05</v>
       </c>
       <c r="V11">
-        <v>1.000053619302949</v>
+        <v>5.361930294922601E-05</v>
       </c>
       <c r="W11">
-        <v>1.002821442966546</v>
+        <v>0.002821442966545851</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2408,7 +2408,7 @@
         <v>1.00419008558776</v>
       </c>
       <c r="K12">
-        <v>50.10453313829589</v>
+        <v>0.001045331382958925</v>
       </c>
       <c r="L12">
         <v>0.01773376761755672</v>
@@ -2438,13 +2438,13 @@
         <v>0.02170454545454348</v>
       </c>
       <c r="U12">
-        <v>0.999861084709082</v>
+        <v>-0.0001389152909180291</v>
       </c>
       <c r="V12">
-        <v>0.999861084709082</v>
+        <v>-0.0001389152909180291</v>
       </c>
       <c r="W12">
-        <v>0.9979903536977491</v>
+        <v>-0.002009646302250867</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2479,7 +2479,7 @@
         <v>1.00419008558776</v>
       </c>
       <c r="K13">
-        <v>50.10453313829589</v>
+        <v>0.001045331382958925</v>
       </c>
       <c r="L13">
         <v>0.01405625401492341</v>
@@ -2509,13 +2509,13 @@
         <v>0.0158333333333367</v>
       </c>
       <c r="U13">
-        <v>0.9998842211741191</v>
+        <v>-0.0001157788258808745</v>
       </c>
       <c r="V13">
-        <v>0.9998842211741191</v>
+        <v>-0.0001157788258808745</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2550,7 +2550,7 @@
         <v>0.7244243492502528</v>
       </c>
       <c r="K14">
-        <v>42.00963350843536</v>
+        <v>-0.07990366491564638</v>
       </c>
       <c r="L14">
         <v>0.008683779242489359</v>
@@ -2580,13 +2580,13 @@
         <v>0.01394230769230731</v>
       </c>
       <c r="U14">
-        <v>0.9996235580468334</v>
+        <v>-0.0003764419531665508</v>
       </c>
       <c r="V14">
-        <v>0.9996235580468334</v>
+        <v>-0.0003764419531665508</v>
       </c>
       <c r="W14">
-        <v>0.9963753523962948</v>
+        <v>-0.003624647603705178</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2621,7 +2621,7 @@
         <v>1.148024233269279</v>
       </c>
       <c r="K15">
-        <v>53.44559039364251</v>
+        <v>0.03445590393642517</v>
       </c>
       <c r="L15">
         <v>0.005537120788856505</v>
@@ -2651,13 +2651,13 @@
         <v>0.006428571428571672</v>
       </c>
       <c r="U15">
-        <v>1.000050849855852</v>
+        <v>5.08498558517978E-05</v>
       </c>
       <c r="V15">
-        <v>1.000050849855852</v>
+        <v>5.08498558517978E-05</v>
       </c>
       <c r="W15">
-        <v>1.005254648342765</v>
+        <v>0.0052546483427649</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2692,7 +2692,7 @@
         <v>1.388121333522975</v>
       </c>
       <c r="K16">
-        <v>58.12608069939259</v>
+        <v>0.0812608069939259</v>
       </c>
       <c r="L16">
         <v>0.005088975726146432</v>
@@ -2722,13 +2722,13 @@
         <v>-0.003083333333332661</v>
       </c>
       <c r="U16">
-        <v>1.000231834075777</v>
+        <v>0.0002318340757772042</v>
       </c>
       <c r="V16">
-        <v>1.000231834075777</v>
+        <v>0.0002318340757772042</v>
       </c>
       <c r="W16">
-        <v>1.00281463610776</v>
+        <v>0.002814636107760338</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2763,7 +2763,7 @@
         <v>1.212948194167965</v>
       </c>
       <c r="K17">
-        <v>54.81141390316257</v>
+        <v>0.04811413903162576</v>
       </c>
       <c r="L17">
         <v>0.005330719331062133</v>
@@ -2793,13 +2793,13 @@
         <v>-0.01187499999999986</v>
       </c>
       <c r="U17">
-        <v>1.000102241948027</v>
+        <v>0.0001022419480274372</v>
       </c>
       <c r="V17">
-        <v>1.000268175601384</v>
+        <v>0.0002681756013838132</v>
       </c>
       <c r="W17">
-        <v>0.9983961507618283</v>
+        <v>-0.001603849238171695</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2834,7 +2834,7 @@
         <v>1.345784405106711</v>
       </c>
       <c r="K18">
-        <v>57.37033642891366</v>
+        <v>0.0737033642891366</v>
       </c>
       <c r="L18">
         <v>0.006598146442980185</v>
@@ -2864,13 +2864,13 @@
         <v>-0.004374999999999574</v>
       </c>
       <c r="U18">
-        <v>1.000184844796915</v>
+        <v>0.0001848447969148292</v>
       </c>
       <c r="V18">
-        <v>1.000321724443015</v>
+        <v>0.0003217244430147037</v>
       </c>
       <c r="W18">
-        <v>1.001606425702811</v>
+        <v>0.001606425702811443</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2905,7 +2905,7 @@
         <v>1.380741302722161</v>
       </c>
       <c r="K19">
-        <v>57.99627624989785</v>
+        <v>0.07996276249897849</v>
       </c>
       <c r="L19">
         <v>0.008466607721827089</v>
@@ -2935,13 +2935,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U19">
-        <v>1.000186617672957</v>
+        <v>0.0001866176729565794</v>
       </c>
       <c r="V19">
-        <v>1.000402026212109</v>
+        <v>0.0004020262121089413</v>
       </c>
       <c r="W19">
-        <v>1.000400962309543</v>
+        <v>0.000400962309542896</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2976,7 +2976,7 @@
         <v>1.380741302722161</v>
       </c>
       <c r="K20">
-        <v>57.99627624989785</v>
+        <v>0.07996276249897849</v>
       </c>
       <c r="L20">
         <v>0.01049041961630578</v>
@@ -3006,13 +3006,13 @@
         <v>0.001875000000001847</v>
       </c>
       <c r="U20">
-        <v>1.000166942552951</v>
+        <v>0.0001669425529513546</v>
       </c>
       <c r="V20">
-        <v>1.000133954883995</v>
+        <v>0.0001339548839951465</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3047,7 +3047,7 @@
         <v>1.496941516402355</v>
       </c>
       <c r="K21">
-        <v>59.951004321446</v>
+        <v>0.09951004321446</v>
       </c>
       <c r="L21">
         <v>0.01289806258315193</v>
@@ -3077,13 +3077,13 @@
         <v>0.01562499999999645</v>
       </c>
       <c r="U21">
-        <v>1.000210524088611</v>
+        <v>0.0002105240886105531</v>
       </c>
       <c r="V21">
-        <v>1.000401810827463</v>
+        <v>0.0004018108274626009</v>
       </c>
       <c r="W21">
-        <v>1.001202404809619</v>
+        <v>0.001202404809619306</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3118,7 +3118,7 @@
         <v>1.782345550002823</v>
       </c>
       <c r="K22">
-        <v>64.05910114223643</v>
+        <v>0.1405910114223643</v>
       </c>
       <c r="L22">
         <v>0.01642075920064326</v>
@@ -3148,13 +3148,13 @@
         <v>0.04062500000000213</v>
       </c>
       <c r="U22">
-        <v>1.000324407812199</v>
+        <v>0.0003244078121993343</v>
       </c>
       <c r="V22">
-        <v>1.000348096181652</v>
+        <v>0.0003480961816524353</v>
       </c>
       <c r="W22">
-        <v>1.002802241793435</v>
+        <v>0.002802241793434801</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3189,7 +3189,7 @@
         <v>1.46744686294998</v>
       </c>
       <c r="K23">
-        <v>59.47227820726237</v>
+        <v>0.09472278207262375</v>
       </c>
       <c r="L23">
         <v>0.01947790483885155</v>
@@ -3219,13 +3219,13 @@
         <v>0.05187500000000256</v>
       </c>
       <c r="U23">
-        <v>1.000203504451008</v>
+        <v>0.0002035044510075856</v>
       </c>
       <c r="V23">
-        <v>1.000080301935277</v>
+        <v>8.030193527663876E-05</v>
       </c>
       <c r="W23">
-        <v>0.998003992015968</v>
+        <v>-0.001996007984031989</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3260,7 +3260,7 @@
         <v>1.541836995022933</v>
       </c>
       <c r="K24">
-        <v>60.65837416175548</v>
+        <v>0.1065837416175548</v>
       </c>
       <c r="L24">
         <v>0.02228738861142113</v>
@@ -3290,13 +3290,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U24">
-        <v>1.000220701831825</v>
+        <v>0.0002207018318252096</v>
       </c>
       <c r="V24">
-        <v>1.000187356137252</v>
+        <v>0.0001873561372518484</v>
       </c>
       <c r="W24">
-        <v>1.0008</v>
+        <v>0.0007999999999999119</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3331,7 +3331,7 @@
         <v>1.541836995022932</v>
       </c>
       <c r="K25">
-        <v>60.65837416175548</v>
+        <v>0.1065837416175548</v>
       </c>
       <c r="L25">
         <v>0.02467162033962494</v>
@@ -3361,13 +3361,13 @@
         <v>0.06937500000000085</v>
       </c>
       <c r="U25">
-        <v>1.000202265372168</v>
+        <v>0.0002022653721684975</v>
       </c>
       <c r="V25">
-        <v>1.000561963124515</v>
+        <v>0.0005619631245148415</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3402,7 +3402,7 @@
         <v>1.424426189110364</v>
       </c>
       <c r="K26">
-        <v>58.75312663707254</v>
+        <v>0.08753126637072539</v>
       </c>
       <c r="L26">
         <v>0.02624165604429432</v>
@@ -3432,13 +3432,13 @@
         <v>0.06500000000000128</v>
       </c>
       <c r="U26">
-        <v>1.00015392337293</v>
+        <v>0.0001539233729295209</v>
       </c>
       <c r="V26">
-        <v>1.000320941428189</v>
+        <v>0.0003209414281892808</v>
       </c>
       <c r="W26">
-        <v>0.9992006394884093</v>
+        <v>-0.0007993605115906854</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3473,7 +3473,7 @@
         <v>1.424426189110364</v>
       </c>
       <c r="K27">
-        <v>58.75312663707254</v>
+        <v>0.08753126637072539</v>
       </c>
       <c r="L27">
         <v>0.02712475783081095</v>
@@ -3503,13 +3503,13 @@
         <v>0.06374999999999886</v>
       </c>
       <c r="U27">
-        <v>1.000142061246927</v>
+        <v>0.000142061246927172</v>
       </c>
       <c r="V27">
-        <v>1.000454521148602</v>
+        <v>0.0004545211486017831</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3544,7 +3544,7 @@
         <v>1.424426189110364</v>
       </c>
       <c r="K28">
-        <v>58.75312663707254</v>
+        <v>0.08753126637072539</v>
       </c>
       <c r="L28">
         <v>0.02743844087853915</v>
@@ -3574,13 +3574,13 @@
         <v>0.05937499999999929</v>
       </c>
       <c r="U28">
-        <v>1.000131519507774</v>
+        <v>0.0001315195077740139</v>
       </c>
       <c r="V28">
-        <v>1.000454314652984</v>
+        <v>0.0004543146529838449</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3615,7 +3615,7 @@
         <v>1.424426189110364</v>
       </c>
       <c r="K29">
-        <v>58.75312663707255</v>
+        <v>0.0875312663707255</v>
       </c>
       <c r="L29">
         <v>0.02728879698037128</v>
@@ -3645,13 +3645,13 @@
         <v>0.05124999999999957</v>
       </c>
       <c r="U29">
-        <v>1.000122109197477</v>
+        <v>0.0001221091974770161</v>
       </c>
       <c r="V29">
-        <v>1.000694518645154</v>
+        <v>0.0006945186451543517</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3686,7 +3686,7 @@
         <v>2.078871297522469</v>
       </c>
       <c r="K30">
-        <v>67.5205650588679</v>
+        <v>0.175205650588679</v>
       </c>
       <c r="L30">
         <v>0.02886551634741897</v>
@@ -3716,13 +3716,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U30">
-        <v>1.000307414015509</v>
+        <v>0.0003074140155090443</v>
       </c>
       <c r="V30">
-        <v>1.000720730340078</v>
+        <v>0.000720730340077802</v>
       </c>
       <c r="W30">
-        <v>1.0056</v>
+        <v>0.005600000000000049</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3757,7 +3757,7 @@
         <v>1.981374969928479</v>
       </c>
       <c r="K31">
-        <v>66.45842907764167</v>
+        <v>0.1645842907764167</v>
       </c>
       <c r="L31">
         <v>0.03111176741226955</v>
@@ -3787,13 +3787,13 @@
         <v>0.03750000000000142</v>
       </c>
       <c r="U31">
-        <v>1.000273458395588</v>
+        <v>0.0002734583955879</v>
       </c>
       <c r="V31">
-        <v>1.000506815332498</v>
+        <v>0.0005068153324976343</v>
       </c>
       <c r="W31">
-        <v>0.9996022275258551</v>
+        <v>-0.0003977724741448529</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3828,7 +3828,7 @@
         <v>2.080109041036317</v>
       </c>
       <c r="K32">
-        <v>67.53361693768005</v>
+        <v>0.1753361693768005</v>
       </c>
       <c r="L32">
         <v>0.03379215391066177</v>
@@ -3858,13 +3858,13 @@
         <v>0.04062499999999858</v>
       </c>
       <c r="U32">
-        <v>1.000467933205877</v>
+        <v>0.0004679332058772356</v>
       </c>
       <c r="V32">
-        <v>1.000666524474779</v>
+        <v>0.0006665244747787735</v>
       </c>
       <c r="W32">
-        <v>1.000795861520096</v>
+        <v>0.0007958615200955865</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3899,7 +3899,7 @@
         <v>2.236004942785545</v>
       </c>
       <c r="K33">
-        <v>69.09769862282093</v>
+        <v>0.1909769862282092</v>
       </c>
       <c r="L33">
         <v>0.0368759823702805</v>
@@ -3929,13 +3929,13 @@
         <v>0.04312499999999631</v>
       </c>
       <c r="U33">
-        <v>1.000481077613855</v>
+        <v>0.0004810776138548523</v>
       </c>
       <c r="V33">
-        <v>1.00063943729518</v>
+        <v>0.0006394372951803451</v>
       </c>
       <c r="W33">
-        <v>1.001192842942346</v>
+        <v>0.001192842942346006</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3970,7 +3970,7 @@
         <v>2.290705259188789</v>
       </c>
       <c r="K34">
-        <v>69.61137746361047</v>
+        <v>0.1961137746361047</v>
       </c>
       <c r="L34">
         <v>0.04001145606176459</v>
@@ -4000,13 +4000,13 @@
         <v>0.05124999999999957</v>
       </c>
       <c r="U34">
-        <v>1.000520916813592</v>
+        <v>0.0005209168135920095</v>
       </c>
       <c r="V34">
-        <v>1.000639028676412</v>
+        <v>0.0006390286764117459</v>
       </c>
       <c r="W34">
-        <v>1.000397140587768</v>
+        <v>0.0003971405877680745</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -4041,7 +4041,7 @@
         <v>1.861881964243164</v>
       </c>
       <c r="K35">
-        <v>65.05795792788911</v>
+        <v>0.1505795792788911</v>
       </c>
       <c r="L35">
         <v>0.04223561815960913</v>
@@ -4071,13 +4071,13 @@
         <v>0.05750000000000099</v>
       </c>
       <c r="U35">
-        <v>1.000333747179836</v>
+        <v>0.0003337471798361413</v>
       </c>
       <c r="V35">
-        <v>1.00053218381629</v>
+        <v>0.000532183816290166</v>
       </c>
       <c r="W35">
-        <v>0.9984120682810638</v>
+        <v>-0.001587931718936231</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4112,7 +4112,7 @@
         <v>1.861881964243164</v>
       </c>
       <c r="K36">
-        <v>65.05795792788911</v>
+        <v>0.1505795792788911</v>
       </c>
       <c r="L36">
         <v>0.04361066765289129</v>
@@ -4142,13 +4142,13 @@
         <v>0.06375000000000242</v>
       </c>
       <c r="U36">
-        <v>1.000427053862168</v>
+        <v>0.0004270538621684583</v>
       </c>
       <c r="V36">
-        <v>1.000452115635222</v>
+        <v>0.0004521156352224054</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4183,7 +4183,7 @@
         <v>2.069307368889931</v>
       </c>
       <c r="K37">
-        <v>67.41935949016187</v>
+        <v>0.1741935949016187</v>
       </c>
       <c r="L37">
         <v>0.04481152983872996</v>
@@ -4213,13 +4213,13 @@
         <v>0.07437499999999986</v>
       </c>
       <c r="U37">
-        <v>1.000360172882984</v>
+        <v>0.0003601728829838446</v>
       </c>
       <c r="V37">
-        <v>1.000372162262747</v>
+        <v>0.0003721622627468335</v>
       </c>
       <c r="W37">
-        <v>1.001590457256461</v>
+        <v>0.001590457256461342</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4254,7 +4254,7 @@
         <v>1.698461077969329</v>
       </c>
       <c r="K38">
-        <v>62.94184088241401</v>
+        <v>0.1294184088241401</v>
       </c>
       <c r="L38">
         <v>0.04507739143486495</v>
@@ -4284,13 +4284,13 @@
         <v>0.0693749999999973</v>
       </c>
       <c r="U38">
-        <v>1.000240028803457</v>
+        <v>0.0002400288034565268</v>
       </c>
       <c r="V38">
-        <v>1.000398596938775</v>
+        <v>0.0003985969387754196</v>
       </c>
       <c r="W38">
-        <v>0.9984120682810638</v>
+        <v>-0.001587931718936231</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4325,7 +4325,7 @@
         <v>1.698461077969329</v>
       </c>
       <c r="K39">
-        <v>62.94184088241401</v>
+        <v>0.1294184088241401</v>
       </c>
       <c r="L39">
         <v>0.04459603658056693</v>
@@ -4355,13 +4355,13 @@
         <v>0.0625</v>
       </c>
       <c r="U39">
-        <v>1.000266634670506</v>
+        <v>0.0002666346705060274</v>
       </c>
       <c r="V39">
-        <v>1.000345313039551</v>
+        <v>0.0003453130395514314</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4396,7 +4396,7 @@
         <v>1.748104502602401</v>
       </c>
       <c r="K40">
-        <v>63.61128191984622</v>
+        <v>0.1361128191984622</v>
       </c>
       <c r="L40">
         <v>0.04367686501970978</v>
@@ -4426,13 +4426,13 @@
         <v>0.05500000000000327</v>
       </c>
       <c r="U40">
-        <v>1.000466486291967</v>
+        <v>0.0004664862919672164</v>
       </c>
       <c r="V40">
-        <v>1.000371747211896</v>
+        <v>0.0003717472118960341</v>
       </c>
       <c r="W40">
-        <v>1.000397614314115</v>
+        <v>0.0003976143141153354</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4467,7 +4467,7 @@
         <v>1.511196221376108</v>
       </c>
       <c r="K41">
-        <v>60.17834084458718</v>
+        <v>0.1017834084458717</v>
       </c>
       <c r="L41">
         <v>0.04195351510487995</v>
@@ -4497,13 +4497,13 @@
         <v>0.04187500000000099</v>
       </c>
       <c r="U41">
-        <v>1.000333049131408</v>
+        <v>0.0003330491314077477</v>
       </c>
       <c r="V41">
-        <v>1.000345065562457</v>
+        <v>0.0003450655624568366</v>
       </c>
       <c r="W41">
-        <v>0.9988076311605723</v>
+        <v>-0.001192368839427749</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4538,7 +4538,7 @@
         <v>1.511196221376108</v>
       </c>
       <c r="K42">
-        <v>60.17834084458717</v>
+        <v>0.1017834084458716</v>
       </c>
       <c r="L42">
         <v>0.03970128737629245</v>
@@ -4568,13 +4568,13 @@
         <v>0.02625000000000099</v>
       </c>
       <c r="U42">
-        <v>1.000399525895937</v>
+        <v>0.0003995258959368364</v>
       </c>
       <c r="V42">
-        <v>1.000344946533287</v>
+        <v>0.0003449465332874269</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4609,7 +4609,7 @@
         <v>1.511196221376108</v>
       </c>
       <c r="K43">
-        <v>60.17834084458717</v>
+        <v>0.1017834084458716</v>
       </c>
       <c r="L43">
         <v>0.03712853271683812</v>
@@ -4639,13 +4639,13 @@
         <v>0.015625</v>
       </c>
       <c r="U43">
-        <v>1.000399366338742</v>
+        <v>0.0003993663387424906</v>
       </c>
       <c r="V43">
-        <v>1.000344827586207</v>
+        <v>0.0003448275862067973</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4680,7 +4680,7 @@
         <v>1.248142253563442</v>
       </c>
       <c r="K44">
-        <v>55.51882900581851</v>
+        <v>0.05518829005818515</v>
       </c>
       <c r="L44">
         <v>0.03380819345533592</v>
@@ -4710,13 +4710,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U44">
-        <v>1.000465741393764</v>
+        <v>0.0004657413937643184</v>
       </c>
       <c r="V44">
-        <v>1.000238644499244</v>
+        <v>0.0002386444992443781</v>
       </c>
       <c r="W44">
-        <v>0.998408276959809</v>
+        <v>-0.001591723040190951</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4751,7 +4751,7 @@
         <v>1.193471813712567</v>
       </c>
       <c r="K45">
-        <v>54.41017323548612</v>
+        <v>0.04410173235486115</v>
       </c>
       <c r="L45">
         <v>0.02997953418750469</v>
@@ -4781,13 +4781,13 @@
         <v>-0.01625000000000298</v>
       </c>
       <c r="U45">
-        <v>1.000279314747819</v>
+        <v>0.0002793147478188374</v>
       </c>
       <c r="V45">
-        <v>0.9998409416255767</v>
+        <v>-0.0001590583744233154</v>
       </c>
       <c r="W45">
-        <v>0.9996014348345954</v>
+        <v>-0.0003985651654045963</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4822,7 +4822,7 @@
         <v>1.09270918979231</v>
       </c>
       <c r="K46">
-        <v>52.21505191080828</v>
+        <v>0.02215051910808274</v>
       </c>
       <c r="L46">
         <v>0.02568809435850237</v>
@@ -4852,13 +4852,13 @@
         <v>-0.02250000000000441</v>
       </c>
       <c r="U46">
-        <v>1.000159563858786</v>
+        <v>0.000159563858786127</v>
       </c>
       <c r="V46">
-        <v>0.9998144023756497</v>
+        <v>-0.000185597624350331</v>
       </c>
       <c r="W46">
-        <v>0.9992025518341308</v>
+        <v>-0.0007974481658692412</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4893,7 +4893,7 @@
         <v>1.181580932465577</v>
       </c>
       <c r="K47">
-        <v>54.16168224069409</v>
+        <v>0.04161682240694087</v>
       </c>
       <c r="L47">
         <v>0.02158843177232242</v>
@@ -4923,13 +4923,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U47">
-        <v>1.000239307603334</v>
+        <v>0.0002393076033344599</v>
       </c>
       <c r="V47">
-        <v>0.9998143679227768</v>
+        <v>-0.0001856320772232189</v>
       </c>
       <c r="W47">
-        <v>1.000798084596967</v>
+        <v>0.0007980845969672856</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4964,7 +4964,7 @@
         <v>1.080500931668264</v>
       </c>
       <c r="K48">
-        <v>51.9346526224267</v>
+        <v>0.01934652622426702</v>
       </c>
       <c r="L48">
         <v>0.01749721679316743</v>
@@ -4994,13 +4994,13 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="U48">
-        <v>1.000159500232604</v>
+        <v>0.0001595002326044703</v>
       </c>
       <c r="V48">
-        <v>0.9996817144979047</v>
+        <v>-0.000318285502095339</v>
       </c>
       <c r="W48">
-        <v>0.9992025518341308</v>
+        <v>-0.0007974481658692412</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -5035,7 +5035,7 @@
         <v>1.125525355267109</v>
       </c>
       <c r="K49">
-        <v>52.95280776011572</v>
+        <v>0.02952807760115717</v>
       </c>
       <c r="L49">
         <v>0.01375395176970791</v>
@@ -5065,13 +5065,13 @@
         <v>-0.03562499999999957</v>
       </c>
       <c r="U49">
-        <v>1.000159474796338</v>
+        <v>0.0001594747963375998</v>
       </c>
       <c r="V49">
-        <v>0.9996816131599894</v>
+        <v>-0.0003183868400106205</v>
       </c>
       <c r="W49">
-        <v>1.000399042298484</v>
+        <v>0.0003990422984836428</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5106,7 +5106,7 @@
         <v>0.7636161321164155</v>
       </c>
       <c r="K50">
-        <v>43.29831861993932</v>
+        <v>-0.06701681380060687</v>
       </c>
       <c r="L50">
         <v>0.008957164308224005</v>
@@ -5136,13 +5136,13 @@
         <v>-0.04187499999999744</v>
       </c>
       <c r="U50">
-        <v>1.000026574894697</v>
+        <v>2.657489469681806E-05</v>
       </c>
       <c r="V50">
-        <v>0.9995222676362864</v>
+        <v>-0.0004777323637136233</v>
       </c>
       <c r="W50">
-        <v>0.9960111687275628</v>
+        <v>-0.00398883127243721</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5177,7 +5177,7 @@
         <v>0.6530902548681163</v>
       </c>
       <c r="K51">
-        <v>39.50723518845134</v>
+        <v>-0.1049276481154866</v>
       </c>
       <c r="L51">
         <v>0.003069848879258439</v>
@@ -5207,13 +5207,13 @@
         <v>-0.05375000000000085</v>
       </c>
       <c r="U51">
-        <v>0.9999202774345277</v>
+        <v>-7.97225654722844E-05</v>
       </c>
       <c r="V51">
-        <v>0.9993892724375997</v>
+        <v>-0.0006107275624003261</v>
       </c>
       <c r="W51">
-        <v>0.99799759711654</v>
+        <v>-0.002002402883459986</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5248,7 +5248,7 @@
         <v>0.8359198580510214</v>
       </c>
       <c r="K52">
-        <v>45.53139149213291</v>
+        <v>-0.04468608507867089</v>
       </c>
       <c r="L52">
         <v>-0.002242273215216854</v>
@@ -5278,13 +5278,13 @@
         <v>-0.05687500000000156</v>
       </c>
       <c r="U52">
-        <v>0.9999069829247228</v>
+        <v>-9.301707527720193E-05</v>
       </c>
       <c r="V52">
-        <v>0.9994420384196401</v>
+        <v>-0.0005579615803599225</v>
       </c>
       <c r="W52">
-        <v>1.002407704654896</v>
+        <v>0.002407704654895593</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5319,7 +5319,7 @@
         <v>1.028372071927764</v>
       </c>
       <c r="K53">
-        <v>50.69938036320918</v>
+        <v>0.006993803632091788</v>
       </c>
       <c r="L53">
         <v>-0.005988399300883547</v>
@@ -5349,13 +5349,13 @@
         <v>-0.05249999999999488</v>
       </c>
       <c r="U53">
-        <v>1.000053157559005</v>
+        <v>5.315755900481278E-05</v>
       </c>
       <c r="V53">
-        <v>0.9997075712462781</v>
+        <v>-0.0002924287537219294</v>
       </c>
       <c r="W53">
-        <v>1.00240192153723</v>
+        <v>0.002401921537229734</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5390,7 +5390,7 @@
         <v>0.9060114357163546</v>
       </c>
       <c r="K54">
-        <v>47.53441761884496</v>
+        <v>-0.02465582381155046</v>
       </c>
       <c r="L54">
         <v>-0.009106722254089152</v>
@@ -5420,13 +5420,13 @@
         <v>-0.05062499999999659</v>
       </c>
       <c r="U54">
-        <v>0.9999734226332855</v>
+        <v>-2.657736671451971E-05</v>
       </c>
       <c r="V54">
-        <v>0.9996011168727563</v>
+        <v>-0.0003988831272436766</v>
       </c>
       <c r="W54">
-        <v>0.9984025559105432</v>
+        <v>-0.001597444089456834</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5461,7 +5461,7 @@
         <v>0.9060114357163547</v>
       </c>
       <c r="K55">
-        <v>47.53441761884496</v>
+        <v>-0.0246558238115504</v>
       </c>
       <c r="L55">
         <v>-0.01161321810991774</v>
@@ -5491,13 +5491,13 @@
         <v>-0.05124999999999957</v>
       </c>
       <c r="U55">
-        <v>0.9999734219269103</v>
+        <v>-2.657807308970028E-05</v>
       </c>
       <c r="V55">
-        <v>0.9995743548816175</v>
+        <v>-0.0004256451183825005</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5532,7 +5532,7 @@
         <v>1.10377009138121</v>
       </c>
       <c r="K56">
-        <v>52.46628877856802</v>
+        <v>0.02466288778568027</v>
       </c>
       <c r="L56">
         <v>-0.01267596370582482</v>
@@ -5562,13 +5562,13 @@
         <v>-0.04499999999999815</v>
       </c>
       <c r="U56">
-        <v>1.000079736338507</v>
+        <v>7.973633850744122E-05</v>
       </c>
       <c r="V56">
-        <v>0.999813700963432</v>
+        <v>-0.0001862990365679718</v>
       </c>
       <c r="W56">
-        <v>1.0024</v>
+        <v>0.002399999999999958</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5603,7 +5603,7 @@
         <v>1.066759406105893</v>
       </c>
       <c r="K57">
-        <v>51.61507444719167</v>
+        <v>0.01615074447191667</v>
       </c>
       <c r="L57">
         <v>-0.01289539070165682</v>
@@ -5633,13 +5633,13 @@
         <v>-0.04250000000000043</v>
       </c>
       <c r="U57">
-        <v>1.000066441650942</v>
+        <v>6.64416509421617E-05</v>
       </c>
       <c r="V57">
-        <v>0.9997870471424388</v>
+        <v>-0.0002129528575611772</v>
       </c>
       <c r="W57">
-        <v>0.9996009577015165</v>
+        <v>-0.0003990422984835318</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5674,7 +5674,7 @@
         <v>1.243239165720224</v>
       </c>
       <c r="K58">
-        <v>55.42160571724256</v>
+        <v>0.05421605717242561</v>
       </c>
       <c r="L58">
         <v>-0.01181660431370485</v>
@@ -5704,13 +5704,13 @@
         <v>-0.02437499999999915</v>
       </c>
       <c r="U58">
-        <v>1.000132874473485</v>
+        <v>0.0001328744734849785</v>
       </c>
       <c r="V58">
-        <v>0.9999201256689476</v>
+        <v>-7.98743310523875E-05</v>
       </c>
       <c r="W58">
-        <v>1.001996007984032</v>
+        <v>0.001996007984031989</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5745,7 +5745,7 @@
         <v>1.198702993886518</v>
       </c>
       <c r="K59">
-        <v>54.51864109065687</v>
+        <v>0.04518641090656872</v>
       </c>
       <c r="L59">
         <v>-0.01012198774053359</v>
@@ -5775,13 +5775,13 @@
         <v>-0.0006249999999958789</v>
       </c>
       <c r="U59">
-        <v>1.000119571138184</v>
+        <v>0.0001195711381842823</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>0.9996015936254979</v>
+        <v>-0.0003984063745020583</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5816,7 +5816,7 @@
         <v>1.198702993886518</v>
       </c>
       <c r="K60">
-        <v>54.51864109065688</v>
+        <v>0.04518641090656883</v>
       </c>
       <c r="L60">
         <v>-0.008125220548004743</v>
@@ -5846,13 +5846,13 @@
         <v>0.01312499999999872</v>
       </c>
       <c r="U60">
-        <v>0.9999335795318685</v>
+        <v>-6.642046813154501E-05</v>
       </c>
       <c r="V60">
-        <v>1.000026626903824</v>
+        <v>2.662690382360111E-05</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5887,7 +5887,7 @@
         <v>0.9098025915372895</v>
       </c>
       <c r="K61">
-        <v>47.63856723039352</v>
+        <v>-0.02361432769606481</v>
       </c>
       <c r="L61">
         <v>-0.00720528075915888</v>
@@ -5917,13 +5917,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U61">
-        <v>0.9998405802877526</v>
+        <v>-0.0001594197122474217</v>
       </c>
       <c r="V61">
-        <v>0.9998668690257475</v>
+        <v>-0.0001331309742524933</v>
       </c>
       <c r="W61">
-        <v>0.9968114786767637</v>
+        <v>-0.003188521323236326</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5958,7 +5958,7 @@
         <v>1.004938445112261</v>
       </c>
       <c r="K62">
-        <v>50.12315702570072</v>
+        <v>0.001231570257007153</v>
       </c>
       <c r="L62">
         <v>-0.006534357762314998</v>
@@ -5988,13 +5988,13 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="U62">
-        <v>0.9998538419633012</v>
+        <v>-0.000146158036698818</v>
       </c>
       <c r="V62">
-        <v>0.9998934810396251</v>
+        <v>-0.0001065189603749461</v>
       </c>
       <c r="W62">
-        <v>1.001199520191923</v>
+        <v>0.001199520191923042</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -6029,7 +6029,7 @@
         <v>1.071700447621017</v>
       </c>
       <c r="K63">
-        <v>51.73047333419636</v>
+        <v>0.01730473334196359</v>
       </c>
       <c r="L63">
         <v>-0.005742669781316359</v>
@@ -6059,13 +6059,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U63">
-        <v>0.9998405315614619</v>
+        <v>-0.0001594684385380907</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1.000798722044729</v>
+        <v>0.0007987220447285281</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6100,7 +6100,7 @@
         <v>1.035321430799749</v>
       </c>
       <c r="K64">
-        <v>50.86771136650072</v>
+        <v>0.00867711366500723</v>
       </c>
       <c r="L64">
         <v>-0.00505264047035578</v>
@@ -6130,13 +6130,13 @@
         <v>0.02812500000000284</v>
       </c>
       <c r="U64">
-        <v>0.9998139238150934</v>
+        <v>-0.000186076184906625</v>
       </c>
       <c r="V64">
-        <v>0.9999467348460637</v>
+        <v>-5.326515393633269E-05</v>
       </c>
       <c r="W64">
-        <v>0.9996009577015165</v>
+        <v>-0.0003990422984835318</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6171,7 +6171,7 @@
         <v>1.142516595275421</v>
       </c>
       <c r="K65">
-        <v>53.3259157849627</v>
+        <v>0.03325915784962707</v>
       </c>
       <c r="L65">
         <v>-0.004013820145763479</v>
@@ -6201,13 +6201,13 @@
         <v>0.03124999999999645</v>
       </c>
       <c r="U65">
-        <v>0.9999069445921515</v>
+        <v>-9.305540784854127E-05</v>
       </c>
       <c r="V65">
-        <v>1.000292973951952</v>
+        <v>0.00029297395195238</v>
       </c>
       <c r="W65">
-        <v>1.001197604790419</v>
+        <v>0.001197604790418971</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6242,7 +6242,7 @@
         <v>1.142516595275421</v>
       </c>
       <c r="K66">
-        <v>53.3259157849627</v>
+        <v>0.03325915784962696</v>
       </c>
       <c r="L66">
         <v>-0.002815226515890712</v>
@@ -6272,13 +6272,13 @@
         <v>0.02187499999999787</v>
       </c>
       <c r="U66">
-        <v>0.9999069359320367</v>
+        <v>-9.306406796327771E-05</v>
       </c>
       <c r="V66">
-        <v>1.000426019117608</v>
+        <v>0.0004260191176077566</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6313,7 +6313,7 @@
         <v>1.021220328188381</v>
       </c>
       <c r="K67">
-        <v>50.52493852086381</v>
+        <v>0.005249385208638047</v>
       </c>
       <c r="L67">
         <v>-0.002021922650620039</v>
@@ -6343,13 +6343,13 @@
         <v>0.008749999999995595</v>
       </c>
       <c r="U67">
-        <v>0.9998138545406196</v>
+        <v>-0.000186145459380449</v>
       </c>
       <c r="V67">
-        <v>1.00018630399489</v>
+        <v>0.000186303994889947</v>
       </c>
       <c r="W67">
-        <v>0.9988038277511962</v>
+        <v>-0.001196172248803751</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6384,7 +6384,7 @@
         <v>1.132973874414529</v>
       </c>
       <c r="K68">
-        <v>53.11710040168749</v>
+        <v>0.03117100401687489</v>
       </c>
       <c r="L68">
         <v>-0.001081385613379415</v>
@@ -6414,13 +6414,13 @@
         <v>0.001250000000002416</v>
       </c>
       <c r="U68">
-        <v>0.9999069099420183</v>
+        <v>-9.309005798174841E-05</v>
       </c>
       <c r="V68">
-        <v>1.000106439595529</v>
+        <v>0.0001064395955294728</v>
       </c>
       <c r="W68">
-        <v>1.001197604790419</v>
+        <v>0.001197604790418971</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6455,7 +6455,7 @@
         <v>1.090224251168963</v>
       </c>
       <c r="K69">
-        <v>52.15824333485999</v>
+        <v>0.02158243334859988</v>
       </c>
       <c r="L69">
         <v>-0.0002529748935380263</v>
@@ -6485,13 +6485,13 @@
         <v>0.0068749999999973</v>
       </c>
       <c r="U69">
-        <v>0.99989360145766</v>
+        <v>-0.0001063985423399583</v>
       </c>
       <c r="V69">
-        <v>1.000186249467859</v>
+        <v>0.0001862494678588344</v>
       </c>
       <c r="W69">
-        <v>0.9996012759170655</v>
+        <v>-0.0003987240829345096</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6526,7 +6526,7 @@
         <v>0.9741500024152084</v>
       </c>
       <c r="K70">
-        <v>49.34528790737365</v>
+        <v>-0.006547120926263528</v>
       </c>
       <c r="L70">
         <v>1.964615547732825E-05</v>
@@ -6556,13 +6556,13 @@
         <v>0.004374999999999574</v>
       </c>
       <c r="U70">
-        <v>0.9998403852037084</v>
+        <v>-0.0001596147962915628</v>
       </c>
       <c r="V70">
-        <v>1.000106408448831</v>
+        <v>0.0001064084488306971</v>
       </c>
       <c r="W70">
-        <v>0.9988033506182687</v>
+        <v>-0.001196649381731252</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6597,7 +6597,7 @@
         <v>1.048864551346941</v>
       </c>
       <c r="K71">
-        <v>51.19247881258956</v>
+        <v>0.01192478812589559</v>
       </c>
       <c r="L71">
         <v>0.0002287613868502244</v>
@@ -6627,13 +6627,13 @@
         <v>0.0006249999999958789</v>
       </c>
       <c r="U71">
-        <v>0.999906876504942</v>
+        <v>-9.312349505796735E-05</v>
       </c>
       <c r="V71">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W71">
-        <v>1.000798722044729</v>
+        <v>0.0007987220447285281</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6668,7 +6668,7 @@
         <v>1.048864551346941</v>
       </c>
       <c r="K72">
-        <v>51.19247881258956</v>
+        <v>0.01192478812589559</v>
       </c>
       <c r="L72">
         <v>0.0003852435643241991</v>
@@ -6698,13 +6698,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U72">
-        <v>0.9999068678321494</v>
+        <v>-9.313216785056255E-05</v>
       </c>
       <c r="V72">
-        <v>1.000026599281819</v>
+        <v>2.659928181936166E-05</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6739,7 +6739,7 @@
         <v>1.090257653248184</v>
       </c>
       <c r="K73">
-        <v>52.15900784068241</v>
+        <v>0.02159007840682403</v>
       </c>
       <c r="L73">
         <v>0.0006437883872411197</v>
@@ -6769,13 +6769,13 @@
         <v>-0.0006250000000029843</v>
       </c>
       <c r="U73">
-        <v>0.999920164992349</v>
+        <v>-7.983500765096352E-05</v>
       </c>
       <c r="V73">
-        <v>0.9999202042770506</v>
+        <v>-7.979572294936066E-05</v>
       </c>
       <c r="W73">
-        <v>1.000399042298484</v>
+        <v>0.0003990422984836428</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6810,7 +6810,7 @@
         <v>1.090257653248184</v>
       </c>
       <c r="K74">
-        <v>52.15900784068241</v>
+        <v>0.02159007840682403</v>
       </c>
       <c r="L74">
         <v>0.0009453411224423894</v>
@@ -6840,13 +6840,13 @@
         <v>0</v>
       </c>
       <c r="U74">
-        <v>0.9999733862060706</v>
+        <v>-2.661379392943086E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999467986061236</v>
+        <v>-5.320139387643419E-05</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6881,7 +6881,7 @@
         <v>1.136122586102732</v>
       </c>
       <c r="K75">
-        <v>53.18620726610737</v>
+        <v>0.03186207266107377</v>
       </c>
       <c r="L75">
         <v>0.001395606172528818</v>
@@ -6911,13 +6911,13 @@
         <v>0.004374999999999574</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>0.9999733978877922</v>
+        <v>-2.660211220784081E-05</v>
       </c>
       <c r="W75">
-        <v>1.000398883127244</v>
+        <v>0.0003988831272436766</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6952,7 +6952,7 @@
         <v>1.184401462791747</v>
       </c>
       <c r="K76">
-        <v>54.22086933040401</v>
+        <v>0.04220869330404009</v>
       </c>
       <c r="L76">
         <v>0.0020474949571549</v>
@@ -6982,13 +6982,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U76">
-        <v>1.000039921753364</v>
+        <v>3.992175336353654E-05</v>
       </c>
       <c r="V76">
-        <v>1.000212822559191</v>
+        <v>0.0002128225591913058</v>
       </c>
       <c r="W76">
-        <v>1.000398724082935</v>
+        <v>0.0003987240829346206</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -7023,7 +7023,7 @@
         <v>1.127121304403476</v>
       </c>
       <c r="K77">
-        <v>52.9881066053994</v>
+        <v>0.02988106605399399</v>
       </c>
       <c r="L77">
         <v>0.002627191318062765</v>
@@ -7053,13 +7053,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>1.000106388637694</v>
+        <v>0.0001063886376935219</v>
       </c>
       <c r="W77">
-        <v>0.9996014348345954</v>
+        <v>-0.0003985651654045963</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7094,7 +7094,7 @@
         <v>1.330751257458327</v>
       </c>
       <c r="K78">
-        <v>57.09537871962815</v>
+        <v>0.07095378719628154</v>
       </c>
       <c r="L78">
         <v>0.00369787014257155</v>
@@ -7124,13 +7124,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U78">
-        <v>1.000079840319361</v>
+        <v>7.984031936136837E-05</v>
       </c>
       <c r="V78">
-        <v>1.000159565980533</v>
+        <v>0.0001595659805331273</v>
       </c>
       <c r="W78">
-        <v>1.001594896331738</v>
+        <v>0.001594896331738482</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7165,7 +7165,7 @@
         <v>1.263067475674953</v>
       </c>
       <c r="K79">
-        <v>55.8121880700109</v>
+        <v>0.05812188070010904</v>
       </c>
       <c r="L79">
         <v>0.004838904591028175</v>
@@ -7195,13 +7195,13 @@
         <v>0.01062500000000099</v>
       </c>
       <c r="U79">
-        <v>1.000053222630262</v>
+        <v>5.322263026230623E-05</v>
       </c>
       <c r="V79">
-        <v>1.000159540523293</v>
+        <v>0.0001595405232928115</v>
       </c>
       <c r="W79">
-        <v>0.9996019108280254</v>
+        <v>-0.0003980891719745916</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7236,7 +7236,7 @@
         <v>1.198881466677995</v>
       </c>
       <c r="K80">
-        <v>54.52233259709219</v>
+        <v>0.04522332597092182</v>
       </c>
       <c r="L80">
         <v>0.005786838158896049</v>
@@ -7266,13 +7266,13 @@
         <v>0.01249999999999929</v>
       </c>
       <c r="U80">
-        <v>1.000172964342736</v>
+        <v>0.0001729643427355043</v>
       </c>
       <c r="V80">
-        <v>1.000053171691391</v>
+        <v>5.317169139140709E-05</v>
       </c>
       <c r="W80">
-        <v>0.9996017522899244</v>
+        <v>-0.0003982477100755721</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7307,7 +7307,7 @@
         <v>1.033094127002606</v>
       </c>
       <c r="K81">
-        <v>50.81388575578143</v>
+        <v>0.008138857557814294</v>
       </c>
       <c r="L81">
         <v>0.006100371307492499</v>
@@ -7337,13 +7337,13 @@
         <v>0.01312500000000227</v>
       </c>
       <c r="U81">
-        <v>1.00019953972836</v>
+        <v>0.0001995397283598432</v>
       </c>
       <c r="V81">
-        <v>0.9999734155678435</v>
+        <v>-2.658443215652895E-05</v>
       </c>
       <c r="W81">
-        <v>0.9988047808764939</v>
+        <v>-0.001195219123506064</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7378,7 +7378,7 @@
         <v>1.081615184333238</v>
       </c>
       <c r="K82">
-        <v>51.96038117293472</v>
+        <v>0.01960381172934722</v>
       </c>
       <c r="L82">
         <v>0.006132699962222649</v>
@@ -7408,13 +7408,13 @@
         <v>0.01437500000000114</v>
       </c>
       <c r="U82">
-        <v>1.0001329999468</v>
+        <v>0.0001329999468000498</v>
       </c>
       <c r="V82">
-        <v>1.000079755416722</v>
+        <v>7.975541672200492E-05</v>
       </c>
       <c r="W82">
-        <v>1.000398883127244</v>
+        <v>0.0003988831272436766</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7449,7 +7449,7 @@
         <v>0.981368763231633</v>
       </c>
       <c r="K83">
-        <v>49.52983924259563</v>
+        <v>-0.004701607574043698</v>
       </c>
       <c r="L83">
         <v>0.005679748324448449</v>
@@ -7479,13 +7479,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U83">
-        <v>1.000026596452033</v>
+        <v>2.659645203340055E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999468339624649</v>
+        <v>-5.316603753513505E-05</v>
       </c>
       <c r="W83">
-        <v>0.9992025518341308</v>
+        <v>-0.0007974481658692412</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7520,7 +7520,7 @@
         <v>0.9357240691104157</v>
       </c>
       <c r="K84">
-        <v>48.33974449366838</v>
+        <v>-0.0166025550633162</v>
       </c>
       <c r="L84">
         <v>0.00479579456263741</v>
@@ -7550,13 +7550,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U84">
-        <v>1.000066489361702</v>
+        <v>6.648936170217112E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999468311356871</v>
+        <v>-5.316886431294687E-05</v>
       </c>
       <c r="W84">
-        <v>0.9996009577015165</v>
+        <v>-0.0003990422984835318</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7591,7 +7591,7 @@
         <v>0.815888310123967</v>
       </c>
       <c r="K85">
-        <v>44.93053375448339</v>
+        <v>-0.05069466245516607</v>
       </c>
       <c r="L85">
         <v>0.003253900424521664</v>
@@ -7621,13 +7621,13 @@
         <v>0.003750000000003695</v>
       </c>
       <c r="U85">
-        <v>1.000026593976464</v>
+        <v>2.659397646431749E-05</v>
       </c>
       <c r="V85">
-        <v>0.9999468283086083</v>
+        <v>-5.317169139174016E-05</v>
       </c>
       <c r="W85">
-        <v>0.9988023952095808</v>
+        <v>-0.001197604790419193</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7662,7 +7662,7 @@
         <v>0.748609386595765</v>
       </c>
       <c r="K86">
-        <v>42.81169896114854</v>
+        <v>-0.07188301038851458</v>
       </c>
       <c r="L86">
         <v>0.001109399150515368</v>
@@ -7692,13 +7692,13 @@
         <v>-0.008749999999995595</v>
       </c>
       <c r="U86">
-        <v>0.9999202201922692</v>
+        <v>-7.97798077307732E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998404764436882</v>
+        <v>-0.0001595235563117692</v>
       </c>
       <c r="W86">
-        <v>0.9992006394884093</v>
+        <v>-0.0007993605115906854</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7733,7 +7733,7 @@
         <v>0.8788108834635425</v>
       </c>
       <c r="K87">
-        <v>46.77484525975684</v>
+        <v>-0.03225154740243158</v>
       </c>
       <c r="L87">
         <v>-0.0008318023373884733</v>
@@ -7763,13 +7763,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U87">
-        <v>0.9999734046089812</v>
+        <v>-2.659539101879105E-05</v>
       </c>
       <c r="V87">
-        <v>0.9999202254959317</v>
+        <v>-7.977450406826403E-05</v>
       </c>
       <c r="W87">
-        <v>1.0012</v>
+        <v>0.00120000000000009</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7804,7 +7804,7 @@
         <v>0.8788108834635425</v>
       </c>
       <c r="K88">
-        <v>46.77484525975684</v>
+        <v>-0.03225154740243158</v>
       </c>
       <c r="L88">
         <v>-0.002523191398939223</v>
@@ -7834,13 +7834,13 @@
         <v>-0.02374999999999616</v>
       </c>
       <c r="U88">
-        <v>0.9999069136557667</v>
+        <v>-9.308634423332851E-05</v>
       </c>
       <c r="V88">
-        <v>0.9998936255086027</v>
+        <v>-0.0001063744913972764</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7875,7 +7875,7 @@
         <v>0.8788108834635425</v>
       </c>
       <c r="K89">
-        <v>46.77484525975684</v>
+        <v>-0.03225154740243158</v>
       </c>
       <c r="L89">
         <v>-0.003946355490107298</v>
@@ -7905,13 +7905,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U89">
-        <v>0.9999202042770506</v>
+        <v>-7.979572294936066E-05</v>
       </c>
       <c r="V89">
-        <v>0.999893614191867</v>
+        <v>-0.0001063858081330471</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7946,7 +7946,7 @@
         <v>0.8364686673681575</v>
       </c>
       <c r="K90">
-        <v>45.54766886205037</v>
+        <v>-0.04452331137949633</v>
       </c>
       <c r="L90">
         <v>-0.005247305795410192</v>
@@ -7976,13 +7976,13 @@
         <v>-0.03062499999999702</v>
       </c>
       <c r="U90">
-        <v>0.9999068975607163</v>
+        <v>-9.310243928373207E-05</v>
       </c>
       <c r="V90">
-        <v>0.9998404043090836</v>
+        <v>-0.000159595690916392</v>
       </c>
       <c r="W90">
-        <v>0.9996004794246903</v>
+        <v>-0.0003995205753096753</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -8017,7 +8017,7 @@
         <v>0.79609312001278</v>
       </c>
       <c r="K91">
-        <v>44.32359943604235</v>
+        <v>-0.05676400563957651</v>
       </c>
       <c r="L91">
         <v>-0.006517575179337211</v>
@@ -8047,13 +8047,13 @@
         <v>-0.03249999999999886</v>
       </c>
       <c r="U91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91">
-        <v>0.9997871717789779</v>
+        <v>-0.0002128282210220878</v>
       </c>
       <c r="W91">
-        <v>0.9996003197442047</v>
+        <v>-0.0003996802557952872</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8088,7 +8088,7 @@
         <v>0.9485216967959956</v>
       </c>
       <c r="K92">
-        <v>48.67904208383587</v>
+        <v>-0.01320957916164128</v>
       </c>
       <c r="L92">
         <v>-0.007228872397871802</v>
@@ -8118,13 +8118,13 @@
         <v>-0.03062500000000057</v>
       </c>
       <c r="U92">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V92">
-        <v>0.9998935632367419</v>
+        <v>-0.0001064367632580554</v>
       </c>
       <c r="W92">
-        <v>1.001199520191923</v>
+        <v>0.001199520191923042</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8159,7 +8159,7 @@
         <v>1.108972830252031</v>
       </c>
       <c r="K93">
-        <v>52.58355225560228</v>
+        <v>0.02583552255602273</v>
       </c>
       <c r="L93">
         <v>-0.007094020953127403</v>
@@ -8189,13 +8189,13 @@
         <v>-0.02374999999999972</v>
       </c>
       <c r="U93">
-        <v>1.00001330158688</v>
+        <v>1.330158687951055E-05</v>
       </c>
       <c r="V93">
-        <v>0.9998669398834393</v>
+        <v>-0.0001330601165606682</v>
       </c>
       <c r="W93">
-        <v>1.001198083067093</v>
+        <v>0.001198083067092792</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8230,7 +8230,7 @@
         <v>0.9051401748301582</v>
       </c>
       <c r="K94">
-        <v>47.51042399863573</v>
+        <v>-0.02489576001364269</v>
       </c>
       <c r="L94">
         <v>-0.007010384216143729</v>
@@ -8260,13 +8260,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U94">
-        <v>0.9999733971801009</v>
+        <v>-2.660281989907975E-05</v>
       </c>
       <c r="V94">
-        <v>0.9997870754817418</v>
+        <v>-0.0002129245182581618</v>
       </c>
       <c r="W94">
-        <v>0.9984044674910252</v>
+        <v>-0.001595532508974817</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8301,7 +8301,7 @@
         <v>1.001878653927522</v>
       </c>
       <c r="K95">
-        <v>50.04692227283198</v>
+        <v>0.0004692227283197292</v>
       </c>
       <c r="L95">
         <v>-0.006646991669380819</v>
@@ -8331,13 +8331,13 @@
         <v>-0.008125000000003268</v>
       </c>
       <c r="U95">
-        <v>0.9999600947085584</v>
+        <v>-3.990529144159982E-05</v>
       </c>
       <c r="V95">
-        <v>0.9998668938345224</v>
+        <v>-0.00013310616547757</v>
       </c>
       <c r="W95">
-        <v>1.000799041150619</v>
+        <v>0.0007990411506193507</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8372,7 +8372,7 @@
         <v>1.001878653927522</v>
       </c>
       <c r="K96">
-        <v>50.04692227283198</v>
+        <v>0.0004692227283198402</v>
       </c>
       <c r="L96">
         <v>-0.006113025342366414</v>
@@ -8402,13 +8402,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U96">
-        <v>0.9999600931160626</v>
+        <v>-3.990688393740172E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999467504459649</v>
+        <v>-5.324955403507303E-05</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8443,7 +8443,7 @@
         <v>0.9048845736869242</v>
       </c>
       <c r="K97">
-        <v>47.50338084451545</v>
+        <v>-0.02496619155484547</v>
       </c>
       <c r="L97">
         <v>-0.005778109194675935</v>
@@ -8473,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="U97">
-        <v>0.9999733943489597</v>
+        <v>-2.660565104029011E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998668690257476</v>
+        <v>-0.0001331309742523823</v>
       </c>
       <c r="W97">
-        <v>0.9992015968063872</v>
+        <v>-0.0007984031936127955</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8514,7 +8514,7 @@
         <v>0.8610127116077323</v>
       </c>
       <c r="K98">
-        <v>46.26581571621303</v>
+        <v>-0.03734184283786973</v>
       </c>
       <c r="L98">
         <v>-0.005709453436611478</v>
@@ -8544,13 +8544,13 @@
         <v>0.003750000000000142</v>
       </c>
       <c r="U98">
-        <v>0.9999201809232405</v>
+        <v>-7.981907675946864E-05</v>
       </c>
       <c r="V98">
-        <v>0.9998934810396249</v>
+        <v>-0.0001065189603750571</v>
       </c>
       <c r="W98">
-        <v>0.9996004794246903</v>
+        <v>-0.0003995205753096753</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8585,7 +8585,7 @@
         <v>0.9120478477949018</v>
       </c>
       <c r="K99">
-        <v>47.70005357589428</v>
+        <v>-0.0229994642410572</v>
       </c>
       <c r="L99">
         <v>-0.005640399432596662</v>
@@ -8615,13 +8615,13 @@
         <v>0.008124999999996163</v>
       </c>
       <c r="U99">
-        <v>0.9999467830344313</v>
+        <v>-5.321696556870315E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999467348460638</v>
+        <v>-5.326515393622167E-05</v>
       </c>
       <c r="W99">
-        <v>1.000399680255796</v>
+        <v>0.0003996802557955093</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8656,7 +8656,7 @@
         <v>1.019490239767871</v>
       </c>
       <c r="K100">
-        <v>50.48255345294739</v>
+        <v>0.004825534529473874</v>
       </c>
       <c r="L100">
         <v>-0.005264276272609181</v>
@@ -8686,13 +8686,13 @@
         <v>0.009375000000002132</v>
       </c>
       <c r="U100">
-        <v>1.000013304949441</v>
+        <v>1.330494944129512E-05</v>
       </c>
       <c r="V100">
-        <v>1.000079901986896</v>
+        <v>7.99019868960027E-05</v>
       </c>
       <c r="W100">
-        <v>1.000799041150619</v>
+        <v>0.0007990411506193507</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8727,7 +8727,7 @@
         <v>1.076038867122055</v>
       </c>
       <c r="K101">
-        <v>51.83134497928418</v>
+        <v>0.01831344979284177</v>
       </c>
       <c r="L101">
         <v>-0.004561518345939832</v>
@@ -8757,13 +8757,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V101">
-        <v>1.000159791206157</v>
+        <v>0.0001597912061572782</v>
       </c>
       <c r="W101">
-        <v>1.000399201596806</v>
+        <v>0.0003992015968063978</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8798,7 +8798,7 @@
         <v>1.015586228012656</v>
       </c>
       <c r="K102">
-        <v>50.38664255083803</v>
+        <v>0.003866425508380233</v>
       </c>
       <c r="L102">
         <v>-0.003834360999921373</v>
@@ -8828,13 +8828,13 @@
         <v>0.004999999999999005</v>
       </c>
       <c r="U102">
-        <v>0.9999866952275781</v>
+        <v>-1.330477242189598E-05</v>
       </c>
       <c r="V102">
-        <v>1.000053255225669</v>
+        <v>5.325522566890228E-05</v>
       </c>
       <c r="W102">
-        <v>0.9996009577015165</v>
+        <v>-0.0003990422984835318</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8869,7 +8869,7 @@
         <v>0.9081720014712165</v>
       </c>
       <c r="K103">
-        <v>47.59382281948422</v>
+        <v>-0.02406177180515784</v>
       </c>
       <c r="L103">
         <v>-0.003415527412006765</v>
@@ -8899,13 +8899,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U103">
-        <v>0.9999467802022353</v>
+        <v>-5.32197977647364E-05</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W103">
-        <v>0.9992015968063872</v>
+        <v>-0.0007984031936127955</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8940,7 +8940,7 @@
         <v>0.963838179175773</v>
       </c>
       <c r="K104">
-        <v>49.07930752116744</v>
+        <v>-0.009206924788325577</v>
       </c>
       <c r="L104">
         <v>-0.003052384949186793</v>
@@ -8970,13 +8970,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U104">
-        <v>0.999960083027303</v>
+        <v>-3.991697269700722E-05</v>
       </c>
       <c r="V104">
-        <v>1.00002662619485</v>
+        <v>2.662619485027662E-05</v>
       </c>
       <c r="W104">
-        <v>1.00039952057531</v>
+        <v>0.0003995205753095643</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -9011,7 +9011,7 @@
         <v>0.9104872874485612</v>
       </c>
       <c r="K105">
-        <v>47.65733294485874</v>
+        <v>-0.02342667055141262</v>
       </c>
       <c r="L105">
         <v>-0.002880390544880811</v>
@@ -9041,13 +9041,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U105">
-        <v>0.9999334690564582</v>
+        <v>-6.653094354180933E-05</v>
       </c>
       <c r="V105">
-        <v>1.000026625485915</v>
+        <v>2.662548591536584E-05</v>
       </c>
       <c r="W105">
-        <v>0.9996006389776358</v>
+        <v>-0.0003993610223641531</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9082,7 +9082,7 @@
         <v>0.9687531194216104</v>
       </c>
       <c r="K106">
-        <v>49.20642968714205</v>
+        <v>-0.007935703128579497</v>
       </c>
       <c r="L106">
         <v>-0.002679299388970944</v>
@@ -9112,13 +9112,13 @@
         <v>0.001875000000001847</v>
       </c>
       <c r="U106">
-        <v>0.9999334646297973</v>
+        <v>-6.653537020273603E-05</v>
       </c>
       <c r="V106">
-        <v>1.000079874331052</v>
+        <v>7.98743310523875E-05</v>
       </c>
       <c r="W106">
-        <v>1.00039952057531</v>
+        <v>0.0003995205753095643</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9153,7 +9153,7 @@
         <v>0.96875311942161</v>
       </c>
       <c r="K107">
-        <v>49.20642968714203</v>
+        <v>-0.007935703128579663</v>
       </c>
       <c r="L107">
         <v>-0.002463636146232927</v>
@@ -9183,13 +9183,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U107">
-        <v>0.9999467681620376</v>
+        <v>-5.323183796235309E-05</v>
       </c>
       <c r="V107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9224,7 +9224,7 @@
         <v>1.097874076702628</v>
       </c>
       <c r="K108">
-        <v>52.33269665204271</v>
+        <v>0.02332696652042709</v>
       </c>
       <c r="L108">
         <v>-0.001953127962860669</v>
@@ -9254,13 +9254,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U108">
-        <v>0.9999201479923874</v>
+        <v>-7.985200761262412E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999733773494489</v>
+        <v>-2.662265055108914E-05</v>
       </c>
       <c r="W108">
-        <v>1.000798722044729</v>
+        <v>0.0007987220447285281</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9295,7 +9295,7 @@
         <v>0.9665092368286663</v>
       </c>
       <c r="K109">
-        <v>49.14847175532866</v>
+        <v>-0.008515282446713346</v>
       </c>
       <c r="L109">
         <v>-0.001580185005064893</v>
@@ -9325,13 +9325,13 @@
         <v>0.0006249999999958789</v>
       </c>
       <c r="U109">
-        <v>0.999906831884791</v>
+        <v>-9.316811520898582E-05</v>
       </c>
       <c r="V109">
-        <v>1.000026623359336</v>
+        <v>2.66233593355647E-05</v>
       </c>
       <c r="W109">
-        <v>0.9992019154030327</v>
+        <v>-0.0007980845969672856</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9366,7 +9366,7 @@
         <v>1.02948493766224</v>
       </c>
       <c r="K110">
-        <v>50.72641430135971</v>
+        <v>0.007264143013597124</v>
       </c>
       <c r="L110">
         <v>-0.001163199973022708</v>
@@ -9396,13 +9396,13 @@
         <v>-0.0006249999999958789</v>
       </c>
       <c r="U110">
-        <v>0.999933445145489</v>
+        <v>-6.655485451101395E-05</v>
       </c>
       <c r="V110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W110">
-        <v>1.000399361022364</v>
+        <v>0.0003993610223642641</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9437,7 +9437,7 @@
         <v>0.9654828738481357</v>
       </c>
       <c r="K111">
-        <v>49.1219174023052</v>
+        <v>-0.008780825976948015</v>
       </c>
       <c r="L111">
         <v>-0.0008872661604368354</v>
@@ -9467,13 +9467,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U111">
-        <v>0.9999600644293873</v>
+        <v>-3.993557061265918E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999733773494489</v>
+        <v>-2.662265055108914E-05</v>
       </c>
       <c r="W111">
-        <v>0.9996007984031936</v>
+        <v>-0.0003992015968063978</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9508,7 +9508,7 @@
         <v>1.096365009222558</v>
       </c>
       <c r="K112">
-        <v>52.29838336355115</v>
+        <v>0.02298383363551149</v>
       </c>
       <c r="L112">
         <v>-0.0004203379629420803</v>
@@ -9538,13 +9538,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U112">
-        <v>0.9999733752229824</v>
+        <v>-2.662477701764754E-05</v>
       </c>
       <c r="V112">
-        <v>1.000079870078006</v>
+        <v>7.987007800647206E-05</v>
       </c>
       <c r="W112">
-        <v>1.000798722044729</v>
+        <v>0.0007987220447285281</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9579,7 +9579,7 @@
         <v>1.096365009222558</v>
       </c>
       <c r="K113">
-        <v>52.29838336355115</v>
+        <v>0.02298383363551149</v>
       </c>
       <c r="L113">
         <v>0.0001340790461267985</v>
@@ -9609,13 +9609,13 @@
         <v>0.004999999999999005</v>
       </c>
       <c r="U113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V113">
-        <v>1.000106484932382</v>
+        <v>0.0001064849323821893</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9650,7 +9650,7 @@
         <v>1.241386765870117</v>
       </c>
       <c r="K114">
-        <v>55.38476378877898</v>
+        <v>0.05384763788778979</v>
       </c>
       <c r="L114">
         <v>0.0009964812094387999</v>
@@ -9680,13 +9680,13 @@
         <v>0.006249999999997868</v>
       </c>
       <c r="U114">
-        <v>1.000039938228873</v>
+        <v>3.99382288727157E-05</v>
       </c>
       <c r="V114">
-        <v>1.000133091993186</v>
+        <v>0.0001330919931856744</v>
       </c>
       <c r="W114">
-        <v>1.000798084596967</v>
+        <v>0.0007980845969672856</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9721,7 +9721,7 @@
         <v>1.241386765870117</v>
       </c>
       <c r="K115">
-        <v>55.38476378877898</v>
+        <v>0.05384763788778979</v>
       </c>
       <c r="L115">
         <v>0.001986865088557681</v>
@@ -9751,13 +9751,13 @@
         <v>0.008125000000003268</v>
       </c>
       <c r="U115">
-        <v>1.000079873267748</v>
+        <v>7.987326774849812E-05</v>
       </c>
       <c r="V115">
-        <v>1.000079844569238</v>
+        <v>7.984456923848526E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9792,7 +9792,7 @@
         <v>1.402075692903452</v>
       </c>
       <c r="K116">
-        <v>58.36933852857594</v>
+        <v>0.08369338528575943</v>
       </c>
       <c r="L116">
         <v>0.003275194564128105</v>
@@ -9822,13 +9822,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U116">
-        <v>1.000133111480865</v>
+        <v>0.0001331114808651446</v>
       </c>
       <c r="V116">
-        <v>1.000106450926123</v>
+        <v>0.0001064509261232693</v>
       </c>
       <c r="W116">
-        <v>1.000797448165869</v>
+        <v>0.0007974481658692412</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9863,7 +9863,7 @@
         <v>1.57122193188588</v>
       </c>
       <c r="K117">
-        <v>61.10798575576308</v>
+        <v>0.1110798575576308</v>
       </c>
       <c r="L117">
         <v>0.004940704747299669</v>
@@ -9893,13 +9893,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U117">
-        <v>1.000119784388101</v>
+        <v>0.0001197843881013405</v>
       </c>
       <c r="V117">
-        <v>1.000186269292177</v>
+        <v>0.0001862692921765774</v>
       </c>
       <c r="W117">
-        <v>1.000796812749004</v>
+        <v>0.0007968127490038945</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9934,7 +9934,7 @@
         <v>1.333749588122435</v>
       </c>
       <c r="K118">
-        <v>57.15050127530919</v>
+        <v>0.07150501275309185</v>
       </c>
       <c r="L118">
         <v>0.006419662660908355</v>
@@ -9964,13 +9964,13 @@
         <v>0.01937499999999659</v>
       </c>
       <c r="U118">
-        <v>1.000093154476738</v>
+        <v>9.315447673796662E-05</v>
       </c>
       <c r="V118">
-        <v>1.000186234602389</v>
+        <v>0.0001862346023890904</v>
       </c>
       <c r="W118">
-        <v>0.9992038216560509</v>
+        <v>-0.0007961783439490722</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -10005,7 +10005,7 @@
         <v>1.811029499570749</v>
       </c>
       <c r="K119">
-        <v>64.42584468954514</v>
+        <v>0.1442584468954514</v>
       </c>
       <c r="L119">
         <v>0.008540108984017761</v>
@@ -10035,13 +10035,13 @@
         <v>0.02625000000000099</v>
       </c>
       <c r="U119">
-        <v>1.000172985056752</v>
+        <v>0.0001729850567524505</v>
       </c>
       <c r="V119">
-        <v>1.00031919987232</v>
+        <v>0.0003191998723202083</v>
       </c>
       <c r="W119">
-        <v>1.002390438247012</v>
+        <v>0.002390438247011906</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10076,7 +10076,7 @@
         <v>1.811029499570749</v>
       </c>
       <c r="K120">
-        <v>64.42584468954514</v>
+        <v>0.1442584468954514</v>
       </c>
       <c r="L120">
         <v>0.01088258239916976</v>
@@ -10106,13 +10106,13 @@
         <v>0.03125</v>
       </c>
       <c r="U120">
-        <v>1.00018625937949</v>
+        <v>0.0001862593794899059</v>
       </c>
       <c r="V120">
-        <v>1.00034568951763</v>
+        <v>0.0003456895176301433</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10147,7 +10147,7 @@
         <v>1.25704685014787</v>
       </c>
       <c r="K121">
-        <v>55.69431800077676</v>
+        <v>0.05694318000776766</v>
       </c>
       <c r="L121">
         <v>0.01244347965174586</v>
@@ -10177,13 +10177,13 @@
         <v>0.03250000000000242</v>
       </c>
       <c r="U121">
-        <v>1.000133017638139</v>
+        <v>0.0001330176381388881</v>
       </c>
       <c r="V121">
-        <v>1.000186076184906</v>
+        <v>0.000186076184906403</v>
       </c>
       <c r="W121">
-        <v>0.9980127186009539</v>
+        <v>-0.001987281399046137</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10218,7 +10218,7 @@
         <v>1.514641607653321</v>
       </c>
       <c r="K122">
-        <v>60.23290170032595</v>
+        <v>0.1023290170032595</v>
       </c>
       <c r="L122">
         <v>0.01396729437198108</v>
@@ -10248,13 +10248,13 @@
         <v>0.03437500000000071</v>
       </c>
       <c r="U122">
-        <v>1.00014629994148</v>
+        <v>0.000146299941480077</v>
       </c>
       <c r="V122">
-        <v>1.00029235103386</v>
+        <v>0.0002923510338597168</v>
       </c>
       <c r="W122">
-        <v>1.001592990840303</v>
+        <v>0.001592990840302733</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10289,7 +10289,7 @@
         <v>1.418485199498129</v>
       </c>
       <c r="K123">
-        <v>58.65180402147946</v>
+        <v>0.08651804021479459</v>
       </c>
       <c r="L123">
         <v>0.01517501989341501</v>
@@ -10319,13 +10319,13 @@
         <v>0.03562499999999957</v>
       </c>
       <c r="U123">
-        <v>1.000093086344233</v>
+        <v>9.308634423321749E-05</v>
       </c>
       <c r="V123">
-        <v>1.000212556792518</v>
+        <v>0.0002125567925179705</v>
       </c>
       <c r="W123">
-        <v>0.9996023856858848</v>
+        <v>-0.0003976143141152244</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10360,7 +10360,7 @@
         <v>1.119293947681124</v>
       </c>
       <c r="K124">
-        <v>52.81447384426433</v>
+        <v>0.02814473844264331</v>
       </c>
       <c r="L124">
         <v>0.01547764453426528</v>
@@ -10390,13 +10390,13 @@
         <v>0.03312500000000185</v>
       </c>
       <c r="U124">
-        <v>1.000093077679972</v>
+        <v>9.307767997235317E-05</v>
       </c>
       <c r="V124">
-        <v>1.000159383716297</v>
+        <v>0.0001593837162969791</v>
       </c>
       <c r="W124">
-        <v>0.9984089101034209</v>
+        <v>-0.001591089896579079</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10431,7 +10431,7 @@
         <v>1.285812160165179</v>
       </c>
       <c r="K125">
-        <v>56.25187329794687</v>
+        <v>0.06251873297946875</v>
       </c>
       <c r="L125">
         <v>0.01559222168459934</v>
@@ -10461,13 +10461,13 @@
         <v>0.02875000000000227</v>
       </c>
       <c r="U125">
-        <v>1.000106364591228</v>
+        <v>0.0001063645912275923</v>
       </c>
       <c r="V125">
-        <v>1.000212477756235</v>
+        <v>0.0002124777562351188</v>
       </c>
       <c r="W125">
-        <v>1.001195219123506</v>
+        <v>0.001195219123505842</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10502,7 +10502,7 @@
         <v>1.344239603142054</v>
       </c>
       <c r="K126">
-        <v>57.34224442502932</v>
+        <v>0.07342244425029321</v>
       </c>
       <c r="L126">
         <v>0.0156739456883955</v>
@@ -10532,13 +10532,13 @@
         <v>0.02812499999999929</v>
       </c>
       <c r="U126">
-        <v>1.00011964743888</v>
+        <v>0.0001196474388800439</v>
       </c>
       <c r="V126">
-        <v>1.000265540773786</v>
+        <v>0.0002655407737857107</v>
       </c>
       <c r="W126">
-        <v>1.000397930760048</v>
+        <v>0.0003979307600479043</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10573,7 +10573,7 @@
         <v>1.528747317805849</v>
       </c>
       <c r="K127">
-        <v>60.4547281984788</v>
+        <v>0.104547281984788</v>
       </c>
       <c r="L127">
         <v>0.01610899577120493</v>
@@ -10603,13 +10603,13 @@
         <v>0.02125000000000199</v>
       </c>
       <c r="U127">
-        <v>1.000186095972351</v>
+        <v>0.0001860959723514188</v>
       </c>
       <c r="V127">
-        <v>1.000292017308662</v>
+        <v>0.0002920173086624622</v>
       </c>
       <c r="W127">
-        <v>1.001193317422434</v>
+        <v>0.001193317422434337</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10644,7 +10644,7 @@
         <v>1.593486866810673</v>
       </c>
       <c r="K128">
-        <v>61.4418714512426</v>
+        <v>0.114418714512426</v>
       </c>
       <c r="L128">
         <v>0.01681655309984621</v>
@@ -10674,13 +10674,13 @@
         <v>0.01624999999999588</v>
       </c>
       <c r="U128">
-        <v>1.000212641539525</v>
+        <v>0.0002126415395249381</v>
       </c>
       <c r="V128">
-        <v>1.00031847133758</v>
+        <v>0.0003184713375796733</v>
       </c>
       <c r="W128">
-        <v>1.000397298371076</v>
+        <v>0.0003972983710764932</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10715,7 +10715,7 @@
         <v>1.661633760499987</v>
       </c>
       <c r="K129">
-        <v>62.4290909275155</v>
+        <v>0.124290909275155</v>
       </c>
       <c r="L129">
         <v>0.01772765082580248</v>
@@ -10745,13 +10745,13 @@
         <v>0.01812499999999773</v>
       </c>
       <c r="U129">
-        <v>1.000212596332713</v>
+        <v>0.0002125963327133107</v>
       </c>
       <c r="V129">
-        <v>1.000291839117054</v>
+        <v>0.0002918391170541046</v>
       </c>
       <c r="W129">
-        <v>1.000397140587768</v>
+        <v>0.0003971405877680745</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10786,7 +10786,7 @@
         <v>1.733367332804502</v>
       </c>
       <c r="K130">
-        <v>63.41508921986071</v>
+        <v>0.1341508921986071</v>
       </c>
       <c r="L130">
         <v>0.01878415101341613</v>
@@ -10816,13 +10816,13 @@
         <v>0.01687499999999886</v>
       </c>
       <c r="U130">
-        <v>1.000199266698549</v>
+        <v>0.0001992666985493052</v>
       </c>
       <c r="V130">
-        <v>1.000318277060181</v>
+        <v>0.0003182770601808382</v>
       </c>
       <c r="W130">
-        <v>1.000396982929734</v>
+        <v>0.0003969829297338912</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10857,7 +10857,7 @@
         <v>1.258301678050168</v>
       </c>
       <c r="K131">
-        <v>55.71893650349644</v>
+        <v>0.05718936503496441</v>
       </c>
       <c r="L131">
         <v>0.01906693499234513</v>
@@ -10887,13 +10887,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U131">
-        <v>1.000119536199546</v>
+        <v>0.0001195361995458555</v>
       </c>
       <c r="V131">
-        <v>1.000132573246719</v>
+        <v>0.0001325732467187812</v>
       </c>
       <c r="W131">
-        <v>0.998015873015873</v>
+        <v>-0.001984126984126977</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10928,7 +10928,7 @@
         <v>1.431399128591818</v>
       </c>
       <c r="K132">
-        <v>58.87141735634473</v>
+        <v>0.08871417356344724</v>
       </c>
       <c r="L132">
         <v>0.01922888022522526</v>
@@ -10958,13 +10958,13 @@
         <v>0.01875000000000071</v>
       </c>
       <c r="U132">
-        <v>1.000172642762284</v>
+        <v>0.0001726427622841253</v>
       </c>
       <c r="V132">
-        <v>1.000159066808059</v>
+        <v>0.0001590668080593272</v>
       </c>
       <c r="W132">
-        <v>1.001192842942346</v>
+        <v>0.001192842942346006</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10999,7 +10999,7 @@
         <v>1.276357557264117</v>
       </c>
       <c r="K133">
-        <v>56.07017022396655</v>
+        <v>0.06070170223966553</v>
       </c>
       <c r="L133">
         <v>0.01894695504312962</v>
@@ -11029,13 +11029,13 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="U133">
-        <v>1.000172612961906</v>
+        <v>0.0001726129619057382</v>
       </c>
       <c r="V133">
-        <v>1.000159041509834</v>
+        <v>0.0001590415098340348</v>
       </c>
       <c r="W133">
-        <v>0.9992057188244639</v>
+        <v>-0.000794281175536149</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -11070,7 +11070,7 @@
         <v>1.390373033988428</v>
       </c>
       <c r="K134">
-        <v>58.16552538950533</v>
+        <v>0.08165525389505335</v>
       </c>
       <c r="L134">
         <v>0.0186352086894637</v>
@@ -11100,13 +11100,13 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="U134">
-        <v>1.000185858800414</v>
+        <v>0.0001858588004142181</v>
       </c>
       <c r="V134">
-        <v>1.000053005406552</v>
+        <v>5.300540655150954E-05</v>
       </c>
       <c r="W134">
-        <v>1.000794912559618</v>
+        <v>0.0007949125596184992</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11141,7 +11141,7 @@
         <v>1.390373033988427</v>
       </c>
       <c r="K135">
-        <v>58.16552538950532</v>
+        <v>0.08165525389505324</v>
       </c>
       <c r="L135">
         <v>0.01825726553832176</v>
@@ -11171,13 +11171,13 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="U135">
-        <v>1.000199097425007</v>
+        <v>0.000199097425006789</v>
       </c>
       <c r="V135">
-        <v>1.000053002597127</v>
+        <v>5.300259712726074E-05</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11212,7 +11212,7 @@
         <v>1.45353950308778</v>
       </c>
       <c r="K136">
-        <v>59.24255555121489</v>
+        <v>0.09242555551214893</v>
       </c>
       <c r="L136">
         <v>0.0179416999833558</v>
@@ -11242,13 +11242,13 @@
         <v>0.01937500000000014</v>
       </c>
       <c r="U136">
-        <v>1.000199057793112</v>
+        <v>0.0001990577931123561</v>
       </c>
       <c r="V136">
-        <v>1.000211999152003</v>
+        <v>0.0002119991520033171</v>
       </c>
       <c r="W136">
-        <v>1.000397140587768</v>
+        <v>0.0003971405877680745</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11283,7 +11283,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K137">
-        <v>57.67944037623973</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L137">
         <v>0.01747357860745538</v>
@@ -11313,13 +11313,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U137">
-        <v>1.000185750298527</v>
+        <v>0.0001857502985274095</v>
       </c>
       <c r="V137">
-        <v>1.000079482831708</v>
+        <v>7.948283170833292E-05</v>
       </c>
       <c r="W137">
-        <v>0.9996030170702659</v>
+        <v>-0.0003969829297341132</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11354,7 +11354,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K138">
-        <v>57.67944037623972</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L138">
         <v>0.01687919895846472</v>
@@ -11384,13 +11384,13 @@
         <v>0.009375000000002132</v>
       </c>
       <c r="U138">
-        <v>1.000159184972939</v>
+        <v>0.0001591849729385419</v>
       </c>
       <c r="V138">
-        <v>1.000105968686253</v>
+        <v>0.0001059686862532327</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11425,7 +11425,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K139">
-        <v>57.67944037623972</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L139">
         <v>0.01618471856777768</v>
@@ -11455,13 +11455,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U139">
-        <v>1.000185686243302</v>
+        <v>0.0001856862433020634</v>
       </c>
       <c r="V139">
-        <v>1.000211914916161</v>
+        <v>0.0002119149161612377</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11496,7 +11496,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K140">
-        <v>57.67944037623972</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L140">
         <v>0.01541490328492382</v>
@@ -11526,13 +11526,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U140">
-        <v>1.000172390929585</v>
+        <v>0.0001723909295849868</v>
       </c>
       <c r="V140">
-        <v>1.00013241876109</v>
+        <v>0.0001324187610900474</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11567,7 +11567,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K141">
-        <v>57.67944037623972</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L141">
         <v>0.0145923684128193</v>
@@ -11597,13 +11597,13 @@
         <v>0.004999999999999005</v>
       </c>
       <c r="U141">
-        <v>1.000185619771157</v>
+        <v>0.0001856197711571639</v>
       </c>
       <c r="V141">
-        <v>1.000105920982947</v>
+        <v>0.0001059209829468166</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11638,7 +11638,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K142">
-        <v>57.67944037623973</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L142">
         <v>0.01373717450195869</v>
@@ -11668,13 +11668,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U142">
-        <v>1.000159073133873</v>
+        <v>0.0001590731338734219</v>
       </c>
       <c r="V142">
-        <v>1.00002647744122</v>
+        <v>2.64774412199742E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11709,7 +11709,7 @@
         <v>1.362917713967478</v>
       </c>
       <c r="K143">
-        <v>57.67944037623973</v>
+        <v>0.07679440376239721</v>
       </c>
       <c r="L143">
         <v>0.01286667294397703</v>
@@ -11739,13 +11739,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U143">
-        <v>1.000159047833636</v>
+        <v>0.0001590478336359613</v>
       </c>
       <c r="V143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11780,7 +11780,7 @@
         <v>1.074999011991963</v>
       </c>
       <c r="K144">
-        <v>51.80720596873839</v>
+        <v>0.0180720596873839</v>
       </c>
       <c r="L144">
         <v>0.01156111892467707</v>
@@ -11810,13 +11810,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U144">
-        <v>1.000092763149177</v>
+        <v>9.276314917650019E-05</v>
       </c>
       <c r="V144">
-        <v>0.999894093039265</v>
+        <v>-0.0001059069607349805</v>
       </c>
       <c r="W144">
-        <v>0.9988085782366958</v>
+        <v>-0.001191421763304223</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11851,7 +11851,7 @@
         <v>0.9362090073094842</v>
       </c>
       <c r="K145">
-        <v>48.35268319562363</v>
+        <v>-0.01647316804376364</v>
       </c>
       <c r="L145">
         <v>0.00974370807651871</v>
@@ -11881,13 +11881,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U145">
-        <v>1.000066253246409</v>
+        <v>6.625324640907593E-05</v>
       </c>
       <c r="V145">
-        <v>0.9998146431881372</v>
+        <v>-0.0001853568118628246</v>
       </c>
       <c r="W145">
-        <v>0.9992047713717694</v>
+        <v>-0.0007952286282305598</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11922,7 +11922,7 @@
         <v>1.004160112446011</v>
       </c>
       <c r="K146">
-        <v>50.10378692850376</v>
+        <v>0.001037869285037574</v>
       </c>
       <c r="L146">
         <v>0.007841519460925494</v>
@@ -11952,13 +11952,13 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="U146">
-        <v>1.000052999085766</v>
+        <v>5.299908576561485E-05</v>
       </c>
       <c r="V146">
-        <v>0.9999735155463743</v>
+        <v>-2.648445362574137E-05</v>
       </c>
       <c r="W146">
-        <v>1.000397930760048</v>
+        <v>0.0003979307600479043</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11993,7 +11993,7 @@
         <v>1.004160112446011</v>
       </c>
       <c r="K147">
-        <v>50.10378692850377</v>
+        <v>0.001037869285037685</v>
       </c>
       <c r="L147">
         <v>0.005980708470152273</v>
@@ -12023,13 +12023,13 @@
         <v>-0.009375000000002132</v>
       </c>
       <c r="U147">
-        <v>1.000026498138506</v>
+        <v>2.649813850585936E-05</v>
       </c>
       <c r="V147">
-        <v>0.9998940593797179</v>
+        <v>-0.00010594062028213</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -12064,7 +12064,7 @@
         <v>1.079452195699753</v>
       </c>
       <c r="K148">
-        <v>51.91041169073417</v>
+        <v>0.01910411690734171</v>
       </c>
       <c r="L148">
         <v>0.004386543706451328</v>
@@ -12094,13 +12094,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U148">
-        <v>1.000066243590932</v>
+        <v>6.624359093243548E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999735120387782</v>
+        <v>-2.648796122184383E-05</v>
       </c>
       <c r="W148">
-        <v>1.000397772474145</v>
+        <v>0.0003977724741446309</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12135,7 +12135,7 @@
         <v>1.079452195699753</v>
       </c>
       <c r="K149">
-        <v>51.91041169073417</v>
+        <v>0.01910411690734171</v>
       </c>
       <c r="L149">
         <v>0.003039511063198962</v>
@@ -12165,13 +12165,13 @@
         <v>-0.01437499999999758</v>
       </c>
       <c r="U149">
-        <v>0.9999867521593978</v>
+        <v>-1.324784060219297E-05</v>
       </c>
       <c r="V149">
-        <v>0.999920534011443</v>
+        <v>-7.946598855701481E-05</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12206,7 +12206,7 @@
         <v>0.863369471685666</v>
       </c>
       <c r="K150">
-        <v>46.33377785805589</v>
+        <v>-0.03666222141944109</v>
       </c>
       <c r="L150">
         <v>0.00148272763622274</v>
@@ -12236,13 +12236,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U150">
-        <v>0.9999470079355617</v>
+        <v>-5.29920644383175E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998410553921958</v>
+        <v>-0.0001589446078041901</v>
       </c>
       <c r="W150">
-        <v>0.9988071570576542</v>
+        <v>-0.001192842942345784</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12277,7 +12277,7 @@
         <v>1.144321235760483</v>
       </c>
       <c r="K151">
-        <v>53.3651962531001</v>
+        <v>0.033651962531001</v>
       </c>
       <c r="L151">
         <v>0.0004716283444120111</v>
@@ -12307,13 +12307,13 @@
         <v>-0.01937499999999659</v>
       </c>
       <c r="U151">
-        <v>1.000066243590932</v>
+        <v>6.624359093243548E-05</v>
       </c>
       <c r="V151">
-        <v>0.9999205150623959</v>
+        <v>-7.948493760412401E-05</v>
       </c>
       <c r="W151">
-        <v>1.001592356687898</v>
+        <v>0.001592356687898144</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12348,7 +12348,7 @@
         <v>0.9365832924347737</v>
       </c>
       <c r="K152">
-        <v>48.3626651171431</v>
+        <v>-0.016373348828569</v>
       </c>
       <c r="L152">
         <v>-0.0005804136674544796</v>
@@ -12378,13 +12378,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U152">
-        <v>0.9999735043187961</v>
+        <v>-2.649568120394186E-05</v>
       </c>
       <c r="V152">
-        <v>0.9998675145733971</v>
+        <v>-0.0001324854266029352</v>
       </c>
       <c r="W152">
-        <v>0.9988076311605723</v>
+        <v>-0.001192368839427749</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12419,7 +12419,7 @@
         <v>0.9365832924347738</v>
       </c>
       <c r="K153">
-        <v>48.36266511714311</v>
+        <v>-0.01637334882856889</v>
       </c>
       <c r="L153">
         <v>-0.001588128821328064</v>
@@ -12449,13 +12449,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U153">
-        <v>0.9999867518083781</v>
+        <v>-1.324819162185076E-05</v>
       </c>
       <c r="V153">
-        <v>0.9998674970186827</v>
+        <v>-0.000132502981317284</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12490,7 +12490,7 @@
         <v>0.9365832924347738</v>
       </c>
       <c r="K154">
-        <v>48.36266511714311</v>
+        <v>-0.01637334882856889</v>
       </c>
       <c r="L154">
         <v>-0.002499023954005227</v>
@@ -12520,13 +12520,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U154">
-        <v>1.000039745101416</v>
+        <v>3.974510141646626E-05</v>
       </c>
       <c r="V154">
-        <v>0.9998674794593162</v>
+        <v>-0.0001325205406838004</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12561,7 +12561,7 @@
         <v>0.9365832924347739</v>
       </c>
       <c r="K155">
-        <v>48.36266511714311</v>
+        <v>-0.01637334882856889</v>
       </c>
       <c r="L155">
         <v>-0.003284153535436131</v>
@@ -12591,13 +12591,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V155">
-        <v>0.9998674618952949</v>
+        <v>-0.0001325381047051488</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12632,7 +12632,7 @@
         <v>1.085170763107019</v>
       </c>
       <c r="K156">
-        <v>52.04229707738923</v>
+        <v>0.02042297077389232</v>
       </c>
       <c r="L156">
         <v>-0.003641639123778054</v>
@@ -12662,13 +12662,13 @@
         <v>-0.009375000000002132</v>
       </c>
       <c r="U156">
-        <v>1.000013247840602</v>
+        <v>1.324784060208195E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999204665959702</v>
+        <v>-7.95334040297746E-05</v>
       </c>
       <c r="W156">
-        <v>1.000795861520096</v>
+        <v>0.0007958615200955865</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12703,7 +12703,7 @@
         <v>0.9383979450637959</v>
       </c>
       <c r="K157">
-        <v>48.41100597807906</v>
+        <v>-0.01588994021920942</v>
       </c>
       <c r="L157">
         <v>-0.003993504089931863</v>
@@ -12733,13 +12733,13 @@
         <v>-0.0087500000000027</v>
       </c>
       <c r="U157">
-        <v>0.9999470093396038</v>
+        <v>-5.29906603962127E-05</v>
       </c>
       <c r="V157">
-        <v>0.9998674337831748</v>
+        <v>-0.0001325662168252251</v>
       </c>
       <c r="W157">
-        <v>0.9992047713717694</v>
+        <v>-0.0007952286282305598</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12774,7 +12774,7 @@
         <v>1.080769734330437</v>
       </c>
       <c r="K158">
-        <v>51.94086190792341</v>
+        <v>0.01940861907923408</v>
       </c>
       <c r="L158">
         <v>-0.004015506531463987</v>
@@ -12804,13 +12804,13 @@
         <v>-0.003125000000000711</v>
       </c>
       <c r="U158">
-        <v>0.9999602548985838</v>
+        <v>-3.974510141624421E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999204497242258</v>
+        <v>-7.955027577422058E-05</v>
       </c>
       <c r="W158">
-        <v>1.000795861520096</v>
+        <v>0.0007958615200955865</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12845,7 +12845,7 @@
         <v>1.080769734330437</v>
       </c>
       <c r="K159">
-        <v>51.94086190792341</v>
+        <v>0.01940861907923408</v>
       </c>
       <c r="L159">
         <v>-0.003821625136253563</v>
@@ -12875,13 +12875,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U159">
-        <v>0.9999470044251306</v>
+        <v>-5.299557486937445E-05</v>
       </c>
       <c r="V159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12916,7 +12916,7 @@
         <v>0.9335065749241971</v>
       </c>
       <c r="K160">
-        <v>48.28049653572009</v>
+        <v>-0.01719503464279909</v>
       </c>
       <c r="L160">
         <v>-0.003784916957386053</v>
@@ -12946,13 +12946,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U160">
-        <v>0.9999072528287886</v>
+        <v>-9.274717121143805E-05</v>
       </c>
       <c r="V160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W160">
-        <v>0.9992047713717694</v>
+        <v>-0.0007952286282305598</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12987,7 +12987,7 @@
         <v>0.933506574924197</v>
       </c>
       <c r="K161">
-        <v>48.28049653572009</v>
+        <v>-0.01719503464279909</v>
       </c>
       <c r="L161">
         <v>-0.003832007446146461</v>
@@ -13017,13 +13017,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U161">
-        <v>0.9999734983502723</v>
+        <v>-2.650164972772817E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999734811318253</v>
+        <v>-2.65188681747297E-05</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -13058,7 +13058,7 @@
         <v>0.8679833691929493</v>
       </c>
       <c r="K162">
-        <v>46.46633281151514</v>
+        <v>-0.03533667188484862</v>
       </c>
       <c r="L162">
         <v>-0.004057711032612152</v>
@@ -13088,13 +13088,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U162">
-        <v>0.9999204929437489</v>
+        <v>-7.950705625114907E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999469608571124</v>
+        <v>-5.303914288756761E-05</v>
       </c>
       <c r="W162">
-        <v>0.9996020692399523</v>
+        <v>-0.0003979307600476822</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13129,7 +13129,7 @@
         <v>0.9418680073511509</v>
       </c>
       <c r="K163">
-        <v>48.50319402686527</v>
+        <v>-0.01496805973134735</v>
       </c>
       <c r="L163">
         <v>-0.004217713772905854</v>
@@ -13159,13 +13159,13 @@
         <v>-0.0006249999999958789</v>
       </c>
       <c r="U163">
-        <v>0.999960243310937</v>
+        <v>-3.975668906297525E-05</v>
       </c>
       <c r="V163">
-        <v>0.9999469580438127</v>
+        <v>-5.304195618727192E-05</v>
       </c>
       <c r="W163">
-        <v>1.000398089171974</v>
+        <v>0.0003980891719743695</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13200,7 +13200,7 @@
         <v>0.8739017792015555</v>
       </c>
       <c r="K164">
-        <v>46.63541007863888</v>
+        <v>-0.03364589921361116</v>
       </c>
       <c r="L164">
         <v>-0.004457164298225062</v>
@@ -13230,13 +13230,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U164">
-        <v>0.9999204834605598</v>
+        <v>-7.95165394401609E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999204328453215</v>
+        <v>-7.956715467849484E-05</v>
       </c>
       <c r="W164">
-        <v>0.9996020692399523</v>
+        <v>-0.0003979307600476822</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13271,7 +13271,7 @@
         <v>0.8739017792015557</v>
       </c>
       <c r="K165">
-        <v>46.63541007863888</v>
+        <v>-0.03364589921361116</v>
       </c>
       <c r="L165">
         <v>-0.00471328920778838</v>
@@ -13301,13 +13301,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U165">
-        <v>0.999920477137177</v>
+        <v>-7.952286282297827E-05</v>
       </c>
       <c r="V165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13342,7 +13342,7 @@
         <v>1.033815566414183</v>
       </c>
       <c r="K166">
-        <v>50.83133315952054</v>
+        <v>0.00831333159520542</v>
       </c>
       <c r="L166">
         <v>-0.004656446311636931</v>
@@ -13372,13 +13372,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U166">
-        <v>0.9999337256773236</v>
+        <v>-6.627432267636291E-05</v>
       </c>
       <c r="V166">
-        <v>0.9999469510092571</v>
+        <v>-5.304899074287661E-05</v>
       </c>
       <c r="W166">
-        <v>1.000796178343949</v>
+        <v>0.0007961783439489611</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13413,7 +13413,7 @@
         <v>1.117980717578709</v>
       </c>
       <c r="K167">
-        <v>52.7852169899258</v>
+        <v>0.02785216989925798</v>
       </c>
       <c r="L167">
         <v>-0.004251827396056158</v>
@@ -13443,13 +13443,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U167">
-        <v>0.9999602327708478</v>
+        <v>-3.976722915222108E-05</v>
       </c>
       <c r="V167">
-        <v>1.000053051805088</v>
+        <v>5.305180508763385E-05</v>
       </c>
       <c r="W167">
-        <v>1.000397772474145</v>
+        <v>0.0003977724741446309</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13484,7 +13484,7 @@
         <v>1.117980717578709</v>
       </c>
       <c r="K168">
-        <v>52.7852169899258</v>
+        <v>0.02785216989925798</v>
       </c>
       <c r="L168">
         <v>-0.003646774888631118</v>
@@ -13514,13 +13514,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U168">
-        <v>0.9999602311893528</v>
+        <v>-3.976881064715609E-05</v>
       </c>
       <c r="V168">
-        <v>1.000053048990743</v>
+        <v>5.304899074287661E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13555,7 +13555,7 @@
         <v>0.8142427977631865</v>
       </c>
       <c r="K169">
-        <v>44.88058592637554</v>
+        <v>-0.05119414073624462</v>
       </c>
       <c r="L169">
         <v>-0.00352484222165599</v>
@@ -13585,13 +13585,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U169">
-        <v>0.9999072024180398</v>
+        <v>-9.279758196023558E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999469538233032</v>
+        <v>-5.304617669676936E-05</v>
       </c>
       <c r="W169">
-        <v>0.9984095427435388</v>
+        <v>-0.001590457256461231</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13626,7 +13626,7 @@
         <v>1.028730481513719</v>
       </c>
       <c r="K170">
-        <v>50.70809015232724</v>
+        <v>0.007080901523272454</v>
       </c>
       <c r="L170">
         <v>-0.003256088201139411</v>
@@ -13656,13 +13656,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U170">
-        <v>0.9999469678890569</v>
+        <v>-5.303211094309646E-05</v>
       </c>
       <c r="V170">
-        <v>1.000026524495371</v>
+        <v>2.652449537143831E-05</v>
       </c>
       <c r="W170">
-        <v>1.001194743130227</v>
+        <v>0.001194743130227049</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13697,7 +13697,7 @@
         <v>1.103989317917398</v>
       </c>
       <c r="K171">
-        <v>52.47124158454212</v>
+        <v>0.02471241584542117</v>
       </c>
       <c r="L171">
         <v>-0.002758806528847411</v>
@@ -13727,13 +13727,13 @@
         <v>-0.0006250000000029843</v>
       </c>
       <c r="U171">
-        <v>0.9999602238073771</v>
+        <v>-3.977619262285348E-05</v>
       </c>
       <c r="V171">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W171">
-        <v>1.000397772474145</v>
+        <v>0.0003977724741446309</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13768,7 +13768,7 @@
         <v>1.02295129267102</v>
       </c>
       <c r="K172">
-        <v>50.56727249821017</v>
+        <v>0.005672724982101696</v>
       </c>
       <c r="L172">
         <v>-0.002289534712707521</v>
@@ -13798,13 +13798,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U172">
-        <v>0.9999469629668916</v>
+        <v>-5.303703310843844E-05</v>
       </c>
       <c r="V172">
-        <v>1.000026523791841</v>
+        <v>2.652379184109321E-05</v>
       </c>
       <c r="W172">
-        <v>0.9996023856858848</v>
+        <v>-0.0003976143141152244</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13839,7 +13839,7 @@
         <v>1.02295129267102</v>
       </c>
       <c r="K173">
-        <v>50.56727249821017</v>
+        <v>0.005672724982101696</v>
       </c>
       <c r="L173">
         <v>-0.001858796310084952</v>
@@ -13869,13 +13869,13 @@
         <v>0.004374999999999574</v>
       </c>
       <c r="U173">
-        <v>0.9999469601538157</v>
+        <v>-5.303984618432178E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999734769116516</v>
+        <v>-2.652308834838468E-05</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13910,7 +13910,7 @@
         <v>1.34829076579985</v>
       </c>
       <c r="K174">
-        <v>57.41583561269974</v>
+        <v>0.07415835612699739</v>
       </c>
       <c r="L174">
         <v>-0.0008927013452435481</v>
@@ -13940,13 +13940,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U174">
-        <v>1.000039781994669</v>
+        <v>3.978199466914134E-05</v>
       </c>
       <c r="V174">
-        <v>1.000079571375524</v>
+        <v>7.957137552394578E-05</v>
       </c>
       <c r="W174">
-        <v>1.001591089896579</v>
+        <v>0.00159108989657919</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13981,7 +13981,7 @@
         <v>1.072756522303679</v>
       </c>
       <c r="K175">
-        <v>51.75506677993268</v>
+        <v>0.01755066779932679</v>
       </c>
       <c r="L175">
         <v>-9.510453061290072E-05</v>
@@ -14011,13 +14011,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U175">
-        <v>1.00002652027475</v>
+        <v>2.652027475003038E-05</v>
       </c>
       <c r="V175">
-        <v>1.000053043362949</v>
+        <v>5.304336294909007E-05</v>
       </c>
       <c r="W175">
-        <v>0.9988085782366958</v>
+        <v>-0.001191421763304223</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -14052,7 +14052,7 @@
         <v>1.000981519192349</v>
       </c>
       <c r="K176">
-        <v>50.02452594346661</v>
+        <v>0.0002452594346661341</v>
       </c>
       <c r="L176">
         <v>0.0004050728093695603</v>
@@ -14082,13 +14082,13 @@
         <v>0.005624999999994884</v>
       </c>
       <c r="U176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V176">
-        <v>1.00002652027475</v>
+        <v>2.652027475025243E-05</v>
       </c>
       <c r="W176">
-        <v>0.9996023856858848</v>
+        <v>-0.0003976143141152244</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14123,7 +14123,7 @@
         <v>1.071410021171332</v>
       </c>
       <c r="K177">
-        <v>51.72370560249949</v>
+        <v>0.01723705602499492</v>
       </c>
       <c r="L177">
         <v>0.0008365555771339715</v>
@@ -14153,13 +14153,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U177">
-        <v>1.000013259785722</v>
+        <v>1.325978572186415E-05</v>
       </c>
       <c r="V177">
-        <v>1.000079558714331</v>
+        <v>7.955871433118489E-05</v>
       </c>
       <c r="W177">
-        <v>1.000397772474145</v>
+        <v>0.0003977724741446309</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14194,7 +14194,7 @@
         <v>1.071410021171332</v>
       </c>
       <c r="K178">
-        <v>51.72370560249949</v>
+        <v>0.01723705602499481</v>
       </c>
       <c r="L178">
         <v>0.001195873414818193</v>
@@ -14224,13 +14224,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>1.000053034923497</v>
+        <v>5.303492349706396E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14265,7 +14265,7 @@
         <v>1.071410021171332</v>
       </c>
       <c r="K179">
-        <v>51.72370560249949</v>
+        <v>0.01723705602499481</v>
       </c>
       <c r="L179">
         <v>0.001484214615495744</v>
@@ -14295,13 +14295,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V179">
-        <v>1.000079548166415</v>
+        <v>7.954816641486673E-05</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14336,7 +14336,7 @@
         <v>1.482131712257485</v>
       </c>
       <c r="K180">
-        <v>59.71204932189092</v>
+        <v>0.09712049321890914</v>
       </c>
       <c r="L180">
         <v>0.00242997639019015</v>
@@ -14366,13 +14366,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U180">
-        <v>1.000106076879218</v>
+        <v>0.0001060768792182643</v>
       </c>
       <c r="V180">
-        <v>1.000212111570686</v>
+        <v>0.0002121115706861243</v>
       </c>
       <c r="W180">
-        <v>1.001988071570577</v>
+        <v>0.001988071570576677</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14407,7 +14407,7 @@
         <v>1.568599436696687</v>
       </c>
       <c r="K181">
-        <v>61.06827768809151</v>
+        <v>0.1106827768809151</v>
       </c>
       <c r="L181">
         <v>0.003849680417487492</v>
@@ -14437,13 +14437,13 @@
         <v>0.01312500000000227</v>
       </c>
       <c r="U181">
-        <v>1.000066291017567</v>
+        <v>6.629101756727707E-05</v>
       </c>
       <c r="V181">
-        <v>1.000185558265295</v>
+        <v>0.0001855582652952048</v>
       </c>
       <c r="W181">
-        <v>1.000396825396825</v>
+        <v>0.0003968253968253954</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14478,7 +14478,7 @@
         <v>1.437738416474216</v>
       </c>
       <c r="K182">
-        <v>58.97837137725654</v>
+        <v>0.08978371377256533</v>
       </c>
       <c r="L182">
         <v>0.005307075064339447</v>
@@ -14508,13 +14508,13 @@
         <v>0.01187499999999986</v>
       </c>
       <c r="U182">
-        <v>1.000092801272703</v>
+        <v>9.280127270305805E-05</v>
       </c>
       <c r="V182">
-        <v>1.000132517028438</v>
+        <v>0.0001325170284383059</v>
       </c>
       <c r="W182">
-        <v>0.9996033320111066</v>
+        <v>-0.0003966679888933733</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14549,7 +14549,7 @@
         <v>1.525554616784429</v>
       </c>
       <c r="K183">
-        <v>60.40473671192215</v>
+        <v>0.1040473671192216</v>
       </c>
       <c r="L183">
         <v>0.006819804479292103</v>
@@ -14579,13 +14579,13 @@
         <v>0.015625</v>
       </c>
       <c r="U183">
-        <v>1.000106048755915</v>
+        <v>0.0001060487559154666</v>
       </c>
       <c r="V183">
-        <v>1.000158999364003</v>
+        <v>0.0001589993640025433</v>
       </c>
       <c r="W183">
-        <v>1.000396825396825</v>
+        <v>0.0003968253968253954</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14620,7 +14620,7 @@
         <v>1.287522360893695</v>
       </c>
       <c r="K184">
-        <v>56.28458033479866</v>
+        <v>0.06284580334798662</v>
       </c>
       <c r="L184">
         <v>0.007955028964890819</v>
@@ -14650,13 +14650,13 @@
         <v>0.01937500000000014</v>
       </c>
       <c r="U184">
-        <v>1.000079528133077</v>
+        <v>7.952813307698925E-05</v>
       </c>
       <c r="V184">
-        <v>1.000211965449632</v>
+        <v>0.0002119654496317569</v>
       </c>
       <c r="W184">
-        <v>0.9992066640222135</v>
+        <v>-0.0007933359777865245</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14691,7 +14691,7 @@
         <v>1.369643402841952</v>
       </c>
       <c r="K185">
-        <v>57.79955757053218</v>
+        <v>0.07799557570532178</v>
       </c>
       <c r="L185">
         <v>0.008904958740489362</v>
@@ -14721,13 +14721,13 @@
         <v>0.01999999999999957</v>
       </c>
       <c r="U185">
-        <v>1.000092775443665</v>
+        <v>9.277544366548263E-05</v>
       </c>
       <c r="V185">
-        <v>1.000158940397351</v>
+        <v>0.0001589403973509818</v>
       </c>
       <c r="W185">
-        <v>1.000396982929734</v>
+        <v>0.0003969829297338912</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14762,7 +14762,7 @@
         <v>1.16775452256268</v>
       </c>
       <c r="K186">
-        <v>53.86931547868168</v>
+        <v>0.03869315478681679</v>
       </c>
       <c r="L186">
         <v>0.009359983853924871</v>
@@ -14792,13 +14792,13 @@
         <v>0.02124999999999844</v>
       </c>
       <c r="U186">
-        <v>1.000039757215935</v>
+        <v>3.975721593474368E-05</v>
       </c>
       <c r="V186">
-        <v>1.000079457569658</v>
+        <v>7.945756965765938E-05</v>
       </c>
       <c r="W186">
-        <v>0.9992063492063492</v>
+        <v>-0.0007936507936507908</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14833,7 +14833,7 @@
         <v>1.322915063167137</v>
       </c>
       <c r="K187">
-        <v>56.95064292895119</v>
+        <v>0.0695064292895119</v>
       </c>
       <c r="L187">
         <v>0.009741662461078151</v>
@@ -14863,13 +14863,13 @@
         <v>0.02437499999999915</v>
       </c>
       <c r="U187">
-        <v>1.000092763149176</v>
+        <v>9.276314917627815E-05</v>
       </c>
       <c r="V187">
-        <v>1.000158902513308</v>
+        <v>0.0001589025133081901</v>
       </c>
       <c r="W187">
-        <v>1.000794281175536</v>
+        <v>0.000794281175536149</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14904,7 +14904,7 @@
         <v>1.223037602346297</v>
       </c>
       <c r="K188">
-        <v>55.0165053913369</v>
+        <v>0.05016505391336901</v>
       </c>
       <c r="L188">
         <v>0.009874269808288278</v>
@@ -14934,13 +14934,13 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="U188">
-        <v>1.000053002597127</v>
+        <v>5.300259712726074E-05</v>
       </c>
       <c r="V188">
-        <v>1.000132397722759</v>
+        <v>0.0001323977227591921</v>
       </c>
       <c r="W188">
-        <v>0.9996031746031747</v>
+        <v>-0.0003968253968252844</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14975,7 +14975,7 @@
         <v>1.381980791084985</v>
       </c>
       <c r="K189">
-        <v>58.01813332237231</v>
+        <v>0.08018133322372312</v>
       </c>
       <c r="L189">
         <v>0.01010105937903531</v>
@@ -15005,13 +15005,13 @@
         <v>0.01562499999999645</v>
       </c>
       <c r="U189">
-        <v>1.000079499682001</v>
+        <v>7.949968200127167E-05</v>
       </c>
       <c r="V189">
-        <v>1.000079428117554</v>
+        <v>7.942811755379253E-05</v>
       </c>
       <c r="W189">
-        <v>1.000793965859468</v>
+        <v>0.0007939658594680044</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -15046,7 +15046,7 @@
         <v>1.183903526224826</v>
       </c>
       <c r="K190">
-        <v>54.21043155103853</v>
+        <v>0.04210431551038529</v>
       </c>
       <c r="L190">
         <v>0.01004410054428764</v>
@@ -15076,13 +15076,13 @@
         <v>0.01374999999999815</v>
       </c>
       <c r="U190">
-        <v>1.000079493362304</v>
+        <v>7.949336230428372E-05</v>
       </c>
       <c r="V190">
-        <v>1.000105895745638</v>
+        <v>0.0001058957456383514</v>
       </c>
       <c r="W190">
-        <v>0.9992066640222135</v>
+        <v>-0.0007933359777865245</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15117,7 +15117,7 @@
         <v>1.100859051834882</v>
       </c>
       <c r="K191">
-        <v>52.4004240490763</v>
+        <v>0.024004240490763</v>
       </c>
       <c r="L191">
         <v>0.00963759073648149</v>
@@ -15147,13 +15147,13 @@
         <v>0.008124999999996163</v>
       </c>
       <c r="U191">
-        <v>1.00006623920301</v>
+        <v>6.623920300974362E-05</v>
       </c>
       <c r="V191">
-        <v>1.000105884532917</v>
+        <v>0.0001058845329169333</v>
       </c>
       <c r="W191">
-        <v>0.9996030170702659</v>
+        <v>-0.0003969829297341132</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15188,7 +15188,7 @@
         <v>1.17469550409944</v>
       </c>
       <c r="K192">
-        <v>54.01655090954407</v>
+        <v>0.0401655090954407</v>
       </c>
       <c r="L192">
         <v>0.009154894635066302</v>
@@ -15218,13 +15218,13 @@
         <v>0.004999999999999005</v>
       </c>
       <c r="U192">
-        <v>1.000092728741936</v>
+        <v>9.272874193588798E-05</v>
       </c>
       <c r="V192">
-        <v>1.00010587332257</v>
+        <v>0.0001058733225696162</v>
       </c>
       <c r="W192">
-        <v>1.000397140587768</v>
+        <v>0.0003971405877680745</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15259,7 +15259,7 @@
         <v>0.9525837095734218</v>
       </c>
       <c r="K193">
-        <v>48.78580646263465</v>
+        <v>-0.01214193537365355</v>
       </c>
       <c r="L193">
         <v>0.008189399794643474</v>
@@ -15289,13 +15289,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U193">
-        <v>1.00003973720462</v>
+        <v>3.97372046201383E-05</v>
       </c>
       <c r="V193">
-        <v>1.000026465528649</v>
+        <v>2.64655286490445E-05</v>
       </c>
       <c r="W193">
-        <v>0.9988090512107979</v>
+        <v>-0.001190948789202118</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15330,7 +15330,7 @@
         <v>1.085271649077076</v>
       </c>
       <c r="K194">
-        <v>52.04461728319226</v>
+        <v>0.02044617283192263</v>
       </c>
       <c r="L194">
         <v>0.007252608759493926</v>
@@ -15360,13 +15360,13 @@
         <v>-0.002500000000001279</v>
       </c>
       <c r="U194">
-        <v>1.000079471251275</v>
+        <v>7.947125127505394E-05</v>
       </c>
       <c r="V194">
-        <v>1.00007939448473</v>
+        <v>7.939448472971122E-05</v>
       </c>
       <c r="W194">
-        <v>1.000794912559618</v>
+        <v>0.0007949125596184992</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15401,7 +15401,7 @@
         <v>1.155107406710591</v>
       </c>
       <c r="K195">
-        <v>53.59860038129924</v>
+        <v>0.03598600381299233</v>
       </c>
       <c r="L195">
         <v>0.006511179327073595</v>
@@ -15431,13 +15431,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U195">
-        <v>1.000092709092113</v>
+        <v>9.270909211300804E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999735372727514</v>
+        <v>-2.646272724859955E-05</v>
       </c>
       <c r="W195">
-        <v>1.000397140587768</v>
+        <v>0.0003971405877680745</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15472,7 +15472,7 @@
         <v>1.155107406710591</v>
       </c>
       <c r="K196">
-        <v>53.59860038129924</v>
+        <v>0.03598600381299233</v>
       </c>
       <c r="L196">
         <v>0.005911620786832229</v>
@@ -15502,13 +15502,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U196">
-        <v>1.000066214641382</v>
+        <v>6.621464138167887E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999470731449138</v>
+        <v>-5.292685508617723E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15543,7 +15543,7 @@
         <v>1.072144499852111</v>
       </c>
       <c r="K197">
-        <v>51.74081729959615</v>
+        <v>0.01740817299596142</v>
       </c>
       <c r="L197">
         <v>0.005270025751484488</v>
@@ -15573,13 +15573,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U197">
-        <v>1.000039726154376</v>
+        <v>3.972615437586313E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999470703435133</v>
+        <v>-5.29296564867332E-05</v>
       </c>
       <c r="W197">
-        <v>0.9996030170702659</v>
+        <v>-0.0003969829297341132</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15614,7 +15614,7 @@
         <v>1.223350136891836</v>
       </c>
       <c r="K198">
-        <v>55.02282868509571</v>
+        <v>0.05022828685095715</v>
       </c>
       <c r="L198">
         <v>0.004913962242983899</v>
@@ -15644,13 +15644,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U198">
-        <v>1.000066207627119</v>
+        <v>6.620762711850858E-05</v>
       </c>
       <c r="V198">
-        <v>0.9999735337709085</v>
+        <v>-2.646622909152629E-05</v>
       </c>
       <c r="W198">
-        <v>1.000794281175536</v>
+        <v>0.000794281175536149</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15685,7 +15685,7 @@
         <v>1.621259708049019</v>
       </c>
       <c r="K199">
-        <v>61.85040357011052</v>
+        <v>0.1185040357011052</v>
       </c>
       <c r="L199">
         <v>0.005458822257411284</v>
@@ -15715,13 +15715,13 @@
         <v>3.552713678800501E-15</v>
       </c>
       <c r="U199">
-        <v>1.000185369083085</v>
+        <v>0.0001853690830850852</v>
       </c>
       <c r="V199">
-        <v>1.000158801577429</v>
+        <v>0.0001588015774289797</v>
       </c>
       <c r="W199">
-        <v>1.001984126984127</v>
+        <v>0.001984126984126977</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15756,7 +15756,7 @@
         <v>1.621259708049019</v>
       </c>
       <c r="K200">
-        <v>61.85040357011053</v>
+        <v>0.1185040357011053</v>
       </c>
       <c r="L200">
         <v>0.006494726634518485</v>
@@ -15786,13 +15786,13 @@
         <v>0.003750000000003695</v>
       </c>
       <c r="U200">
-        <v>1.000145620143237</v>
+        <v>0.0001456201432372684</v>
       </c>
       <c r="V200">
-        <v>1.000132313636243</v>
+        <v>0.0001323136362434418</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15827,7 +15827,7 @@
         <v>1.621259708049019</v>
       </c>
       <c r="K201">
-        <v>61.85040357011053</v>
+        <v>0.1185040357011053</v>
       </c>
       <c r="L201">
         <v>0.007738286541794834</v>
@@ -15857,13 +15857,13 @@
         <v>0.01187499999999986</v>
       </c>
       <c r="U201">
-        <v>1.000132362673726</v>
+        <v>0.0001323626737259609</v>
       </c>
       <c r="V201">
-        <v>1.000185214584326</v>
+        <v>0.0001852145843255215</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15898,7 +15898,7 @@
         <v>1.71408013578653</v>
       </c>
       <c r="K202">
-        <v>63.15510412480124</v>
+        <v>0.1315510412480124</v>
       </c>
       <c r="L202">
         <v>0.009144650320884079</v>
@@ -15928,13 +15928,13 @@
         <v>0.01687500000000242</v>
       </c>
       <c r="U202">
-        <v>1.000158814187401</v>
+        <v>0.0001588141874007132</v>
       </c>
       <c r="V202">
-        <v>1.000158725959631</v>
+        <v>0.0001587259596309565</v>
       </c>
       <c r="W202">
-        <v>1.00039603960396</v>
+        <v>0.0003960396039603964</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15969,7 +15969,7 @@
         <v>2.104902989418084</v>
       </c>
       <c r="K203">
-        <v>67.7928745790728</v>
+        <v>0.177928745790728</v>
       </c>
       <c r="L203">
         <v>0.01110487010968001</v>
@@ -15999,13 +15999,13 @@
         <v>0.0243750000000027</v>
       </c>
       <c r="U203">
-        <v>1.000211718625946</v>
+        <v>0.0002117186259460446</v>
       </c>
       <c r="V203">
-        <v>1.000290951411114</v>
+        <v>0.0002909514111142375</v>
       </c>
       <c r="W203">
-        <v>1.001583531274743</v>
+        <v>0.001583531274742533</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -16040,7 +16040,7 @@
         <v>1.745798752424002</v>
       </c>
       <c r="K204">
-        <v>63.5807249487168</v>
+        <v>0.135807249487168</v>
       </c>
       <c r="L204">
         <v>0.01294566011053765</v>
@@ -16070,13 +16070,13 @@
         <v>0.02999999999999758</v>
       </c>
       <c r="U204">
-        <v>1.000132296131661</v>
+        <v>0.0001322961316609916</v>
       </c>
       <c r="V204">
-        <v>1.000185097043736</v>
+        <v>0.0001850970437358157</v>
       </c>
       <c r="W204">
-        <v>0.9992094861660079</v>
+        <v>-0.0007905138339920903</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16111,7 +16111,7 @@
         <v>1.745798752424002</v>
       </c>
       <c r="K205">
-        <v>63.5807249487168</v>
+        <v>0.135807249487168</v>
       </c>
       <c r="L205">
         <v>0.0145492992017774</v>
@@ -16141,13 +16141,13 @@
         <v>0.03812500000000441</v>
       </c>
       <c r="U205">
-        <v>1.000171962221223</v>
+        <v>0.0001719622212228433</v>
       </c>
       <c r="V205">
-        <v>1.000237937871778</v>
+        <v>0.000237937871777838</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16182,7 +16182,7 @@
         <v>1.185532287055363</v>
       </c>
       <c r="K206">
-        <v>54.24455607803755</v>
+        <v>0.04244556078037542</v>
       </c>
       <c r="L206">
         <v>0.01513107907002603</v>
@@ -16212,13 +16212,13 @@
         <v>0.03937499999999972</v>
       </c>
       <c r="U206">
-        <v>1.000119030299824</v>
+        <v>0.0001190302998241854</v>
       </c>
       <c r="V206">
-        <v>1.000132156261564</v>
+        <v>0.0001321562615637095</v>
       </c>
       <c r="W206">
-        <v>0.9980221518987341</v>
+        <v>-0.001977848101265889</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16253,7 +16253,7 @@
         <v>1.523345665174342</v>
       </c>
       <c r="K207">
-        <v>60.37007478597236</v>
+        <v>0.1037007478597236</v>
       </c>
       <c r="L207">
         <v>0.01572432471327458</v>
@@ -16283,13 +16283,13 @@
         <v>0.03687500000000199</v>
       </c>
       <c r="U207">
-        <v>1.000171912192542</v>
+        <v>0.0001719121925416456</v>
       </c>
       <c r="V207">
-        <v>1.000237849837469</v>
+        <v>0.0002378498374693283</v>
       </c>
       <c r="W207">
-        <v>1.001981767736821</v>
+        <v>0.001981767736821238</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16324,7 +16324,7 @@
         <v>1.594464271094112</v>
       </c>
       <c r="K208">
-        <v>61.45639733252947</v>
+        <v>0.1145639733252947</v>
       </c>
       <c r="L208">
         <v>0.01637369929877217</v>
@@ -16354,13 +16354,13 @@
         <v>0.03562499999999957</v>
       </c>
       <c r="U208">
-        <v>1.000185104385652</v>
+        <v>0.0001851043856517798</v>
       </c>
       <c r="V208">
-        <v>1.000343479179877</v>
+        <v>0.0003434791798773151</v>
       </c>
       <c r="W208">
-        <v>1.000395569620253</v>
+        <v>0.0003955696202531112</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16395,7 +16395,7 @@
         <v>1.594464271094112</v>
       </c>
       <c r="K209">
-        <v>61.45639733252947</v>
+        <v>0.1145639733252947</v>
       </c>
       <c r="L209">
         <v>0.01695578189700448</v>
@@ -16425,13 +16425,13 @@
         <v>0.03249999999999531</v>
       </c>
       <c r="U209">
-        <v>1.000185070128359</v>
+        <v>0.0001850701283592215</v>
       </c>
       <c r="V209">
-        <v>1.00029053643591</v>
+        <v>0.0002905364359104823</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16466,7 +16466,7 @@
         <v>1.673266050506627</v>
       </c>
       <c r="K210">
-        <v>62.59257473417269</v>
+        <v>0.1259257473417269</v>
       </c>
       <c r="L210">
         <v>0.01754246019202065</v>
@@ -16496,13 +16496,13 @@
         <v>0.02999999999999758</v>
       </c>
       <c r="U210">
-        <v>1.000132168488389</v>
+        <v>0.0001321684883890395</v>
       </c>
       <c r="V210">
-        <v>1.000290452049007</v>
+        <v>0.0002904520490072393</v>
       </c>
       <c r="W210">
-        <v>1.000395413206801</v>
+        <v>0.0003954132068011429</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16537,7 +16537,7 @@
         <v>1.339847939611224</v>
       </c>
       <c r="K211">
-        <v>57.26218003011963</v>
+        <v>0.07262180030119625</v>
       </c>
       <c r="L211">
         <v>0.0175971034768287</v>
@@ -16567,13 +16567,13 @@
         <v>0.02124999999999844</v>
       </c>
       <c r="U211">
-        <v>1.000079290613313</v>
+        <v>7.92906133129101E-05</v>
       </c>
       <c r="V211">
-        <v>1.000211176517171</v>
+        <v>0.0002111765171712854</v>
       </c>
       <c r="W211">
-        <v>0.9988142292490119</v>
+        <v>-0.001185770750988135</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16608,7 +16608,7 @@
         <v>1.40976438284814</v>
       </c>
       <c r="K212">
-        <v>58.50216697044532</v>
+        <v>0.08502166970445324</v>
       </c>
       <c r="L212">
         <v>0.01740629089059779</v>
@@ -16638,13 +16638,13 @@
         <v>0.015625</v>
       </c>
       <c r="U212">
-        <v>1.000105712435747</v>
+        <v>0.0001057124357468631</v>
       </c>
       <c r="V212">
-        <v>1.000263914913832</v>
+        <v>0.0002639149138317087</v>
       </c>
       <c r="W212">
-        <v>1.000395726157499</v>
+        <v>0.0003957261574991655</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16679,7 +16679,7 @@
         <v>1.313123415733217</v>
       </c>
       <c r="K213">
-        <v>56.7684113524475</v>
+        <v>0.06768411352447501</v>
       </c>
       <c r="L213">
         <v>0.01687113645711797</v>
@@ -16709,13 +16709,13 @@
         <v>0.008749999999995595</v>
       </c>
       <c r="U213">
-        <v>1.000079275946356</v>
+        <v>7.927594635637192E-05</v>
       </c>
       <c r="V213">
-        <v>1.000184691696789</v>
+        <v>0.000184691696789141</v>
       </c>
       <c r="W213">
-        <v>0.9996044303797468</v>
+        <v>-0.0003955696202532222</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16750,7 +16750,7 @@
         <v>1.529600725791905</v>
       </c>
       <c r="K214">
-        <v>60.46806953350535</v>
+        <v>0.1046806953350535</v>
       </c>
       <c r="L214">
         <v>0.01653313639739025</v>
@@ -16780,13 +16780,13 @@
         <v>0.01125000000000043</v>
       </c>
       <c r="U214">
-        <v>1.000145327713995</v>
+        <v>0.0001453277139953357</v>
       </c>
       <c r="V214">
-        <v>1.000131898280046</v>
+        <v>0.0001318982800462276</v>
       </c>
       <c r="W214">
-        <v>1.001187178472497</v>
+        <v>0.001187178472497052</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16821,7 +16821,7 @@
         <v>1.529600725791905</v>
       </c>
       <c r="K215">
-        <v>60.46806953350535</v>
+        <v>0.1046806953350535</v>
       </c>
       <c r="L215">
         <v>0.01627572163830043</v>
@@ -16851,13 +16851,13 @@
         <v>0.01062500000000099</v>
       </c>
       <c r="U215">
-        <v>1.00013209690629</v>
+        <v>0.0001320969062903465</v>
       </c>
       <c r="V215">
-        <v>1.000131880885184</v>
+        <v>0.0001318808851844544</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16892,7 +16892,7 @@
         <v>1.689510096103023</v>
       </c>
       <c r="K216">
-        <v>62.81850730179617</v>
+        <v>0.1281850730179618</v>
       </c>
       <c r="L216">
         <v>0.01631271144719523</v>
@@ -16922,13 +16922,13 @@
         <v>0.01000000000000156</v>
       </c>
       <c r="U216">
-        <v>1.000184911242604</v>
+        <v>0.0001849112426035582</v>
       </c>
       <c r="V216">
-        <v>1.000184608892874</v>
+        <v>0.000184608892874083</v>
       </c>
       <c r="W216">
-        <v>1.000790513833992</v>
+        <v>0.0007905138339920903</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16963,7 +16963,7 @@
         <v>1.558354570769716</v>
       </c>
       <c r="K217">
-        <v>60.91237659449463</v>
+        <v>0.1091237659449463</v>
       </c>
       <c r="L217">
         <v>0.01632174468447872</v>
@@ -16993,13 +16993,13 @@
         <v>0.0087500000000027</v>
       </c>
       <c r="U217">
-        <v>1.000145260544595</v>
+        <v>0.0001452605445950717</v>
       </c>
       <c r="V217">
-        <v>1.000131839156229</v>
+        <v>0.0001318391562294963</v>
       </c>
       <c r="W217">
-        <v>0.9996050552922591</v>
+        <v>-0.0003949447077409296</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -17034,7 +17034,7 @@
         <v>1.440633124007091</v>
       </c>
       <c r="K218">
-        <v>59.02702498939392</v>
+        <v>0.09027024989393917</v>
       </c>
       <c r="L218">
         <v>0.01610943061631851</v>
@@ -17064,13 +17064,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U218">
-        <v>1.000145239447034</v>
+        <v>0.0001452394470338181</v>
       </c>
       <c r="V218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W218">
-        <v>0.9996048992493086</v>
+        <v>-0.0003951007506913795</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17105,7 +17105,7 @@
         <v>1.52015117125131</v>
       </c>
       <c r="K219">
-        <v>60.31984067434025</v>
+        <v>0.1031984067434025</v>
       </c>
       <c r="L219">
         <v>0.01586208106735163</v>
@@ -17135,13 +17135,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U219">
-        <v>1.000132016686909</v>
+        <v>0.0001320166869092088</v>
       </c>
       <c r="V219">
-        <v>1.000079093066174</v>
+        <v>7.909306617426282E-05</v>
       </c>
       <c r="W219">
-        <v>1.000395256916996</v>
+        <v>0.0003952569169960451</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17176,7 +17176,7 @@
         <v>1.854964001753375</v>
       </c>
       <c r="K220">
-        <v>64.9732886514208</v>
+        <v>0.149732886514208</v>
       </c>
       <c r="L220">
         <v>0.01612823063367347</v>
@@ -17206,13 +17206,13 @@
         <v>0.01499999999999702</v>
       </c>
       <c r="U220">
-        <v>1.000211198817287</v>
+        <v>0.0002111988172865953</v>
       </c>
       <c r="V220">
-        <v>1.000184535892231</v>
+        <v>0.000184535892231219</v>
       </c>
       <c r="W220">
-        <v>1.001580403002766</v>
+        <v>0.00158040300276574</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17247,7 +17247,7 @@
         <v>1.287683704516038</v>
       </c>
       <c r="K221">
-        <v>56.28766345513873</v>
+        <v>0.06287663455138737</v>
       </c>
       <c r="L221">
         <v>0.0159084749150948</v>
@@ -17277,13 +17277,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U221">
-        <v>1.000158365666324</v>
+        <v>0.0001583656663235455</v>
       </c>
       <c r="V221">
-        <v>1.000184501845018</v>
+        <v>0.0001845018450183922</v>
       </c>
       <c r="W221">
-        <v>0.9980276134122288</v>
+        <v>-0.001972386587771213</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17318,7 +17318,7 @@
         <v>1.209794004319533</v>
       </c>
       <c r="K222">
-        <v>54.74691314913164</v>
+        <v>0.04746913149131637</v>
       </c>
       <c r="L222">
         <v>0.01520633235429153</v>
@@ -17348,13 +17348,13 @@
         <v>0.01249999999999929</v>
       </c>
       <c r="U222">
-        <v>1.000131950492175</v>
+        <v>0.0001319504921752923</v>
       </c>
       <c r="V222">
-        <v>1.000026352544338</v>
+        <v>2.635254433824841E-05</v>
       </c>
       <c r="W222">
-        <v>0.9996047430830038</v>
+        <v>-0.0003952569169961562</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17389,7 +17389,7 @@
         <v>0.8368207394642662</v>
       </c>
       <c r="K223">
-        <v>45.55810599723173</v>
+        <v>-0.04441894002768265</v>
       </c>
       <c r="L223">
         <v>0.01319250444495224</v>
@@ -17419,13 +17419,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U223">
-        <v>1.000079159850124</v>
+        <v>7.915985012396654E-05</v>
       </c>
       <c r="V223">
-        <v>0.9998155370507009</v>
+        <v>-0.0001844629492990801</v>
       </c>
       <c r="W223">
-        <v>0.9972321075523922</v>
+        <v>-0.002767892447607778</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17460,7 +17460,7 @@
         <v>0.8368207394642662</v>
       </c>
       <c r="K224">
-        <v>45.55810599723173</v>
+        <v>-0.04441894002768265</v>
       </c>
       <c r="L224">
         <v>0.01046490000856202</v>
@@ -17490,13 +17490,13 @@
         <v>-0.001875000000001847</v>
       </c>
       <c r="U224">
-        <v>1.000052769056225</v>
+        <v>5.276905622531025E-05</v>
       </c>
       <c r="V224">
-        <v>0.9998155030178434</v>
+        <v>-0.0001844969821566123</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17531,7 +17531,7 @@
         <v>0.9344210095426743</v>
       </c>
       <c r="K225">
-        <v>48.30494524889311</v>
+        <v>-0.01695054751106889</v>
       </c>
       <c r="L225">
         <v>0.007729126488648076</v>
@@ -17561,13 +17561,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U225">
-        <v>1.000065957839749</v>
+        <v>6.59578397488314E-05</v>
       </c>
       <c r="V225">
-        <v>0.9998418305477935</v>
+        <v>-0.0001581694522064803</v>
       </c>
       <c r="W225">
-        <v>1.000793021411578</v>
+        <v>0.0007930214115781098</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17602,7 +17602,7 @@
         <v>1.08852669914017</v>
       </c>
       <c r="K226">
-        <v>52.11935761167467</v>
+        <v>0.02119357611674666</v>
       </c>
       <c r="L226">
         <v>0.005566932675612116</v>
@@ -17632,13 +17632,13 @@
         <v>-0.009374999999995026</v>
       </c>
       <c r="U226">
-        <v>1.000105525583359</v>
+        <v>0.0001055255833586344</v>
       </c>
       <c r="V226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W226">
-        <v>1.001188589540412</v>
+        <v>0.001188589540412011</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17673,7 +17673,7 @@
         <v>1.196671042717353</v>
       </c>
       <c r="K227">
-        <v>54.47657020311209</v>
+        <v>0.04476570203112085</v>
       </c>
       <c r="L227">
         <v>0.004157821650365361</v>
@@ -17703,13 +17703,13 @@
         <v>-0.01312499999999872</v>
       </c>
       <c r="U227">
-        <v>1.000145082367217</v>
+        <v>0.0001450823672166646</v>
       </c>
       <c r="V227">
-        <v>1.000026365745623</v>
+        <v>2.636574562342453E-05</v>
       </c>
       <c r="W227">
-        <v>1.000791452314998</v>
+        <v>0.000791452314998109</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17744,7 +17744,7 @@
         <v>1.022136854538276</v>
       </c>
       <c r="K228">
-        <v>50.54736291682222</v>
+        <v>0.005473629168222138</v>
       </c>
       <c r="L228">
         <v>0.002847273864647504</v>
@@ -17774,13 +17774,13 @@
         <v>-0.02312500000000384</v>
       </c>
       <c r="U228">
-        <v>1.000079124357115</v>
+        <v>7.912435711476817E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999736349495107</v>
+        <v>-2.636505048925208E-05</v>
       </c>
       <c r="W228">
-        <v>0.9988137603795968</v>
+        <v>-0.001186239620403207</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17815,7 +17815,7 @@
         <v>1.022136854538276</v>
       </c>
       <c r="K229">
-        <v>50.54736291682222</v>
+        <v>0.005473629168222138</v>
       </c>
       <c r="L229">
         <v>0.001669578596940715</v>
@@ -17845,13 +17845,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U229">
-        <v>1.000013186349491</v>
+        <v>1.318634949099007E-05</v>
       </c>
       <c r="V229">
-        <v>0.999894537017507</v>
+        <v>-0.000105462982493032</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17886,7 +17886,7 @@
         <v>1.076005649801542</v>
       </c>
       <c r="K230">
-        <v>51.83057425226198</v>
+        <v>0.01830574252261974</v>
       </c>
       <c r="L230">
         <v>0.0007853943794018572</v>
@@ -17916,13 +17916,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U230">
-        <v>1.000026372351227</v>
+        <v>2.637235122704418E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999208944204199</v>
+        <v>-7.910557958012987E-05</v>
       </c>
       <c r="W230">
-        <v>1.000395882818686</v>
+        <v>0.0003958828186856334</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17957,7 +17957,7 @@
         <v>0.9664073362492502</v>
       </c>
       <c r="K231">
-        <v>49.14583659419149</v>
+        <v>-0.008541634058085057</v>
       </c>
       <c r="L231">
         <v>-0.0001556496748606233</v>
@@ -17987,13 +17987,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V231">
-        <v>0.9998154057118748</v>
+        <v>-0.0001845942881252283</v>
       </c>
       <c r="W231">
-        <v>0.999208547685002</v>
+        <v>-0.000791452314997998</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -18028,7 +18028,7 @@
         <v>0.8325167737572347</v>
       </c>
       <c r="K232">
-        <v>45.43024029462573</v>
+        <v>-0.04569759705374266</v>
       </c>
       <c r="L232">
         <v>-0.00150283262001721</v>
@@ -18058,13 +18058,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U232">
-        <v>0.9999472566885111</v>
+        <v>-5.274331148885647E-05</v>
       </c>
       <c r="V232">
-        <v>0.9997626206678271</v>
+        <v>-0.0002373793321729378</v>
       </c>
       <c r="W232">
-        <v>0.9988118811881188</v>
+        <v>-0.001188118811881189</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18099,7 +18099,7 @@
         <v>0.9297410868845953</v>
       </c>
       <c r="K233">
-        <v>48.17957669054889</v>
+        <v>-0.01820423309451108</v>
       </c>
       <c r="L233">
         <v>-0.002716648133879651</v>
@@ -18129,13 +18129,13 @@
         <v>-0.01062500000000099</v>
       </c>
       <c r="U233">
-        <v>0.9999208808597614</v>
+        <v>-7.911914023861488E-05</v>
       </c>
       <c r="V233">
-        <v>0.9998417095370005</v>
+        <v>-0.000158290462999533</v>
       </c>
       <c r="W233">
-        <v>1.000793021411578</v>
+        <v>0.0007930214115781098</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18170,7 +18170,7 @@
         <v>0.8060089775889612</v>
       </c>
       <c r="K234">
-        <v>44.62928964312186</v>
+        <v>-0.05370710356878144</v>
       </c>
       <c r="L234">
         <v>-0.004194710820159115</v>
@@ -18200,13 +18200,13 @@
         <v>-0.01249999999999929</v>
       </c>
       <c r="U234">
-        <v>0.9999076870326656</v>
+        <v>-9.231296733436256E-05</v>
       </c>
       <c r="V234">
-        <v>0.9997361407952716</v>
+        <v>-0.0002638592047283783</v>
       </c>
       <c r="W234">
-        <v>0.9988114104595881</v>
+        <v>-0.0011885895404119</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18241,7 +18241,7 @@
         <v>0.9460956397916377</v>
       </c>
       <c r="K235">
-        <v>48.61506394890917</v>
+        <v>-0.01384936051090835</v>
       </c>
       <c r="L235">
         <v>-0.005291272028033578</v>
@@ -18271,13 +18271,13 @@
         <v>-0.01437500000000114</v>
       </c>
       <c r="U235">
-        <v>0.9999472448629685</v>
+        <v>-5.275513703151269E-05</v>
       </c>
       <c r="V235">
-        <v>0.9997096782707381</v>
+        <v>-0.0002903217292619109</v>
       </c>
       <c r="W235">
-        <v>1.00119000396668</v>
+        <v>0.001190003966679898</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18312,7 +18312,7 @@
         <v>0.9460956397916376</v>
       </c>
       <c r="K236">
-        <v>48.61506394890917</v>
+        <v>-0.01384936051090835</v>
       </c>
       <c r="L236">
         <v>-0.006067622808245399</v>
@@ -18342,13 +18342,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U236">
-        <v>1.000013189480071</v>
+        <v>1.318948007078546E-05</v>
       </c>
       <c r="V236">
-        <v>0.9998415967052114</v>
+        <v>-0.0001584032947885561</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18383,7 +18383,7 @@
         <v>0.7838660194376256</v>
       </c>
       <c r="K237">
-        <v>43.94197831543111</v>
+        <v>-0.06058021684568893</v>
       </c>
       <c r="L237">
         <v>-0.007154850910810228</v>
@@ -18413,13 +18413,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U237">
-        <v>0.999894485551115</v>
+        <v>-0.000105514448884958</v>
       </c>
       <c r="V237">
-        <v>0.9997623574144489</v>
+        <v>-0.0002376425855511455</v>
       </c>
       <c r="W237">
-        <v>0.9984152139461173</v>
+        <v>-0.001584786053882681</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18454,7 +18454,7 @@
         <v>0.8289904271198434</v>
       </c>
       <c r="K238">
-        <v>45.325028213804</v>
+        <v>-0.04674971786195997</v>
       </c>
       <c r="L238">
         <v>-0.008191142081694469</v>
@@ -18484,13 +18484,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U238">
-        <v>0.9998944744166414</v>
+        <v>-0.0001055255833586344</v>
       </c>
       <c r="V238">
-        <v>0.9999735889918918</v>
+        <v>-2.641100810818475E-05</v>
       </c>
       <c r="W238">
-        <v>1.000396825396825</v>
+        <v>0.0003968253968253954</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18525,7 +18525,7 @@
         <v>0.8764898036274243</v>
       </c>
       <c r="K239">
-        <v>46.70900965905012</v>
+        <v>-0.03290990340949873</v>
       </c>
       <c r="L239">
         <v>-0.008956722598026714</v>
@@ -18555,13 +18555,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U239">
-        <v>0.9999076553698403</v>
+        <v>-9.234463015972416E-05</v>
       </c>
       <c r="V239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W239">
-        <v>1.000396667988893</v>
+        <v>0.0003966679888931512</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18596,7 +18596,7 @@
         <v>0.7968098632113476</v>
       </c>
       <c r="K240">
-        <v>44.34580862035394</v>
+        <v>-0.05654191379646056</v>
       </c>
       <c r="L240">
         <v>-0.009765240811715065</v>
@@ -18626,13 +18626,13 @@
         <v>-0.01875000000000071</v>
       </c>
       <c r="U240">
-        <v>0.9998680669164599</v>
+        <v>-0.0001319330835400923</v>
       </c>
       <c r="V240">
-        <v>0.9998943531773282</v>
+        <v>-0.0001056468226717788</v>
       </c>
       <c r="W240">
-        <v>0.9992069785884219</v>
+        <v>-0.0007930214115781098</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18667,7 +18667,7 @@
         <v>0.7604262655340283</v>
       </c>
       <c r="K241">
-        <v>43.19557600461907</v>
+        <v>-0.06804423995380932</v>
       </c>
       <c r="L241">
         <v>-0.01065699444709927</v>
@@ -18697,13 +18697,13 @@
         <v>-0.02187500000000142</v>
       </c>
       <c r="U241">
-        <v>0.9998944396062598</v>
+        <v>-0.0001055603937402116</v>
       </c>
       <c r="V241">
-        <v>0.9997886840297956</v>
+        <v>-0.0002113159702044065</v>
       </c>
       <c r="W241">
-        <v>0.9996031746031747</v>
+        <v>-0.0003968253968252844</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18738,7 +18738,7 @@
         <v>0.6937375248855007</v>
       </c>
       <c r="K242">
-        <v>40.95897473443522</v>
+        <v>-0.09041025265564778</v>
       </c>
       <c r="L242">
         <v>-0.01179206373166717</v>
@@ -18768,13 +18768,13 @@
         <v>-0.02062500000000256</v>
       </c>
       <c r="U242">
-        <v>0.9998548391353692</v>
+        <v>-0.0001451608646307889</v>
       </c>
       <c r="V242">
-        <v>0.9996829590488771</v>
+        <v>-0.0003170409511229488</v>
       </c>
       <c r="W242">
-        <v>0.999206034140532</v>
+        <v>-0.0007939658594680044</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18809,7 +18809,7 @@
         <v>0.8322098743069825</v>
       </c>
       <c r="K243">
-        <v>45.42109973191574</v>
+        <v>-0.04578900268084263</v>
       </c>
       <c r="L243">
         <v>-0.01252702626378666</v>
@@ -18839,13 +18839,13 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="U243">
-        <v>0.9999076114931301</v>
+        <v>-9.238850686987821E-05</v>
       </c>
       <c r="V243">
-        <v>0.9998414292510176</v>
+        <v>-0.0001585707489824006</v>
       </c>
       <c r="W243">
-        <v>1.00119189511323</v>
+        <v>0.001191895113229924</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18880,7 +18880,7 @@
         <v>0.726338506450654</v>
       </c>
       <c r="K244">
-        <v>42.07393299382538</v>
+        <v>-0.0792606700617462</v>
       </c>
       <c r="L244">
         <v>-0.01335982204818847</v>
@@ -18910,13 +18910,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U244">
-        <v>0.9998284054910243</v>
+        <v>-0.0001715945089757476</v>
       </c>
       <c r="V244">
-        <v>0.9997621061535208</v>
+        <v>-0.0002378938464792091</v>
       </c>
       <c r="W244">
-        <v>0.9988095238095239</v>
+        <v>-0.001190476190476075</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18951,7 +18951,7 @@
         <v>0.6405594095444873</v>
       </c>
       <c r="K245">
-        <v>39.04518213835018</v>
+        <v>-0.1095481786164982</v>
       </c>
       <c r="L245">
         <v>-0.01458308234486023</v>
@@ -18981,13 +18981,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U245">
-        <v>0.9997887705123637</v>
+        <v>-0.0002112294876362997</v>
       </c>
       <c r="V245">
-        <v>0.9996562937894931</v>
+        <v>-0.0003437062105069444</v>
       </c>
       <c r="W245">
-        <v>0.99880810488677</v>
+        <v>-0.001191895113230035</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -19022,7 +19022,7 @@
         <v>0.615072123944954</v>
       </c>
       <c r="K246">
-        <v>38.08326048267038</v>
+        <v>-0.1191673951732962</v>
       </c>
       <c r="L246">
         <v>-0.01605653442765907</v>
@@ -19052,13 +19052,13 @@
         <v>-0.02437499999999559</v>
       </c>
       <c r="U246">
-        <v>0.9997491119884854</v>
+        <v>-0.0002508880115146273</v>
       </c>
       <c r="V246">
-        <v>0.9996826236445385</v>
+        <v>-0.0003173763554614739</v>
       </c>
       <c r="W246">
-        <v>0.9996022275258551</v>
+        <v>-0.0003977724741448529</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19093,7 +19093,7 @@
         <v>0.615072123944954</v>
       </c>
       <c r="K247">
-        <v>38.08326048267038</v>
+        <v>-0.1191673951732962</v>
       </c>
       <c r="L247">
         <v>-0.01752970711026979</v>
@@ -19123,13 +19123,13 @@
         <v>-0.02812499999999574</v>
       </c>
       <c r="U247">
-        <v>0.9997622569737956</v>
+        <v>-0.0002377430262043845</v>
       </c>
       <c r="V247">
-        <v>0.9997618921636066</v>
+        <v>-0.0002381078363934419</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19164,7 +19164,7 @@
         <v>0.5891000850163199</v>
       </c>
       <c r="K248">
-        <v>37.07130158578212</v>
+        <v>-0.1292869841421788</v>
       </c>
       <c r="L248">
         <v>-0.01898976367080472</v>
@@ -19194,13 +19194,13 @@
         <v>-0.03187499999999943</v>
       </c>
       <c r="U248">
-        <v>0.999762200438608</v>
+        <v>-0.000237799561392027</v>
       </c>
       <c r="V248">
-        <v>0.999682447273016</v>
+        <v>-0.0003175527269839717</v>
       </c>
       <c r="W248">
-        <v>0.9996020692399523</v>
+        <v>-0.0003979307600476822</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19235,7 +19235,7 @@
         <v>0.5410063248405853</v>
       </c>
       <c r="K249">
-        <v>35.10733967276556</v>
+        <v>-0.1489266032723444</v>
       </c>
       <c r="L249">
         <v>-0.02056883359617972</v>
@@ -19265,13 +19265,13 @@
         <v>-0.03437499999999716</v>
       </c>
       <c r="U249">
-        <v>0.9997225011892805</v>
+        <v>-0.0002774988107194787</v>
       </c>
       <c r="V249">
-        <v>0.9997088175344787</v>
+        <v>-0.0002911824655212891</v>
       </c>
       <c r="W249">
-        <v>0.9992038216560509</v>
+        <v>-0.0007961783439490722</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19306,7 +19306,7 @@
         <v>0.5187180031011505</v>
       </c>
       <c r="K250">
-        <v>34.15499138365074</v>
+        <v>-0.1584500861634926</v>
       </c>
       <c r="L250">
         <v>-0.02218949467587566</v>
@@ -19336,13 +19336,13 @@
         <v>-0.03687499999999844</v>
       </c>
       <c r="U250">
-        <v>0.999656334677153</v>
+        <v>-0.0003436653228470199</v>
       </c>
       <c r="V250">
-        <v>0.9996028173489382</v>
+        <v>-0.0003971826510618115</v>
       </c>
       <c r="W250">
-        <v>0.9996015936254979</v>
+        <v>-0.0003984063745020583</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19377,7 +19377,7 @@
         <v>0.5620842083143363</v>
       </c>
       <c r="K251">
-        <v>35.98296463933197</v>
+        <v>-0.1401703536066803</v>
       </c>
       <c r="L251">
         <v>-0.0235076146133644</v>
@@ -19407,13 +19407,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U251">
-        <v>0.9997355511774584</v>
+        <v>-0.0002644488225416186</v>
       </c>
       <c r="V251">
-        <v>0.9996291488967181</v>
+        <v>-0.0003708511032819439</v>
       </c>
       <c r="W251">
-        <v>1.000398565165405</v>
+        <v>0.0003985651654045963</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19448,7 +19448,7 @@
         <v>0.47529747971398</v>
       </c>
       <c r="K252">
-        <v>32.21706037253769</v>
+        <v>-0.1778293962746231</v>
       </c>
       <c r="L252">
         <v>-0.02505099978064972</v>
@@ -19478,13 +19478,13 @@
         <v>-0.04312499999999986</v>
       </c>
       <c r="U252">
-        <v>0.9996958034096469</v>
+        <v>-0.0003041965903530786</v>
       </c>
       <c r="V252">
-        <v>0.9996290113151548</v>
+        <v>-0.0003709886848451971</v>
       </c>
       <c r="W252">
-        <v>0.9984063745019919</v>
+        <v>-0.001593625498008122</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19519,7 +19519,7 @@
         <v>0.456739244836846</v>
       </c>
       <c r="K253">
-        <v>31.35353471499292</v>
+        <v>-0.1864646528500708</v>
       </c>
       <c r="L253">
         <v>-0.02668665646135874</v>
@@ -19549,13 +19549,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U253">
-        <v>0.9997750906252482</v>
+        <v>-0.000224909374751836</v>
       </c>
       <c r="V253">
-        <v>0.9995758555788244</v>
+        <v>-0.0004241444211755541</v>
       </c>
       <c r="W253">
-        <v>0.9996009577015165</v>
+        <v>-0.0003990422984835318</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19590,7 +19590,7 @@
         <v>0.4978397869498597</v>
       </c>
       <c r="K254">
-        <v>33.23718539775476</v>
+        <v>-0.1676281460224524</v>
       </c>
       <c r="L254">
         <v>-0.02803327916572053</v>
@@ -19620,13 +19620,13 @@
         <v>-0.04437500000000583</v>
       </c>
       <c r="U254">
-        <v>0.9997882729690745</v>
+        <v>-0.0002117270309255348</v>
       </c>
       <c r="V254">
-        <v>0.9995756756039994</v>
+        <v>-0.0004243243960005971</v>
       </c>
       <c r="W254">
-        <v>1.000399201596806</v>
+        <v>0.0003992015968063978</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19661,7 +19661,7 @@
         <v>0.5411035154898896</v>
       </c>
       <c r="K255">
-        <v>35.11143216864848</v>
+        <v>-0.1488856783135152</v>
       </c>
       <c r="L255">
         <v>-0.02887307076189708</v>
@@ -19691,13 +19691,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U255">
-        <v>0.9997749923894487</v>
+        <v>-0.000225007610551331</v>
       </c>
       <c r="V255">
-        <v>0.9996550900745537</v>
+        <v>-0.000344909925446335</v>
       </c>
       <c r="W255">
-        <v>1.000399042298484</v>
+        <v>0.0003990422984836428</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19732,7 +19732,7 @@
         <v>0.5175345932252858</v>
       </c>
       <c r="K256">
-        <v>34.10364386655237</v>
+        <v>-0.1589635613344763</v>
       </c>
       <c r="L256">
         <v>-0.02939213821078673</v>
@@ -19762,13 +19762,13 @@
         <v>-0.04125000000000512</v>
       </c>
       <c r="U256">
-        <v>0.999721986867189</v>
+        <v>-0.0002780131328109503</v>
       </c>
       <c r="V256">
-        <v>0.9996549710706513</v>
+        <v>-0.0003450289293487341</v>
       </c>
       <c r="W256">
-        <v>0.9996011168727562</v>
+        <v>-0.0003988831272437876</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19803,7 +19803,7 @@
         <v>0.5175345932252858</v>
       </c>
       <c r="K257">
-        <v>34.10364386655237</v>
+        <v>-0.1589635613344763</v>
       </c>
       <c r="L257">
         <v>-0.02957725008742904</v>
@@ -19833,13 +19833,13 @@
         <v>-0.03812500000000441</v>
       </c>
       <c r="U257">
-        <v>0.9996954247500497</v>
+        <v>-0.0003045752499503118</v>
       </c>
       <c r="V257">
-        <v>0.9997079516792777</v>
+        <v>-0.0002920483207222713</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19874,7 +19874,7 @@
         <v>0.5175345932252858</v>
       </c>
       <c r="K258">
-        <v>34.10364386655237</v>
+        <v>-0.1589635613344763</v>
       </c>
       <c r="L258">
         <v>-0.02944088920025009</v>
@@ -19904,13 +19904,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U258">
-        <v>0.9997350712658293</v>
+        <v>-0.0002649287341707218</v>
       </c>
       <c r="V258">
-        <v>0.999628193551814</v>
+        <v>-0.0003718064481860184</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19945,7 +19945,7 @@
         <v>0.619140404609152</v>
       </c>
       <c r="K259">
-        <v>38.23883357160788</v>
+        <v>-0.1176116642839212</v>
       </c>
       <c r="L259">
         <v>-0.02872211687864147</v>
@@ -19975,13 +19975,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U259">
-        <v>0.9997615009539963</v>
+        <v>-0.000238499046003704</v>
       </c>
       <c r="V259">
-        <v>0.999760892667375</v>
+        <v>-0.0002391073326249993</v>
       </c>
       <c r="W259">
-        <v>1.000798084596967</v>
+        <v>0.0007980845969672856</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -20016,7 +20016,7 @@
         <v>0.5877115074641421</v>
       </c>
       <c r="K260">
-        <v>37.01626553068334</v>
+        <v>-0.1298373446931666</v>
       </c>
       <c r="L260">
         <v>-0.02773633903292065</v>
@@ -20046,13 +20046,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U260">
-        <v>0.999734937842924</v>
+        <v>-0.0002650621570760014</v>
       </c>
       <c r="V260">
-        <v>0.9998139831521884</v>
+        <v>-0.0001860168478116098</v>
       </c>
       <c r="W260">
-        <v>0.9996012759170655</v>
+        <v>-0.0003987240829345096</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20087,7 +20087,7 @@
         <v>0.6411453479630683</v>
       </c>
       <c r="K261">
-        <v>39.06694484792803</v>
+        <v>-0.1093305515207197</v>
       </c>
       <c r="L261">
         <v>-0.0264058631306115</v>
@@ -20117,13 +20117,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U261">
-        <v>0.9997746374313972</v>
+        <v>-0.0002253625686028382</v>
       </c>
       <c r="V261">
-        <v>0.9998671061024877</v>
+        <v>-0.000132893897512254</v>
       </c>
       <c r="W261">
-        <v>1.000398883127244</v>
+        <v>0.0003988831272436766</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20158,7 +20158,7 @@
         <v>0.6411453479630683</v>
       </c>
       <c r="K262">
-        <v>39.06694484792803</v>
+        <v>-0.1093305515207197</v>
       </c>
       <c r="L262">
         <v>-0.02485505273209652</v>
@@ -20188,13 +20188,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U262">
-        <v>0.9998143654613681</v>
+        <v>-0.0001856345386318514</v>
       </c>
       <c r="V262">
-        <v>0.9998670884393525</v>
+        <v>-0.0001329115606475417</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20229,7 +20229,7 @@
         <v>0.6053072420102478</v>
       </c>
       <c r="K263">
-        <v>37.70662874804271</v>
+        <v>-0.1229337125195729</v>
       </c>
       <c r="L263">
         <v>-0.02332380822343751</v>
@@ -20259,13 +20259,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U263">
-        <v>0.9997745447793854</v>
+        <v>-0.0002254552206145677</v>
       </c>
       <c r="V263">
-        <v>0.9998670707715214</v>
+        <v>-0.0001329292284786288</v>
       </c>
       <c r="W263">
-        <v>0.9996012759170655</v>
+        <v>-0.0003987240829345096</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20300,7 +20300,7 @@
         <v>0.6641461966645263</v>
       </c>
       <c r="K264">
-        <v>39.90912565228252</v>
+        <v>-0.1009087434771748</v>
       </c>
       <c r="L264">
         <v>-0.02167219790240842</v>
@@ -20330,13 +20330,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U264">
-        <v>0.9998275541877801</v>
+        <v>-0.000172445812219868</v>
       </c>
       <c r="V264">
-        <v>0.9999468212395967</v>
+        <v>-5.317876040333847E-05</v>
       </c>
       <c r="W264">
-        <v>1.000398883127244</v>
+        <v>0.0003988831272436766</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20371,7 +20371,7 @@
         <v>0.5909449669515899</v>
       </c>
       <c r="K265">
-        <v>37.14427458065376</v>
+        <v>-0.1285572541934624</v>
       </c>
       <c r="L265">
         <v>-0.02026372877747174</v>
@@ -20401,13 +20401,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U265">
-        <v>0.9997611876932058</v>
+        <v>-0.0002388123067942338</v>
       </c>
       <c r="V265">
-        <v>0.9999202276171991</v>
+        <v>-7.977238280088006E-05</v>
       </c>
       <c r="W265">
-        <v>0.9992025518341308</v>
+        <v>-0.0007974481658692412</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20442,7 +20442,7 @@
         <v>0.6489547292604093</v>
       </c>
       <c r="K266">
-        <v>39.35552127325406</v>
+        <v>-0.1064447872674594</v>
       </c>
       <c r="L266">
         <v>-0.01887370382622384</v>
@@ -20472,13 +20472,13 @@
         <v>0.004374999999999574</v>
       </c>
       <c r="U266">
-        <v>0.9997744011678057</v>
+        <v>-0.000225598832194307</v>
       </c>
       <c r="V266">
-        <v>0.9999202212530581</v>
+        <v>-7.977874694187204E-05</v>
       </c>
       <c r="W266">
-        <v>1.000399042298484</v>
+        <v>0.0003990422984836428</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20513,7 +20513,7 @@
         <v>0.548479474661354</v>
       </c>
       <c r="K267">
-        <v>35.42051952489098</v>
+        <v>-0.1457948047510902</v>
       </c>
       <c r="L267">
         <v>-0.01794961580373063</v>
@@ -20543,13 +20543,13 @@
         <v>0.003125000000000711</v>
       </c>
       <c r="U267">
-        <v>0.9997876237755182</v>
+        <v>-0.0002123762244817806</v>
       </c>
       <c r="V267">
-        <v>0.9999468099252679</v>
+        <v>-5.319007473214565E-05</v>
       </c>
       <c r="W267">
-        <v>0.9988033506182687</v>
+        <v>-0.001196649381731252</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20584,7 +20584,7 @@
         <v>0.548479474661354</v>
       </c>
       <c r="K268">
-        <v>35.42051952489098</v>
+        <v>-0.1457948047510902</v>
       </c>
       <c r="L268">
         <v>-0.01730158886945204</v>
@@ -20614,13 +20614,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U268">
-        <v>0.9997743023286692</v>
+        <v>-0.0002256976713308489</v>
       </c>
       <c r="V268">
-        <v>0.9999734035479667</v>
+        <v>-2.659645203328953E-05</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20655,7 +20655,7 @@
         <v>0.5484794746613539</v>
       </c>
       <c r="K269">
-        <v>35.42051952489096</v>
+        <v>-0.1457948047510904</v>
       </c>
       <c r="L269">
         <v>-0.01679929709163208</v>
@@ -20685,13 +20685,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U269">
-        <v>0.9997609720470086</v>
+        <v>-0.0002390279529913553</v>
       </c>
       <c r="V269">
-        <v>0.9999468056811534</v>
+        <v>-5.319431884664994E-05</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20726,7 +20726,7 @@
         <v>0.489544292490398</v>
       </c>
       <c r="K270">
-        <v>32.86537331977685</v>
+        <v>-0.1713462668022315</v>
       </c>
       <c r="L270">
         <v>-0.01664637999990692</v>
@@ -20756,13 +20756,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U270">
-        <v>0.9997609148989866</v>
+        <v>-0.0002390851010134476</v>
       </c>
       <c r="V270">
-        <v>0.9998670071284179</v>
+        <v>-0.0001329928715820827</v>
       </c>
       <c r="W270">
-        <v>0.9992012779552716</v>
+        <v>-0.0007987220447284171</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20797,7 +20797,7 @@
         <v>0.4633406849785563</v>
       </c>
       <c r="K271">
-        <v>31.66321347686345</v>
+        <v>-0.1833678652313655</v>
       </c>
       <c r="L271">
         <v>-0.01679961031462612</v>
@@ -20827,13 +20827,13 @@
         <v>-0.01249999999999574</v>
       </c>
       <c r="U271">
-        <v>0.9997608577236312</v>
+        <v>-0.0002391422763687867</v>
       </c>
       <c r="V271">
-        <v>0.9998669894389612</v>
+        <v>-0.00013301056103876</v>
       </c>
       <c r="W271">
-        <v>0.9996003197442047</v>
+        <v>-0.0003996802557952872</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20868,7 +20868,7 @@
         <v>0.4633406849785563</v>
       </c>
       <c r="K272">
-        <v>31.66321347686346</v>
+        <v>-0.1833678652313654</v>
       </c>
       <c r="L272">
         <v>-0.01706769461599459</v>
@@ -20898,13 +20898,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U272">
-        <v>0.9997873782408206</v>
+        <v>-0.0002126217591793544</v>
       </c>
       <c r="V272">
-        <v>0.9998669717447985</v>
+        <v>-0.0001330282552014506</v>
       </c>
       <c r="W272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20939,7 +20939,7 @@
         <v>0.4373989160809357</v>
       </c>
       <c r="K273">
-        <v>30.42989049090859</v>
+        <v>-0.1957010950909141</v>
       </c>
       <c r="L273">
         <v>-0.01747151811416782</v>
@@ -20969,13 +20969,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U273">
-        <v>0.9997341662789926</v>
+        <v>-0.0002658337210074135</v>
       </c>
       <c r="V273">
-        <v>0.9998403448551131</v>
+        <v>-0.0001596551448869166</v>
       </c>
       <c r="W273">
-        <v>0.9996001599360256</v>
+        <v>-0.0003998400639744215</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -21010,7 +21010,7 @@
         <v>0.6142048347538274</v>
       </c>
       <c r="K274">
-        <v>38.04999350330257</v>
+        <v>-0.1195000649669742</v>
       </c>
       <c r="L274">
         <v>-0.01743309302407944</v>
@@ -21040,13 +21040,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U274">
-        <v>0.9998138669148442</v>
+        <v>-0.0001861330851558041</v>
       </c>
       <c r="V274">
-        <v>0.9998669328010646</v>
+        <v>-0.0001330671989353549</v>
       </c>
       <c r="W274">
-        <v>1.0012</v>
+        <v>0.00120000000000009</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21081,7 +21081,7 @@
         <v>0.6762419992004414</v>
       </c>
       <c r="K275">
-        <v>40.34274284518615</v>
+        <v>-0.09657257154813847</v>
       </c>
       <c r="L275">
         <v>-0.01692052808195002</v>
@@ -21111,13 +21111,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U275">
-        <v>0.9998670230449063</v>
+        <v>-0.0001329769550937332</v>
       </c>
       <c r="V275">
-        <v>0.9999201490550972</v>
+        <v>-7.985094490281508E-05</v>
       </c>
       <c r="W275">
-        <v>1.00039952057531</v>
+        <v>0.0003995205753095643</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21152,7 +21152,7 @@
         <v>0.5981242470457265</v>
       </c>
       <c r="K276">
-        <v>37.42664239976408</v>
+        <v>-0.1257335760023592</v>
       </c>
       <c r="L276">
         <v>-0.01638204968723938</v>
@@ -21182,13 +21182,13 @@
         <v>-0.02187499999999787</v>
       </c>
       <c r="U276">
-        <v>0.9998537058956524</v>
+        <v>-0.0001462941043476329</v>
       </c>
       <c r="V276">
-        <v>0.9998402853568291</v>
+        <v>-0.0001597146431708829</v>
       </c>
       <c r="W276">
-        <v>0.9992012779552716</v>
+        <v>-0.0007987220447284171</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21223,7 +21223,7 @@
         <v>0.5981242470457264</v>
       </c>
       <c r="K277">
-        <v>37.42664239976408</v>
+        <v>-0.1257335760023592</v>
       </c>
       <c r="L277">
         <v>-0.01580260071326322</v>
@@ -21253,13 +21253,13 @@
         <v>-0.02062500000000256</v>
       </c>
       <c r="U277">
-        <v>0.999853684490556</v>
+        <v>-0.000146315509443995</v>
       </c>
       <c r="V277">
-        <v>0.9998402598439872</v>
+        <v>-0.0001597401560128331</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21294,7 +21294,7 @@
         <v>0.5621475947705782</v>
       </c>
       <c r="K278">
-        <v>35.98556222551665</v>
+        <v>-0.1401443777448336</v>
       </c>
       <c r="L278">
         <v>-0.01532300432323169</v>
@@ -21324,13 +21324,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U278">
-        <v>0.9998536630791949</v>
+        <v>-0.0001463369208051235</v>
       </c>
       <c r="V278">
-        <v>0.9998402343229927</v>
+        <v>-0.000159765677007262</v>
       </c>
       <c r="W278">
-        <v>0.9996003197442047</v>
+        <v>-0.0003996802557952872</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21365,7 +21365,7 @@
         <v>0.6254624670177398</v>
       </c>
       <c r="K279">
-        <v>38.47904702255507</v>
+        <v>-0.1152095297744493</v>
       </c>
       <c r="L279">
         <v>-0.0147335105356052</v>
@@ -21395,13 +21395,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U279">
-        <v>0.9998935575720483</v>
+        <v>-0.0001064424279516585</v>
       </c>
       <c r="V279">
-        <v>0.9998402087938428</v>
+        <v>-0.0001597912061571671</v>
       </c>
       <c r="W279">
-        <v>1.000399840063974</v>
+        <v>0.0003998400639744215</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21436,7 +21436,7 @@
         <v>0.5863817456356465</v>
       </c>
       <c r="K280">
-        <v>36.96347031531742</v>
+        <v>-0.1303652968468259</v>
       </c>
       <c r="L280">
         <v>-0.01420664884138398</v>
@@ -21466,13 +21466,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U280">
-        <v>0.9998935462408515</v>
+        <v>-0.0001064537591485282</v>
       </c>
       <c r="V280">
-        <v>0.9998668193804437</v>
+        <v>-0.0001331806195562502</v>
       </c>
       <c r="W280">
-        <v>0.9996003197442047</v>
+        <v>-0.0003996802557952872</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21507,7 +21507,7 @@
         <v>0.5863817456356465</v>
       </c>
       <c r="K281">
-        <v>36.96347031531742</v>
+        <v>-0.1303652968468259</v>
       </c>
       <c r="L281">
         <v>-0.01369964729285185</v>
@@ -21537,13 +21537,13 @@
         <v>-0.004374999999999574</v>
       </c>
       <c r="U281">
-        <v>0.9998802267706477</v>
+        <v>-0.0001197732293523046</v>
       </c>
       <c r="V281">
-        <v>0.9998401619692047</v>
+        <v>-0.000159838030795334</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21578,7 +21578,7 @@
         <v>0.655614898153945</v>
       </c>
       <c r="K282">
-        <v>39.59948046402416</v>
+        <v>-0.1040051953597584</v>
       </c>
       <c r="L282">
         <v>-0.01304182681738258</v>
@@ -21608,13 +21608,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U282">
-        <v>0.9999467610770235</v>
+        <v>-5.323892297648403E-05</v>
       </c>
       <c r="V282">
-        <v>0.9999467121389746</v>
+        <v>-5.328786102543059E-05</v>
       </c>
       <c r="W282">
-        <v>1.000399840063974</v>
+        <v>0.0003998400639744215</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21649,7 +21649,7 @@
         <v>0.5076351774602084</v>
       </c>
       <c r="K283">
-        <v>33.67095601439736</v>
+        <v>-0.1632904398560264</v>
       </c>
       <c r="L283">
         <v>-0.01286842667094511</v>
@@ -21679,13 +21679,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U283">
-        <v>0.9999068269243566</v>
+        <v>-9.31730756433824E-05</v>
       </c>
       <c r="V283">
-        <v>0.9998401278976821</v>
+        <v>-0.0001598721023179372</v>
       </c>
       <c r="W283">
-        <v>0.9984012789768186</v>
+        <v>-0.001598721023181371</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21720,7 +21720,7 @@
         <v>0.6264306223811859</v>
       </c>
       <c r="K284">
-        <v>38.51566822223601</v>
+        <v>-0.1148433177776399</v>
       </c>
       <c r="L284">
         <v>-0.01266219364525299</v>
@@ -21750,13 +21750,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U284">
-        <v>0.9999201299219936</v>
+        <v>-7.987007800636103E-05</v>
       </c>
       <c r="V284">
-        <v>0.9998934015563371</v>
+        <v>-0.0001065984436628975</v>
       </c>
       <c r="W284">
-        <v>1.00080064051241</v>
+        <v>0.0008006405124099114</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21791,7 +21791,7 @@
         <v>0.5895684902195873</v>
       </c>
       <c r="K285">
-        <v>37.08984506469066</v>
+        <v>-0.1291015493530934</v>
       </c>
       <c r="L285">
         <v>-0.01254854922008722</v>
@@ -21821,13 +21821,13 @@
         <v>-0.0068749999999973</v>
       </c>
       <c r="U285">
-        <v>0.9998934980563394</v>
+        <v>-0.0001065019436605752</v>
       </c>
       <c r="V285">
-        <v>0.9999200426439233</v>
+        <v>-7.995735607668752E-05</v>
       </c>
       <c r="W285">
-        <v>0.9995999999999999</v>
+        <v>-0.000400000000000067</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21862,7 +21862,7 @@
         <v>0.5245814454698053</v>
       </c>
       <c r="K286">
-        <v>34.40822705986388</v>
+        <v>-0.1559177294013612</v>
       </c>
       <c r="L286">
         <v>-0.01274345990507673</v>
@@ -21892,13 +21892,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U286">
-        <v>0.9998801725515259</v>
+        <v>-0.0001198274484740525</v>
       </c>
       <c r="V286">
-        <v>0.9998933816669776</v>
+        <v>-0.0001066183330223902</v>
       </c>
       <c r="W286">
-        <v>0.9991996798719488</v>
+        <v>-0.0008003201280512018</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21933,7 +21933,7 @@
         <v>0.4468156599341246</v>
       </c>
       <c r="K287">
-        <v>30.88269447916183</v>
+        <v>-0.1911730552083817</v>
       </c>
       <c r="L287">
         <v>-0.01350295768539938</v>
@@ -21963,13 +21963,13 @@
         <v>-0.01437499999999758</v>
       </c>
       <c r="U287">
-        <v>0.9998402109215835</v>
+        <v>-0.0001597890784165168</v>
       </c>
       <c r="V287">
-        <v>0.9998133980220191</v>
+        <v>-0.0001866019779809269</v>
       </c>
       <c r="W287">
-        <v>0.998798558269924</v>
+        <v>-0.001201441730075969</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -22004,7 +22004,7 @@
         <v>0.38650343012887</v>
       </c>
       <c r="K288">
-        <v>27.87612505891499</v>
+        <v>-0.2212387494108501</v>
       </c>
       <c r="L288">
         <v>-0.01494364611463353</v>
@@ -22034,13 +22034,13 @@
         <v>-0.02062500000000256</v>
       </c>
       <c r="U288">
-        <v>0.9998002317311918</v>
+        <v>-0.000199768268808187</v>
       </c>
       <c r="V288">
-        <v>0.999760038393857</v>
+        <v>-0.0002399616061430354</v>
       </c>
       <c r="W288">
-        <v>0.9987971130713712</v>
+        <v>-0.001202886928628799</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22075,7 +22075,7 @@
         <v>0.5759523487249582</v>
       </c>
       <c r="K289">
-        <v>36.5463047909373</v>
+        <v>-0.134536952090627</v>
       </c>
       <c r="L289">
         <v>-0.01606954615089842</v>
@@ -22105,13 +22105,13 @@
         <v>-0.02500000000000213</v>
       </c>
       <c r="U289">
-        <v>0.999826832907076</v>
+        <v>-0.0001731670929240314</v>
       </c>
       <c r="V289">
-        <v>0.9997866495986344</v>
+        <v>-0.0002133504013656085</v>
       </c>
       <c r="W289">
-        <v>1.001605780810919</v>
+        <v>0.001605780810919333</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22146,7 +22146,7 @@
         <v>0.5759523487249582</v>
       </c>
       <c r="K290">
-        <v>36.5463047909373</v>
+        <v>-0.134536952090627</v>
       </c>
       <c r="L290">
         <v>-0.01687472056353938</v>
@@ -22176,13 +22176,13 @@
         <v>-0.02874999999999872</v>
       </c>
       <c r="U290">
-        <v>0.9998401257677293</v>
+        <v>-0.000159874232270707</v>
       </c>
       <c r="V290">
-        <v>0.9997599295793432</v>
+        <v>-0.0002400704206567683</v>
       </c>
       <c r="W290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22217,7 +22217,7 @@
         <v>0.5759523487249582</v>
       </c>
       <c r="K291">
-        <v>36.5463047909373</v>
+        <v>-0.134536952090627</v>
       </c>
       <c r="L291">
         <v>-0.01737302877603059</v>
@@ -22247,13 +22247,13 @@
         <v>-0.02687500000000043</v>
       </c>
       <c r="U291">
-        <v>0.9998267752208615</v>
+        <v>-0.0001732247791385033</v>
       </c>
       <c r="V291">
-        <v>0.9998132337246534</v>
+        <v>-0.0001867662753466393</v>
       </c>
       <c r="W291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22288,7 +22288,7 @@
         <v>0.631193322218506</v>
       </c>
       <c r="K292">
-        <v>38.69518797195975</v>
+        <v>-0.1130481202804025</v>
       </c>
       <c r="L292">
         <v>-0.01744502573006395</v>
@@ -22318,13 +22318,13 @@
         <v>-0.02812499999999929</v>
       </c>
       <c r="U292">
-        <v>0.9998400725004664</v>
+        <v>-0.0001599274995336408</v>
       </c>
       <c r="V292">
-        <v>0.9998398847169961</v>
+        <v>-0.0001601152830038588</v>
       </c>
       <c r="W292">
-        <v>1.000400801603206</v>
+        <v>0.0004008016032064354</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22359,7 +22359,7 @@
         <v>0.747490108520691</v>
       </c>
       <c r="K293">
-        <v>42.77506950545582</v>
+        <v>-0.07224930494544174</v>
       </c>
       <c r="L293">
         <v>-0.01689953617629173</v>
@@ -22389,13 +22389,13 @@
         <v>-0.02687500000000398</v>
       </c>
       <c r="U293">
-        <v>0.9998800351896777</v>
+        <v>-0.0001199648103222817</v>
       </c>
       <c r="V293">
-        <v>0.9999199295379935</v>
+        <v>-8.007046200653178E-05</v>
       </c>
       <c r="W293">
-        <v>1.000801282051282</v>
+        <v>0.0008012820512819374</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22430,7 +22430,7 @@
         <v>0.7043760699504713</v>
       </c>
       <c r="K294">
-        <v>41.32750291260193</v>
+        <v>-0.08672497087398073</v>
       </c>
       <c r="L294">
         <v>-0.01609859001452803</v>
@@ -22460,13 +22460,13 @@
         <v>-0.0243750000000027</v>
       </c>
       <c r="U294">
-        <v>0.9998533587511499</v>
+        <v>-0.0001466412488501101</v>
       </c>
       <c r="V294">
-        <v>0.9998665385436685</v>
+        <v>-0.0001334614563315295</v>
       </c>
       <c r="W294">
-        <v>0.9995996797437949</v>
+        <v>-0.0004003202562050667</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22501,7 +22501,7 @@
         <v>0.7650901823884044</v>
       </c>
       <c r="K295">
-        <v>43.34567094770956</v>
+        <v>-0.06654329052290436</v>
       </c>
       <c r="L295">
         <v>-0.01498962300341543</v>
@@ -22531,13 +22531,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U295">
-        <v>0.9998933361777019</v>
+        <v>-0.0001066638222980698</v>
       </c>
       <c r="V295">
-        <v>0.9999199124375985</v>
+        <v>-8.008756240152071E-05</v>
       </c>
       <c r="W295">
-        <v>1.000400480576692</v>
+        <v>0.0004004805766921748</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22572,7 +22572,7 @@
         <v>0.7650901823884044</v>
       </c>
       <c r="K296">
-        <v>43.34567094770956</v>
+        <v>-0.06654329052290436</v>
       </c>
       <c r="L296">
         <v>-0.0137100005097185</v>
@@ -22602,13 +22602,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U296">
-        <v>0.9998799903992319</v>
+        <v>-0.0001200096007680784</v>
       </c>
       <c r="V296">
-        <v>0.999919906023067</v>
+        <v>-8.009397693298226E-05</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22643,7 +22643,7 @@
         <v>0.8996366919461273</v>
       </c>
       <c r="K297">
-        <v>47.35835519288024</v>
+        <v>-0.02641644807119758</v>
       </c>
       <c r="L297">
         <v>-0.01206720805980908</v>
@@ -22673,13 +22673,13 @@
         <v>0.0006250000000029843</v>
       </c>
       <c r="U297">
-        <v>0.9999466559978664</v>
+        <v>-5.334400213363732E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999465997383388</v>
+        <v>-5.340026166122946E-05</v>
       </c>
       <c r="W297">
-        <v>1.00080064051241</v>
+        <v>0.0008006405124099114</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22714,7 +22714,7 @@
         <v>0.7880296970365507</v>
       </c>
       <c r="K298">
-        <v>44.07251727097248</v>
+        <v>-0.05927482729027522</v>
       </c>
       <c r="L298">
         <v>-0.01055628563399819</v>
@@ -22744,13 +22744,13 @@
         <v>0.0068749999999973</v>
       </c>
       <c r="U298">
-        <v>0.9999199797281977</v>
+        <v>-8.002027180231686E-05</v>
       </c>
       <c r="V298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W298">
-        <v>0.9992</v>
+        <v>-0.0008000000000000229</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22785,7 +22785,7 @@
         <v>0.7397300543775852</v>
       </c>
       <c r="K299">
-        <v>42.51981808995275</v>
+        <v>-0.07480181910047251</v>
       </c>
       <c r="L299">
         <v>-0.009328762001022485</v>
@@ -22815,13 +22815,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U299">
-        <v>0.9999066355451817</v>
+        <v>-9.336445481833433E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999198953298978</v>
+        <v>-8.010467010222122E-05</v>
       </c>
       <c r="W299">
-        <v>0.9995996797437949</v>
+        <v>-0.0004003202562050667</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22856,7 +22856,7 @@
         <v>0.8042475837370688</v>
       </c>
       <c r="K300">
-        <v>44.57523407465298</v>
+        <v>-0.05424765925347025</v>
       </c>
       <c r="L300">
         <v>-0.008171520372315132</v>
@@ -22886,13 +22886,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U300">
-        <v>0.999946643901398</v>
+        <v>-5.335609860201984E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999732963042085</v>
+        <v>-2.670369579149678E-05</v>
       </c>
       <c r="W300">
-        <v>1.000400480576692</v>
+        <v>0.0004004805766921748</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22927,7 +22927,7 @@
         <v>0.7080726417335279</v>
       </c>
       <c r="K301">
-        <v>41.45448059017578</v>
+        <v>-0.0854551940982422</v>
       </c>
       <c r="L301">
         <v>-0.007392246748740278</v>
@@ -22957,13 +22957,13 @@
         <v>0.01312499999999872</v>
       </c>
       <c r="U301">
-        <v>0.999933301317966</v>
+        <v>-6.669868203401652E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999732955911022</v>
+        <v>-2.670440889784853E-05</v>
       </c>
       <c r="W301">
-        <v>0.9991993594875901</v>
+        <v>-0.0008006405124099114</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22998,7 +22998,7 @@
         <v>0.8339502733279497</v>
       </c>
       <c r="K302">
-        <v>45.47289451936091</v>
+        <v>-0.04527105480639088</v>
       </c>
       <c r="L302">
         <v>-0.006573318387402937</v>
@@ -23028,13 +23028,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U302">
-        <v>0.9999599781213732</v>
+        <v>-4.002187862683915E-05</v>
       </c>
       <c r="V302">
-        <v>1.00010682048817</v>
+        <v>0.0001068204881695678</v>
       </c>
       <c r="W302">
-        <v>1.000801282051282</v>
+        <v>0.0008012820512819374</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -23069,7 +23069,7 @@
         <v>0.8339502733279497</v>
       </c>
       <c r="K303">
-        <v>45.47289451936091</v>
+        <v>-0.04527105480639088</v>
       </c>
       <c r="L303">
         <v>-0.005758590597246187</v>
@@ -23099,13 +23099,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U303">
-        <v>0.9999733176797054</v>
+        <v>-2.668232029456874E-05</v>
       </c>
       <c r="V303">
-        <v>1.00018691588785</v>
+        <v>0.0001869158878504695</v>
       </c>
       <c r="W303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23140,7 +23140,7 @@
         <v>1.252380073641818</v>
       </c>
       <c r="K304">
-        <v>55.60251967674689</v>
+        <v>0.05602519676746887</v>
       </c>
       <c r="L304">
         <v>-0.004102911507809244</v>
@@ -23170,13 +23170,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U304">
-        <v>1.00001334151613</v>
+        <v>1.334151612986112E-05</v>
       </c>
       <c r="V304">
-        <v>1.000240275515925</v>
+        <v>0.0002402755159249814</v>
       </c>
       <c r="W304">
-        <v>1.00240192153723</v>
+        <v>0.002401921537229734</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23211,7 +23211,7 @@
         <v>1.026350739451909</v>
       </c>
       <c r="K305">
-        <v>50.65020183670266</v>
+        <v>0.006502018367026574</v>
       </c>
       <c r="L305">
         <v>-0.002465421473932076</v>
@@ -23241,13 +23241,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U305">
-        <v>0.9999599759855912</v>
+        <v>-4.002401440883485E-05</v>
       </c>
       <c r="V305">
-        <v>1.000160145198313</v>
+        <v>0.0001601451983130886</v>
       </c>
       <c r="W305">
-        <v>0.9988019169329074</v>
+        <v>-0.00119808306709257</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23282,7 +23282,7 @@
         <v>0.9109736432950803</v>
       </c>
       <c r="K306">
-        <v>47.67065451118907</v>
+        <v>-0.0232934548881093</v>
       </c>
       <c r="L306">
         <v>-0.00122582037951454</v>
@@ -23312,13 +23312,13 @@
         <v>0.006875000000000853</v>
       </c>
       <c r="U306">
-        <v>0.9999599743836056</v>
+        <v>-4.002561639437907E-05</v>
       </c>
       <c r="V306">
-        <v>1.000106746370623</v>
+        <v>0.0001067463706232452</v>
       </c>
       <c r="W306">
-        <v>0.999200319872051</v>
+        <v>-0.000799680127948954</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23353,7 +23353,7 @@
         <v>0.7736525050417684</v>
       </c>
       <c r="K307">
-        <v>43.61917020626029</v>
+        <v>-0.06380829793739706</v>
       </c>
       <c r="L307">
         <v>-0.0007390832378014231</v>
@@ -23383,13 +23383,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U307">
-        <v>0.9999199455629829</v>
+        <v>-8.005443701708526E-05</v>
       </c>
       <c r="V307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W307">
-        <v>0.9987995198079233</v>
+        <v>-0.001200480192076747</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23424,7 +23424,7 @@
         <v>0.7736525050417684</v>
       </c>
       <c r="K308">
-        <v>43.61917020626029</v>
+        <v>-0.06380829793739706</v>
       </c>
       <c r="L308">
         <v>-0.000736804284207463</v>
@@ -23454,13 +23454,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U308">
-        <v>0.9999332826281306</v>
+        <v>-6.671737186936255E-05</v>
       </c>
       <c r="V308">
-        <v>0.9999466325114741</v>
+        <v>-5.336748852591278E-05</v>
       </c>
       <c r="W308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23495,7 +23495,7 @@
         <v>0.6961371205471271</v>
       </c>
       <c r="K309">
-        <v>41.04250252612669</v>
+        <v>-0.0895749747387331</v>
       </c>
       <c r="L309">
         <v>-0.001316998563340526</v>
@@ -23525,13 +23525,13 @@
         <v>0.002500000000001279</v>
       </c>
       <c r="U309">
-        <v>0.9998932450826018</v>
+        <v>-0.0001067549173981996</v>
       </c>
       <c r="V309">
-        <v>0.9999199444948498</v>
+        <v>-8.005550515022275E-05</v>
       </c>
       <c r="W309">
-        <v>0.999198717948718</v>
+        <v>-0.0008012820512820484</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23566,7 +23566,7 @@
         <v>0.6297219633347252</v>
       </c>
       <c r="K310">
-        <v>38.63984026123038</v>
+        <v>-0.1136015973876963</v>
       </c>
       <c r="L310">
         <v>-0.002499833834303616</v>
@@ -23596,13 +23596,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U310">
-        <v>0.9998798878953689</v>
+        <v>-0.0001201121046311426</v>
       </c>
       <c r="V310">
-        <v>0.9998398761709054</v>
+        <v>-0.0001601238290945828</v>
       </c>
       <c r="W310">
-        <v>0.9991980753809142</v>
+        <v>-0.000801924619085792</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23637,7 +23637,7 @@
         <v>0.6799352688308965</v>
       </c>
       <c r="K311">
-        <v>40.47389690818732</v>
+        <v>-0.09526103091812677</v>
       </c>
       <c r="L311">
         <v>-0.003817601795796133</v>
@@ -23667,13 +23667,13 @@
         <v>-0.004999999999999005</v>
       </c>
       <c r="U311">
-        <v>0.9998932208593051</v>
+        <v>-0.0001067791406949015</v>
       </c>
       <c r="V311">
-        <v>0.9998665421059656</v>
+        <v>-0.0001334578940344056</v>
       </c>
       <c r="W311">
-        <v>1.000401284109149</v>
+        <v>0.0004012841091491914</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23708,7 +23708,7 @@
         <v>0.6799352688308964</v>
       </c>
       <c r="K312">
-        <v>40.47389690818731</v>
+        <v>-0.09526103091812688</v>
       </c>
       <c r="L312">
         <v>-0.00511933355201695</v>
@@ -23738,13 +23738,13 @@
         <v>-0.01562500000000355</v>
       </c>
       <c r="U312">
-        <v>0.9998798606383404</v>
+        <v>-0.0001201393616595547</v>
       </c>
       <c r="V312">
-        <v>0.9998131340096104</v>
+        <v>-0.0001868659903896397</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23779,7 +23779,7 @@
         <v>0.6799352688308965</v>
       </c>
       <c r="K313">
-        <v>40.47389690818732</v>
+        <v>-0.09526103091812677</v>
       </c>
       <c r="L313">
         <v>-0.006309864038085557</v>
@@ -23809,13 +23809,13 @@
         <v>-0.02124999999999844</v>
       </c>
       <c r="U313">
-        <v>0.9999332478906333</v>
+        <v>-6.675210936668563E-05</v>
       </c>
       <c r="V313">
-        <v>0.9998664993458468</v>
+        <v>-0.0001335006541531847</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23850,7 +23850,7 @@
         <v>0.7385015968626085</v>
       </c>
       <c r="K314">
-        <v>42.47920152592022</v>
+        <v>-0.07520798474079782</v>
       </c>
       <c r="L314">
         <v>-0.007188512311925746</v>
@@ -23880,13 +23880,13 @@
         <v>-0.02500000000000213</v>
       </c>
       <c r="U314">
-        <v>0.9999198921213902</v>
+        <v>-8.010787860979196E-05</v>
       </c>
       <c r="V314">
-        <v>0.9999198889126254</v>
+        <v>-8.011108737460138E-05</v>
       </c>
       <c r="W314">
-        <v>1.000401123144806</v>
+        <v>0.0004011231448055597</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23921,7 +23921,7 @@
         <v>0.6956176282314064</v>
       </c>
       <c r="K315">
-        <v>41.02443951098586</v>
+        <v>-0.08975560489014145</v>
       </c>
       <c r="L315">
         <v>-0.007941897633058661</v>
@@ -23951,13 +23951,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U315">
-        <v>0.9999198857036039</v>
+        <v>-8.011429639609435E-05</v>
       </c>
       <c r="V315">
-        <v>0.9998664708238751</v>
+        <v>-0.000133529176124858</v>
       </c>
       <c r="W315">
-        <v>0.999599037690457</v>
+        <v>-0.000400962309543007</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23992,7 +23992,7 @@
         <v>0.5589532315865694</v>
       </c>
       <c r="K316">
-        <v>35.85439384975741</v>
+        <v>-0.1414560615024258</v>
       </c>
       <c r="L316">
         <v>-0.009125758253389538</v>
@@ -24022,13 +24022,13 @@
         <v>-0.02937500000000171</v>
       </c>
       <c r="U316">
-        <v>0.999893172379719</v>
+        <v>-0.0001068276202810248</v>
       </c>
       <c r="V316">
-        <v>0.9998130341880341</v>
+        <v>-0.0001869658119658668</v>
       </c>
       <c r="W316">
-        <v>0.9983955074207782</v>
+        <v>-0.001604492579221795</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -24063,7 +24063,7 @@
         <v>0.6106545017196571</v>
       </c>
       <c r="K317">
-        <v>37.91343836109333</v>
+        <v>-0.1208656163890667</v>
       </c>
       <c r="L317">
         <v>-0.01031618685136249</v>
@@ -24093,13 +24093,13 @@
         <v>-0.03062500000000057</v>
       </c>
       <c r="U317">
-        <v>0.9999465804831793</v>
+        <v>-5.341951682069634E-05</v>
       </c>
       <c r="V317">
-        <v>0.9997862848288943</v>
+        <v>-0.0002137151711056884</v>
       </c>
       <c r="W317">
-        <v>1.000401767778224</v>
+        <v>0.0004017677782242046</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24134,7 +24134,7 @@
         <v>0.357632619135893</v>
       </c>
       <c r="K318">
-        <v>26.34237083692931</v>
+        <v>-0.2365762916307069</v>
       </c>
       <c r="L318">
         <v>-0.01329316684156501</v>
@@ -24164,13 +24164,13 @@
         <v>-0.03625000000000256</v>
       </c>
       <c r="U318">
-        <v>0.9998130217028381</v>
+        <v>-0.000186978297161855</v>
       </c>
       <c r="V318">
-        <v>0.9994388777555111</v>
+        <v>-0.0005611222444888986</v>
       </c>
       <c r="W318">
-        <v>0.9947791164658635</v>
+        <v>-0.005220883534136522</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24205,7 +24205,7 @@
         <v>0.2896158589366079</v>
       </c>
       <c r="K319">
-        <v>22.45752926576286</v>
+        <v>-0.2754247073423715</v>
       </c>
       <c r="L319">
         <v>-0.01813638676149991</v>
@@ -24235,13 +24235,13 @@
         <v>-0.04749999999999943</v>
       </c>
       <c r="U319">
-        <v>0.9996660477418147</v>
+        <v>-0.0003339522581853327</v>
       </c>
       <c r="V319">
-        <v>0.9990910063094857</v>
+        <v>-0.000908993690514337</v>
       </c>
       <c r="W319">
-        <v>0.9971740008074284</v>
+        <v>-0.002825999192571649</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24276,7 +24276,7 @@
         <v>0.5756100242676973</v>
       </c>
       <c r="K320">
-        <v>36.53251854215804</v>
+        <v>-0.1346748145784196</v>
       </c>
       <c r="L320">
         <v>-0.02227878613341769</v>
@@ -24306,13 +24306,13 @@
         <v>-0.04874999999999829</v>
       </c>
       <c r="U320">
-        <v>0.9997995617082689</v>
+        <v>-0.0002004382917311087</v>
       </c>
       <c r="V320">
-        <v>0.9994380519132995</v>
+        <v>-0.0005619480867005144</v>
       </c>
       <c r="W320">
-        <v>1.004048582995952</v>
+        <v>0.004048582995951566</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24347,7 +24347,7 @@
         <v>0.5003028203156159</v>
       </c>
       <c r="K321">
-        <v>33.34678929753449</v>
+        <v>-0.1665321070246552</v>
       </c>
       <c r="L321">
         <v>-0.02638223947460828</v>
@@ -24377,13 +24377,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U321">
-        <v>0.9997326953662742</v>
+        <v>-0.0002673046337258178</v>
       </c>
       <c r="V321">
-        <v>0.9993574125143913</v>
+        <v>-0.0006425874856087477</v>
       </c>
       <c r="W321">
-        <v>0.9979838709677419</v>
+        <v>-0.002016129032258118</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24418,7 +24418,7 @@
         <v>0.5278460310521044</v>
       </c>
       <c r="K322">
-        <v>34.54837858816306</v>
+        <v>-0.1545162141183694</v>
       </c>
       <c r="L322">
         <v>-0.02996032102101296</v>
@@ -24448,13 +24448,13 @@
         <v>-0.06312499999999943</v>
       </c>
       <c r="U322">
-        <v>0.9997326238954025</v>
+        <v>-0.0002673761045974832</v>
       </c>
       <c r="V322">
-        <v>0.9994641661085064</v>
+        <v>-0.0005358338914935867</v>
       </c>
       <c r="W322">
-        <v>1.00040404040404</v>
+        <v>0.0004040404040404066</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24489,7 +24489,7 @@
         <v>0.7307960048998732</v>
       </c>
       <c r="K323">
-        <v>42.22311600159661</v>
+        <v>-0.07776883998403394</v>
       </c>
       <c r="L323">
         <v>-0.03186255224632173</v>
@@ -24519,13 +24519,13 @@
         <v>-0.06750000000000256</v>
       </c>
       <c r="U323">
-        <v>0.9997994142897261</v>
+        <v>-0.0002005857102739261</v>
       </c>
       <c r="V323">
-        <v>0.9996515212438011</v>
+        <v>-0.0003484787561989222</v>
       </c>
       <c r="W323">
-        <v>1.002827140549273</v>
+        <v>0.0028271405492728</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24560,7 +24560,7 @@
         <v>0.6021563991522729</v>
       </c>
       <c r="K324">
-        <v>37.58412096789575</v>
+        <v>-0.1241587903210425</v>
       </c>
       <c r="L324">
         <v>-0.03353461162431729</v>
@@ -24590,13 +24590,13 @@
         <v>-0.07124999999999559</v>
       </c>
       <c r="U324">
-        <v>0.9997191236658374</v>
+        <v>-0.0002808763341626275</v>
       </c>
       <c r="V324">
-        <v>0.9995173227501876</v>
+        <v>-0.0004826772498124354</v>
       </c>
       <c r="W324">
-        <v>0.9971808296415627</v>
+        <v>-0.002819170358437262</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24631,7 +24631,7 @@
         <v>0.7080371181845637</v>
       </c>
       <c r="K325">
-        <v>41.453262967559</v>
+        <v>-0.08546737032440999</v>
       </c>
       <c r="L325">
         <v>-0.0342553204320984</v>
@@ -24661,13 +24661,13 @@
         <v>-0.07499999999999574</v>
       </c>
       <c r="U325">
-        <v>0.9997591812161347</v>
+        <v>-0.000240818783865282</v>
       </c>
       <c r="V325">
-        <v>0.9996780597735689</v>
+        <v>-0.0003219402264310611</v>
       </c>
       <c r="W325">
-        <v>1.001615508885299</v>
+        <v>0.001615508885298933</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24702,7 +24702,7 @@
         <v>0.7080371181845638</v>
       </c>
       <c r="K326">
-        <v>41.45326296755901</v>
+        <v>-0.08546737032440993</v>
       </c>
       <c r="L326">
         <v>-0.03422920757235136</v>
@@ -24732,13 +24732,13 @@
         <v>-0.06375000000000242</v>
       </c>
       <c r="U326">
-        <v>0.999759123208479</v>
+        <v>-0.0002408767915209609</v>
       </c>
       <c r="V326">
-        <v>0.999651119102571</v>
+        <v>-0.0003488808974290158</v>
       </c>
       <c r="W326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24773,7 +24773,7 @@
         <v>0.7373669572516752</v>
       </c>
       <c r="K327">
-        <v>42.44163584290271</v>
+        <v>-0.07558364157097286</v>
       </c>
       <c r="L327">
         <v>-0.03348156565689835</v>
@@ -24803,13 +24803,13 @@
         <v>-0.04250000000000043</v>
       </c>
       <c r="U327">
-        <v>0.9997456799046968</v>
+        <v>-0.0002543200953032398</v>
       </c>
       <c r="V327">
-        <v>0.9996778437005019</v>
+        <v>-0.0003221562994980554</v>
       </c>
       <c r="W327">
-        <v>1.000403225806451</v>
+        <v>0.0004032258064514682</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24844,7 +24844,7 @@
         <v>0.6944845963158136</v>
       </c>
       <c r="K328">
-        <v>40.98500498769818</v>
+        <v>-0.09014995012301819</v>
       </c>
       <c r="L328">
         <v>-0.03251483093603892</v>
@@ -24874,13 +24874,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U328">
-        <v>0.9997456152095328</v>
+        <v>-0.0002543847904672436</v>
       </c>
       <c r="V328">
-        <v>0.999624029862771</v>
+        <v>-0.0003759701372290092</v>
       </c>
       <c r="W328">
-        <v>0.9991938734381298</v>
+        <v>-0.0008061265618701796</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24915,7 +24915,7 @@
         <v>0.6544228509760148</v>
       </c>
       <c r="K329">
-        <v>39.55596059314237</v>
+        <v>-0.1044403940685764</v>
       </c>
       <c r="L329">
         <v>-0.03165129318834101</v>
@@ -24945,13 +24945,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U329">
-        <v>0.9997321584015214</v>
+        <v>-0.0002678415984785909</v>
       </c>
       <c r="V329">
-        <v>0.9995432931252182</v>
+        <v>-0.0004567068747818315</v>
       </c>
       <c r="W329">
-        <v>0.9991932230738201</v>
+        <v>-0.0008067769261799196</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24986,7 +24986,7 @@
         <v>0.6351394886070357</v>
       </c>
       <c r="K330">
-        <v>38.84313803393659</v>
+        <v>-0.1115686196606341</v>
       </c>
       <c r="L330">
         <v>-0.03093680166625976</v>
@@ -25016,13 +25016,13 @@
         <v>-0.01125000000000043</v>
       </c>
       <c r="U330">
-        <v>0.9997052953074976</v>
+        <v>-0.0002947046925023677</v>
       </c>
       <c r="V330">
-        <v>0.9995430844487448</v>
+        <v>-0.0004569155512551548</v>
       </c>
       <c r="W330">
-        <v>0.9995962858296327</v>
+        <v>-0.0004037141703673308</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -25057,7 +25057,7 @@
         <v>0.6971736188260615</v>
       </c>
       <c r="K331">
-        <v>41.07850906310328</v>
+        <v>-0.08921490936896725</v>
       </c>
       <c r="L331">
         <v>-0.02995321472725852</v>
@@ -25087,13 +25087,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U331">
-        <v>0.9997588068981227</v>
+        <v>-0.0002411931018773128</v>
       </c>
       <c r="V331">
-        <v>0.9997042136115518</v>
+        <v>-0.0002957863884481826</v>
       </c>
       <c r="W331">
-        <v>1.000807754442649</v>
+        <v>0.0008077544426494665</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25128,7 +25128,7 @@
         <v>0.8277717877082215</v>
       </c>
       <c r="K332">
-        <v>45.28857449682683</v>
+        <v>-0.04711425503173167</v>
       </c>
       <c r="L332">
         <v>-0.0281745965688151</v>
@@ -25158,13 +25158,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U332">
-        <v>0.9997855544088672</v>
+        <v>-0.0002144455911328169</v>
       </c>
       <c r="V332">
-        <v>0.999784818978966</v>
+        <v>-0.0002151810210340166</v>
       </c>
       <c r="W332">
-        <v>1.001614205004036</v>
+        <v>0.001614205004035529</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25199,7 +25199,7 @@
         <v>0.8277717877082215</v>
       </c>
       <c r="K333">
-        <v>45.28857449682683</v>
+        <v>-0.04711425503173167</v>
       </c>
       <c r="L333">
         <v>-0.02592451875281953</v>
@@ -25229,13 +25229,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U333">
-        <v>0.999785508412092</v>
+        <v>-0.0002144915879079834</v>
       </c>
       <c r="V333">
-        <v>1.00013451708367</v>
+        <v>0.0001345170836697385</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25270,7 +25270,7 @@
         <v>0.7467290358521764</v>
       </c>
       <c r="K334">
-        <v>42.75013585538011</v>
+        <v>-0.07249864144619894</v>
       </c>
       <c r="L334">
         <v>-0.02387686604417894</v>
@@ -25300,13 +25300,13 @@
         <v>0.0087500000000027</v>
       </c>
       <c r="U334">
-        <v>0.9996647849930946</v>
+        <v>-0.000335215006905365</v>
       </c>
       <c r="V334">
-        <v>1.000242098184264</v>
+        <v>0.0002420981842636838</v>
       </c>
       <c r="W334">
-        <v>0.9987912973408541</v>
+        <v>-0.001208702659145855</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25341,7 +25341,7 @@
         <v>0.6372698797986506</v>
       </c>
       <c r="K335">
-        <v>38.92271443221208</v>
+        <v>-0.1107728556778793</v>
       </c>
       <c r="L335">
         <v>-0.02272809836861347</v>
@@ -25371,13 +25371,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U335">
-        <v>0.9996378463932183</v>
+        <v>-0.0003621536067817122</v>
       </c>
       <c r="V335">
-        <v>0.999838640275387</v>
+        <v>-0.0001613597246129528</v>
       </c>
       <c r="W335">
-        <v>0.9979830576845502</v>
+        <v>-0.002016942315449799</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25412,7 +25412,7 @@
         <v>0.6681298460608156</v>
       </c>
       <c r="K336">
-        <v>40.05262825544202</v>
+        <v>-0.09947371744557981</v>
       </c>
       <c r="L336">
         <v>-0.02196837851660531</v>
@@ -25442,13 +25442,13 @@
         <v>-0.004374999999996021</v>
       </c>
       <c r="U336">
-        <v>0.9996779690581937</v>
+        <v>-0.0003220309418062728</v>
       </c>
       <c r="V336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W336">
-        <v>1.000404203718674</v>
+        <v>0.0004042037186742231</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25483,7 +25483,7 @@
         <v>0.7330981960864146</v>
       </c>
       <c r="K337">
-        <v>42.29986493216922</v>
+        <v>-0.07700135067830777</v>
       </c>
       <c r="L337">
         <v>-0.02111992632265057</v>
@@ -25513,13 +25513,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U337">
-        <v>0.999744976712347</v>
+        <v>-0.0002550232876530334</v>
       </c>
       <c r="V337">
-        <v>1.000026897627629</v>
+        <v>2.689762762941861E-05</v>
       </c>
       <c r="W337">
-        <v>1.000808080808081</v>
+        <v>0.0008080808080808133</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25554,7 +25554,7 @@
         <v>0.7088595460308812</v>
       </c>
       <c r="K338">
-        <v>41.4814399274258</v>
+        <v>-0.08518560072574194</v>
       </c>
       <c r="L338">
         <v>-0.02034156116807431</v>
@@ -25584,13 +25584,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U338">
-        <v>0.9997314859567157</v>
+        <v>-0.000268514043284318</v>
       </c>
       <c r="V338">
-        <v>0.9998117216708358</v>
+        <v>-0.0001882783291642376</v>
       </c>
       <c r="W338">
-        <v>0.9995962858296327</v>
+        <v>-0.0004037141703673308</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25625,7 +25625,7 @@
         <v>0.7088595460308814</v>
       </c>
       <c r="K339">
-        <v>41.4814399274258</v>
+        <v>-0.08518560072574194</v>
       </c>
       <c r="L339">
         <v>-0.01958132296115096</v>
@@ -25655,13 +25655,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U339">
-        <v>0.9997582724538033</v>
+        <v>-0.0002417275461966684</v>
       </c>
       <c r="V339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25696,7 +25696,7 @@
         <v>0.6604668220350531</v>
       </c>
       <c r="K340">
-        <v>39.77597223084476</v>
+        <v>-0.1022402776915524</v>
       </c>
       <c r="L340">
         <v>-0.0191026840588768</v>
@@ -25726,13 +25726,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U340">
-        <v>0.9997582140074683</v>
+        <v>-0.0002417859925316623</v>
       </c>
       <c r="V340">
-        <v>0.9998385881846551</v>
+        <v>-0.0001614118153449029</v>
       </c>
       <c r="W340">
-        <v>0.9991922455573504</v>
+        <v>-0.0008077544426495775</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25767,7 +25767,7 @@
         <v>0.6963975714723144</v>
       </c>
       <c r="K341">
-        <v>41.05155437518733</v>
+        <v>-0.08948445624812673</v>
       </c>
       <c r="L341">
         <v>-0.01860913824044821</v>
@@ -25797,13 +25797,13 @@
         <v>-0.01812500000000128</v>
       </c>
       <c r="U341">
-        <v>0.999758155532864</v>
+        <v>-0.0002418444671360431</v>
       </c>
       <c r="V341">
-        <v>0.9998654684388958</v>
+        <v>-0.0001345315611042119</v>
       </c>
       <c r="W341">
-        <v>1.000404203718674</v>
+        <v>0.0004042037186742231</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25838,7 +25838,7 @@
         <v>0.6474240331271587</v>
       </c>
       <c r="K342">
-        <v>39.29917374691998</v>
+        <v>-0.1070082625308001</v>
       </c>
       <c r="L342">
         <v>-0.01836384842965574</v>
@@ -25868,13 +25868,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U342">
-        <v>0.999731218922188</v>
+        <v>-0.0002687810778120303</v>
       </c>
       <c r="V342">
-        <v>0.9997847205403513</v>
+        <v>-0.0002152794596487206</v>
       </c>
       <c r="W342">
-        <v>0.9991919191919192</v>
+        <v>-0.0008080808080808133</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25909,7 +25909,7 @@
         <v>0.7214494104499316</v>
       </c>
       <c r="K343">
-        <v>41.90941691753625</v>
+        <v>-0.08090583082463754</v>
       </c>
       <c r="L343">
         <v>-0.0179244528814932</v>
@@ -25939,13 +25939,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U343">
-        <v>0.9997580319935475</v>
+        <v>-0.0002419680064524865</v>
       </c>
       <c r="V343">
-        <v>0.9998923370925633</v>
+        <v>-0.0001076629074366897</v>
       </c>
       <c r="W343">
-        <v>1.000808734330772</v>
+        <v>0.0008087343307723316</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25980,7 +25980,7 @@
         <v>0.7604101353566612</v>
       </c>
       <c r="K344">
-        <v>43.19505552054784</v>
+        <v>-0.06804944479452163</v>
       </c>
       <c r="L344">
         <v>-0.01718342906323872</v>
@@ -26010,13 +26010,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U344">
-        <v>0.999757973430861</v>
+        <v>-0.0002420265691389645</v>
       </c>
       <c r="V344">
-        <v>0.9999730813750033</v>
+        <v>-2.691862499670794E-05</v>
       </c>
       <c r="W344">
-        <v>1.00040404040404</v>
+        <v>0.0004040404040404066</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -26051,7 +26051,7 @@
         <v>0.8014214247321514</v>
       </c>
       <c r="K345">
-        <v>44.48828096131435</v>
+        <v>-0.05511719038685653</v>
       </c>
       <c r="L345">
         <v>-0.01609742721076269</v>
@@ -26081,13 +26081,13 @@
         <v>-0.01312499999999872</v>
       </c>
       <c r="U345">
-        <v>0.9997848131909516</v>
+        <v>-0.0002151868090484177</v>
       </c>
       <c r="V345">
-        <v>1.000026919349629</v>
+        <v>2.691934962850695E-05</v>
       </c>
       <c r="W345">
-        <v>1.000403877221325</v>
+        <v>0.0004038772213246222</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26122,7 +26122,7 @@
         <v>0.7682559842232748</v>
       </c>
       <c r="K346">
-        <v>43.44710217738861</v>
+        <v>-0.06552897822611392</v>
       </c>
       <c r="L346">
         <v>-0.01495971549653628</v>
@@ -26152,13 +26152,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U346">
-        <v>0.9998251230864428</v>
+        <v>-0.0001748769135572203</v>
       </c>
       <c r="V346">
-        <v>0.9999461627500065</v>
+        <v>-5.38372499935269E-05</v>
       </c>
       <c r="W346">
-        <v>0.9995962858296327</v>
+        <v>-0.0004037141703673308</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26193,7 +26193,7 @@
         <v>0.7682559842232748</v>
       </c>
       <c r="K347">
-        <v>43.44710217738861</v>
+        <v>-0.06552897822611392</v>
       </c>
       <c r="L347">
         <v>-0.01380866648089547</v>
@@ -26223,13 +26223,13 @@
         <v>-0.01187499999999631</v>
       </c>
       <c r="U347">
-        <v>0.9998116380760176</v>
+        <v>-0.0001883619239824164</v>
       </c>
       <c r="V347">
-        <v>0.9998384795542037</v>
+        <v>-0.0001615204457963149</v>
       </c>
       <c r="W347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26264,7 +26264,7 @@
         <v>0.7345728509045193</v>
       </c>
       <c r="K348">
-        <v>42.34891895843205</v>
+        <v>-0.07651081041567948</v>
       </c>
       <c r="L348">
         <v>-0.01281946276675975</v>
@@ -26294,13 +26294,13 @@
         <v>-0.006249999999997868</v>
       </c>
       <c r="U348">
-        <v>0.9999730860841599</v>
+        <v>-2.691391584008773E-05</v>
       </c>
       <c r="V348">
-        <v>0.9998115290379903</v>
+        <v>-0.0001884709620096903</v>
       </c>
       <c r="W348">
-        <v>0.9995961227786753</v>
+        <v>-0.0004038772213247332</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26335,7 +26335,7 @@
         <v>0.6452374215711563</v>
       </c>
       <c r="K349">
-        <v>39.21849899055739</v>
+        <v>-0.1078150100944261</v>
       </c>
       <c r="L349">
         <v>-0.01238542474808907</v>
@@ -26365,13 +26365,13 @@
         <v>-0.003750000000000142</v>
       </c>
       <c r="U349">
-        <v>1.000026914640219</v>
+        <v>2.691464021853385E-05</v>
       </c>
       <c r="V349">
-        <v>0.9998114935099909</v>
+        <v>-0.0001885064900091216</v>
       </c>
       <c r="W349">
-        <v>0.9987878787878788</v>
+        <v>-0.00121212121212122</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26406,7 +26406,7 @@
         <v>0.6452374215711563</v>
       </c>
       <c r="K350">
-        <v>39.21849899055739</v>
+        <v>-0.1078150100944261</v>
       </c>
       <c r="L350">
         <v>-0.01227049700705366</v>
@@ -26436,13 +26436,13 @@
         <v>-0.0006249999999958789</v>
       </c>
       <c r="U350">
-        <v>0.9998923443366393</v>
+        <v>-0.000107655663360684</v>
       </c>
       <c r="V350">
-        <v>0.9999461308481699</v>
+        <v>-5.386915183014374E-05</v>
       </c>
       <c r="W350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26477,7 +26477,7 @@
         <v>0.7799914152400451</v>
       </c>
       <c r="K351">
-        <v>43.8199537684207</v>
+        <v>-0.06180046231579295</v>
       </c>
       <c r="L351">
         <v>-0.01187088453908408</v>
@@ -26507,13 +26507,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W351">
-        <v>1.00121359223301</v>
+        <v>0.001213592233009653</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26548,7 +26548,7 @@
         <v>0.6308514895705717</v>
       </c>
       <c r="K352">
-        <v>38.68233825120917</v>
+        <v>-0.1131766174879083</v>
       </c>
       <c r="L352">
         <v>-0.01201579376908744</v>
@@ -26578,13 +26578,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U352">
-        <v>0.9999192495592373</v>
+        <v>-8.075044076272242E-05</v>
       </c>
       <c r="V352">
-        <v>0.9998114478114478</v>
+        <v>-0.0001885521885521824</v>
       </c>
       <c r="W352">
-        <v>0.997979797979798</v>
+        <v>-0.002020202020202033</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26619,7 +26619,7 @@
         <v>0.8321221604705035</v>
       </c>
       <c r="K353">
-        <v>45.41848673763151</v>
+        <v>-0.04581513262368486</v>
       </c>
       <c r="L353">
         <v>-0.01170297766855615</v>
@@ -26649,13 +26649,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U353">
-        <v>0.9998923240507691</v>
+        <v>-0.0001076759492308899</v>
       </c>
       <c r="V353">
-        <v>0.9999730588932593</v>
+        <v>-2.694110674072991E-05</v>
       </c>
       <c r="W353">
-        <v>1.002024291497976</v>
+        <v>0.002024291497975783</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26690,7 +26690,7 @@
         <v>0.7982961395072463</v>
       </c>
       <c r="K354">
-        <v>44.3918063309633</v>
+        <v>-0.05608193669036704</v>
       </c>
       <c r="L354">
         <v>-0.01123708767893446</v>
@@ -26720,13 +26720,13 @@
         <v>-0.008124999999996163</v>
       </c>
       <c r="U354">
-        <v>0.9999730781138527</v>
+        <v>-2.692188614727975E-05</v>
       </c>
       <c r="V354">
-        <v>0.999946116334833</v>
+        <v>-5.388366516700938E-05</v>
       </c>
       <c r="W354">
-        <v>0.9995959595959595</v>
+        <v>-0.0004040404040405177</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26761,7 +26761,7 @@
         <v>0.8410859359428172</v>
       </c>
       <c r="K355">
-        <v>45.68423013410823</v>
+        <v>-0.04315769865891766</v>
       </c>
       <c r="L355">
         <v>-0.0105202042478554</v>
@@ -26791,13 +26791,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U355">
-        <v>0.999932693472613</v>
+        <v>-6.730652738695664E-05</v>
       </c>
       <c r="V355">
-        <v>1.000026943284386</v>
+        <v>2.694328438623828E-05</v>
       </c>
       <c r="W355">
-        <v>1.000404203718674</v>
+        <v>0.0004042037186742231</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26832,7 +26832,7 @@
         <v>0.8048346608863755</v>
       </c>
       <c r="K356">
-        <v>44.59326265881395</v>
+        <v>-0.05406737341186052</v>
       </c>
       <c r="L356">
         <v>-0.009805593634996517</v>
@@ -26862,13 +26862,13 @@
         <v>-0.01000000000000156</v>
       </c>
       <c r="U356">
-        <v>0.9999192267305672</v>
+        <v>-8.077326943278784E-05</v>
       </c>
       <c r="V356">
-        <v>0.9999730574415348</v>
+        <v>-2.694255846524829E-05</v>
       </c>
       <c r="W356">
-        <v>0.9995959595959595</v>
+        <v>-0.0004040404040405177</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26903,7 +26903,7 @@
         <v>0.8955726824625962</v>
       </c>
       <c r="K357">
-        <v>47.24549423761111</v>
+        <v>-0.02754505762388887</v>
       </c>
       <c r="L357">
         <v>-0.008808106927533116</v>
@@ -26933,13 +26933,13 @@
         <v>-0.005624999999998437</v>
       </c>
       <c r="U357">
-        <v>0.9999326835047661</v>
+        <v>-6.731649523394889E-05</v>
       </c>
       <c r="V357">
-        <v>1.000080829853159</v>
+        <v>8.082985315915892E-05</v>
       </c>
       <c r="W357">
-        <v>1.000808407437348</v>
+        <v>0.0008084074373484462</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26974,7 +26974,7 @@
         <v>0.8547523974709914</v>
       </c>
       <c r="K358">
-        <v>46.08444764036812</v>
+        <v>-0.0391555235963188</v>
       </c>
       <c r="L358">
         <v>-0.007817695900286194</v>
@@ -27004,13 +27004,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U358">
-        <v>0.9999461431783604</v>
+        <v>-5.385682163960848E-05</v>
       </c>
       <c r="V358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W358">
-        <v>0.9995961227786753</v>
+        <v>-0.0004038772213247332</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -27045,7 +27045,7 @@
         <v>1.094647616950194</v>
       </c>
       <c r="K359">
-        <v>52.25927302006055</v>
+        <v>0.02259273020060559</v>
       </c>
       <c r="L359">
         <v>-0.006130867207852196</v>
@@ -27075,13 +27075,13 @@
         <v>0</v>
       </c>
       <c r="U359">
-        <v>1.000040394791765</v>
+        <v>4.039479176465299E-05</v>
       </c>
       <c r="V359">
-        <v>1.000107764426963</v>
+        <v>0.0001077644269626976</v>
       </c>
       <c r="W359">
-        <v>1.002020202020202</v>
+        <v>0.002020202020202033</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27116,7 +27116,7 @@
         <v>1.448177414077436</v>
       </c>
       <c r="K360">
-        <v>59.1532870841047</v>
+        <v>0.091532870841047</v>
       </c>
       <c r="L360">
         <v>-0.003077603206664968</v>
@@ -27146,13 +27146,13 @@
         <v>0.01437500000000114</v>
       </c>
       <c r="U360">
-        <v>1.000148108253669</v>
+        <v>0.0001481082536689549</v>
       </c>
       <c r="V360">
-        <v>1.000269382037606</v>
+        <v>0.0002693820376058476</v>
       </c>
       <c r="W360">
-        <v>1.002822580645161</v>
+        <v>0.002822580645161388</v>
       </c>
     </row>
     <row r="361" spans="1:23">
@@ -27187,7 +27187,7 @@
         <v>1.607664540600991</v>
       </c>
       <c r="K361">
-        <v>61.65150906375676</v>
+        <v>0.1165150906375676</v>
       </c>
       <c r="L361">
         <v>0.001061527556971374</v>
@@ -27217,13 +27217,13 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="U361">
-        <v>1.000161548713668</v>
+        <v>0.000161548713668358</v>
       </c>
       <c r="V361">
-        <v>1.000377033286653</v>
+        <v>0.0003770332866532833</v>
       </c>
       <c r="W361">
-        <v>1.001206272617611</v>
+        <v>0.001206272617611415</v>
       </c>
     </row>
     <row r="362" spans="1:23">
@@ -27258,7 +27258,7 @@
         <v>1.607664540600991</v>
       </c>
       <c r="K362">
-        <v>61.65150906375675</v>
+        <v>0.1165150906375675</v>
       </c>
       <c r="L362">
         <v>0.005590682557075952</v>
@@ -27288,13 +27288,13 @@
         <v>0.03624999999999901</v>
       </c>
       <c r="U362">
-        <v>1.000107681746598</v>
+        <v>0.0001076817465979207</v>
       </c>
       <c r="V362">
-        <v>1.00037689118613</v>
+        <v>0.0003768911861303792</v>
       </c>
       <c r="W362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:23">
@@ -27329,7 +27329,7 @@
         <v>1.60766454060099</v>
       </c>
       <c r="K363">
-        <v>61.65150906375675</v>
+        <v>0.1165150906375675</v>
       </c>
       <c r="L363">
         <v>0.01004657933766305</v>
@@ -27359,13 +27359,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U363">
-        <v>1.000107670152488</v>
+        <v>0.0001076701524880264</v>
       </c>
       <c r="V363">
-        <v>1.0004036598493</v>
+        <v>0.0004036598493004639</v>
       </c>
       <c r="W363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:23">
@@ -27400,7 +27400,7 @@
         <v>1.074607718821632</v>
       </c>
       <c r="K364">
-        <v>51.7981162931373</v>
+        <v>0.01798116293137308</v>
       </c>
       <c r="L364">
         <v>0.01296034228177602</v>
@@ -27430,13 +27430,13 @@
         <v>0.05187500000000256</v>
       </c>
       <c r="U364">
-        <v>1.000040371960328</v>
+        <v>4.037196032768975E-05</v>
       </c>
       <c r="V364">
-        <v>1.000268997982515</v>
+        <v>0.0002689979825150068</v>
       </c>
       <c r="W364">
-        <v>0.9967871485943776</v>
+        <v>-0.003212851405622441</v>
       </c>
     </row>
     <row r="365" spans="1:23">
@@ -27471,7 +27471,7 @@
         <v>1.161863553264636</v>
       </c>
       <c r="K365">
-        <v>53.74361168678304</v>
+        <v>0.03743611686783044</v>
       </c>
       <c r="L365">
         <v>0.01500077526350947</v>
@@ -27501,13 +27501,13 @@
         <v>0.05437500000000028</v>
       </c>
       <c r="U365">
-        <v>1.000134567768328</v>
+        <v>0.0001345677683282087</v>
       </c>
       <c r="V365">
-        <v>1.000322710770472</v>
+        <v>0.0003227107704719678</v>
       </c>
       <c r="W365">
-        <v>1.000805801772764</v>
+        <v>0.0008058017727639033</v>
       </c>
     </row>
     <row r="366" spans="1:23">
@@ -27542,7 +27542,7 @@
         <v>1.161863553264636</v>
       </c>
       <c r="K366">
-        <v>53.74361168678304</v>
+        <v>0.03743611686783044</v>
       </c>
       <c r="L366">
         <v>0.01632723447668489</v>
@@ -27572,13 +27572,13 @@
         <v>0.05812500000000043</v>
       </c>
       <c r="U366">
-        <v>1.000121094696052</v>
+        <v>0.0001210946960523707</v>
       </c>
       <c r="V366">
-        <v>1.000241954996371</v>
+        <v>0.0002419549963705858</v>
       </c>
       <c r="W366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:23">
@@ -27613,7 +27613,7 @@
         <v>0.9736030603140261</v>
       </c>
       <c r="K367">
-        <v>49.33125003155969</v>
+        <v>-0.006687499684403075</v>
       </c>
       <c r="L367">
         <v>0.01648906386772064</v>
@@ -27643,13 +27643,13 @@
         <v>0.05499999999999972</v>
       </c>
       <c r="U367">
-        <v>1.000040360011301</v>
+        <v>4.036001130081068E-05</v>
       </c>
       <c r="V367">
-        <v>1.00026877385368</v>
+        <v>0.0002687738536795159</v>
       </c>
       <c r="W367">
-        <v>0.9983896940418679</v>
+        <v>-0.001610305958132052</v>
       </c>
     </row>
     <row r="368" spans="1:23">
@@ -27684,7 +27684,7 @@
         <v>1.058883702516456</v>
       </c>
       <c r="K368">
-        <v>51.42999098114395</v>
+        <v>0.01429990981143947</v>
       </c>
       <c r="L368">
         <v>0.01616916622646774</v>
@@ -27714,13 +27714,13 @@
         <v>0.04125000000000156</v>
       </c>
       <c r="U368">
-        <v>1.000080716764872</v>
+        <v>8.071676487220181E-05</v>
       </c>
       <c r="V368">
-        <v>1.000188091143594</v>
+        <v>0.0001880911435940824</v>
       </c>
       <c r="W368">
-        <v>1.000806451612903</v>
+        <v>0.0008064516129031585</v>
       </c>
     </row>
     <row r="369" spans="1:23">
@@ -27755,7 +27755,7 @@
         <v>1.013397799793843</v>
       </c>
       <c r="K369">
-        <v>50.33271616257887</v>
+        <v>0.003327161625788722</v>
       </c>
       <c r="L369">
         <v>0.01537207689391057</v>
@@ -27785,13 +27785,13 @@
         <v>0.02625000000000099</v>
       </c>
       <c r="U369">
-        <v>1.000067258541835</v>
+        <v>6.725854183464719E-05</v>
       </c>
       <c r="V369">
-        <v>1.000188055771969</v>
+        <v>0.00018805577196912</v>
       </c>
       <c r="W369">
-        <v>0.9995970991136179</v>
+        <v>-0.0004029008863820627</v>
       </c>
     </row>
     <row r="370" spans="1:23">
@@ -27826,7 +27826,7 @@
         <v>1.013397799793843</v>
       </c>
       <c r="K370">
-        <v>50.33271616257888</v>
+        <v>0.003327161625788833</v>
       </c>
       <c r="L370">
         <v>0.01428086852314402</v>
@@ -27856,13 +27856,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U370">
-        <v>1.000094155625799</v>
+        <v>9.415562579850878E-05</v>
       </c>
       <c r="V370">
-        <v>1.000161160354553</v>
+        <v>0.0001611603545528251</v>
       </c>
       <c r="W370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:23">
@@ -27897,7 +27897,7 @@
         <v>0.7601355643490197</v>
       </c>
       <c r="K371">
-        <v>43.18619427647059</v>
+        <v>-0.06813805723529404</v>
       </c>
       <c r="L371">
         <v>0.01200085192381684</v>
@@ -27927,13 +27927,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U371">
-        <v>0.9999865504626639</v>
+        <v>-1.344953733606324E-05</v>
       </c>
       <c r="V371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W371">
-        <v>0.9971785570334543</v>
+        <v>-0.00282144296654574</v>
       </c>
     </row>
     <row r="372" spans="1:23">
@@ -27968,7 +27968,7 @@
         <v>0.7977166077371003</v>
       </c>
       <c r="K372">
-        <v>44.37387985980931</v>
+        <v>-0.05626120140190688</v>
       </c>
       <c r="L372">
         <v>0.009249621753258649</v>
@@ -27998,13 +27998,13 @@
         <v>-0.01812500000000128</v>
       </c>
       <c r="U372">
-        <v>1.000026899436457</v>
+        <v>2.689943645672876E-05</v>
       </c>
       <c r="V372">
-        <v>0.999973144268987</v>
+        <v>-2.685573101302019E-05</v>
       </c>
       <c r="W372">
-        <v>1.000404203718674</v>
+        <v>0.0004042037186742231</v>
       </c>
     </row>
     <row r="373" spans="1:23">
@@ -28039,7 +28039,7 @@
         <v>0.7977166077371004</v>
       </c>
       <c r="K373">
-        <v>44.37387985980931</v>
+        <v>-0.05626120140190688</v>
       </c>
       <c r="L373">
         <v>0.00635478644559247</v>
@@ -28069,13 +28069,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:23">
@@ -28110,7 +28110,7 @@
         <v>0.839357653042453</v>
       </c>
       <c r="K374">
-        <v>45.63319437381222</v>
+        <v>-0.04366805626187786</v>
       </c>
       <c r="L374">
         <v>0.003681204955981284</v>
@@ -28140,13 +28140,13 @@
         <v>-0.03937499999999972</v>
       </c>
       <c r="U374">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V374">
-        <v>0.9998925741909493</v>
+        <v>-0.0001074258090506541</v>
       </c>
       <c r="W374">
-        <v>1.00040404040404</v>
+        <v>0.0004040404040404066</v>
       </c>
     </row>
     <row r="375" spans="1:23">
@@ -28181,7 +28181,7 @@
         <v>0.7717057884154807</v>
       </c>
       <c r="K375">
-        <v>43.55722002272473</v>
+        <v>-0.0644277997727527</v>
       </c>
       <c r="L375">
         <v>0.001004871815141121</v>
@@ -28211,13 +28211,13 @@
         <v>-0.04312499999999986</v>
       </c>
       <c r="U375">
-        <v>0.9999596519306548</v>
+        <v>-4.034806934516411E-05</v>
       </c>
       <c r="V375">
-        <v>0.9996508286105664</v>
+        <v>-0.000349171389433578</v>
       </c>
       <c r="W375">
-        <v>0.9991922455573504</v>
+        <v>-0.0008077544426495775</v>
       </c>
     </row>
     <row r="376" spans="1:23">
@@ -28252,7 +28252,7 @@
         <v>0.7717057884154808</v>
       </c>
       <c r="K376">
-        <v>43.55722002272473</v>
+        <v>-0.0644277997727527</v>
       </c>
       <c r="L376">
         <v>-0.001506322894861783</v>
@@ -28282,13 +28282,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U376">
-        <v>0.9999731002017486</v>
+        <v>-2.689979825143407E-05</v>
       </c>
       <c r="V376">
-        <v>0.9995701004890106</v>
+        <v>-0.0004298995109893733</v>
       </c>
       <c r="W376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:23">
@@ -28323,7 +28323,7 @@
         <v>0.8163592889527176</v>
       </c>
       <c r="K377">
-        <v>44.94481317203584</v>
+        <v>-0.05055186827964159</v>
       </c>
       <c r="L377">
         <v>-0.003605252960930383</v>
@@ -28353,13 +28353,13 @@
         <v>-0.04312499999999986</v>
       </c>
       <c r="U377">
-        <v>0.9999865497390649</v>
+        <v>-1.34502609351328E-05</v>
       </c>
       <c r="V377">
-        <v>0.9995967958711898</v>
+        <v>-0.0004032041288102306</v>
       </c>
       <c r="W377">
-        <v>1.000404203718674</v>
+        <v>0.0004042037186742231</v>
       </c>
     </row>
     <row r="378" spans="1:23">
@@ -28394,7 +28394,7 @@
         <v>0.6367747353502559</v>
       </c>
       <c r="K378">
-        <v>38.90423780362124</v>
+        <v>-0.1109576219637876</v>
       </c>
       <c r="L378">
         <v>-0.006188828729615024</v>
@@ -28424,13 +28424,13 @@
         <v>-0.04499999999999815</v>
       </c>
       <c r="U378">
-        <v>0.9999192973489179</v>
+        <v>-8.07026510820652E-05</v>
       </c>
       <c r="V378">
-        <v>0.9994352865248609</v>
+        <v>-0.0005647134751390892</v>
       </c>
       <c r="W378">
-        <v>0.9975757575757577</v>
+        <v>-0.002424242424242329</v>
       </c>
     </row>
     <row r="379" spans="1:23">
@@ -28465,7 +28465,7 @@
         <v>0.5706991164094356</v>
       </c>
       <c r="K379">
-        <v>36.33408273088192</v>
+        <v>-0.1366591726911808</v>
       </c>
       <c r="L379">
         <v>-0.009319763038442534</v>
@@ -28495,13 +28495,13 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="U379">
-        <v>0.9999192908354744</v>
+        <v>-8.070916452562749E-05</v>
       </c>
       <c r="V379">
-        <v>0.9995694990044663</v>
+        <v>-0.0004305009955336558</v>
       </c>
       <c r="W379">
-        <v>0.9987849331713243</v>
+        <v>-0.001215066828675671</v>
       </c>
     </row>
     <row r="380" spans="1:23">
@@ -28536,7 +28536,7 @@
         <v>0.7891540243521596</v>
       </c>
       <c r="K380">
-        <v>44.10766281778937</v>
+        <v>-0.05892337182210633</v>
       </c>
       <c r="L380">
         <v>-0.01166813048121285</v>
@@ -28566,13 +28566,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V380">
-        <v>0.9996769851951548</v>
+        <v>-0.0003230148048452008</v>
       </c>
       <c r="W380">
-        <v>1.002433090024331</v>
+        <v>0.002433090024330786</v>
       </c>
     </row>
     <row r="381" spans="1:23">
@@ -28607,7 +28607,7 @@
         <v>0.732971165253844</v>
       </c>
       <c r="K381">
-        <v>42.29563537754992</v>
+        <v>-0.07704364622450077</v>
       </c>
       <c r="L381">
         <v>-0.01364433379062652</v>
@@ -28637,13 +28637,13 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="U381">
-        <v>0.9999327369341494</v>
+        <v>-6.726306585058683E-05</v>
       </c>
       <c r="V381">
-        <v>0.9996230276266896</v>
+        <v>-0.000376972373310358</v>
       </c>
       <c r="W381">
-        <v>0.9991909385113269</v>
+        <v>-0.0008090614886731018</v>
       </c>
     </row>
     <row r="382" spans="1:23">
@@ -28678,7 +28678,7 @@
         <v>0.6173157837726603</v>
       </c>
       <c r="K382">
-        <v>38.1691559537413</v>
+        <v>-0.118308440462587</v>
       </c>
       <c r="L382">
         <v>-0.01595438157131808</v>
@@ -28708,13 +28708,13 @@
         <v>-0.03687499999999844</v>
       </c>
       <c r="U382">
-        <v>0.9999327324095252</v>
+        <v>-6.726759047481767E-05</v>
       </c>
       <c r="V382">
-        <v>0.9995959487124232</v>
+        <v>-0.0004040512875768121</v>
       </c>
       <c r="W382">
-        <v>0.9979757085020242</v>
+        <v>-0.002024291497975783</v>
       </c>
     </row>
     <row r="383" spans="1:23">
@@ -28749,7 +28749,7 @@
         <v>0.7834103214481449</v>
       </c>
       <c r="K383">
-        <v>43.92765433879562</v>
+        <v>-0.06072345661204381</v>
       </c>
       <c r="L383">
         <v>-0.01752738119702059</v>
@@ -28779,13 +28779,13 @@
         <v>-0.03562500000000313</v>
       </c>
       <c r="U383">
-        <v>0.9999327278842919</v>
+        <v>-6.727211570811686E-05</v>
       </c>
       <c r="V383">
-        <v>0.9996766283111915</v>
+        <v>-0.0003233716888084714</v>
       </c>
       <c r="W383">
-        <v>1.002028397565923</v>
+        <v>0.00202839756592299</v>
       </c>
     </row>
     <row r="384" spans="1:23">
@@ -28820,7 +28820,7 @@
         <v>0.666825058498882</v>
       </c>
       <c r="K384">
-        <v>40.00570156411104</v>
+        <v>-0.0999429843588896</v>
       </c>
       <c r="L384">
         <v>-0.01922485160131651</v>
@@ -28850,13 +28850,13 @@
         <v>-0.03624999999999901</v>
       </c>
       <c r="U384">
-        <v>0.9998789020452099</v>
+        <v>-0.0001210979547900948</v>
       </c>
       <c r="V384">
-        <v>0.9995686982774886</v>
+        <v>-0.0004313017225113791</v>
       </c>
       <c r="W384">
-        <v>0.9979757085020242</v>
+        <v>-0.002024291497975783</v>
       </c>
     </row>
   </sheetData>
